--- a/BANDEJA DO PERIODO.xlsx
+++ b/BANDEJA DO PERIODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/980841a2e24dade8/Profissional/The Coffee/Operação/2.Gestão da Qualidade/Bandejas/Bandejas semanais/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Repositories\bonus_bandejas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3540" documentId="13_ncr:4000b_{D3240E66-DB17-44F6-81B1-0D6B85E22F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E76A7A94-5D17-4A4E-9C55-AA1B68E8EE35}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E7D2D2-F013-4289-9A3A-762465F99C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-96" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="período" sheetId="4" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId7"/>
-    <pivotCache cacheId="34" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="82">
   <si>
     <t xml:space="preserve">               New / App / Cold</t>
   </si>
@@ -1812,9 +1812,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel Bezerra de Melo Silva" refreshedDate="45240.872888194448" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="286" xr:uid="{9B5733B9-D351-4D08-9F8A-CB6331F2432F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel Bezerra de Melo Silva" refreshedDate="45280.880935416666" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="321" xr:uid="{9B5733B9-D351-4D08-9F8A-CB6331F2432F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J287" sheet="baristas"/>
+    <worksheetSource ref="A1:J322" sheet="baristas"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Ano" numFmtId="0">
@@ -2782,7 +2782,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="286">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="321">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6215,12 +6215,432 @@
     <n v="0"/>
     <n v="9"/>
   </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993A75B1-F664-4E54-94B9-642F255C2CD9}" name="Tabela dinâmica5" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993A75B1-F664-4E54-94B9-642F255C2CD9}" name="Tabela dinâmica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
       <items count="3">
@@ -6298,7 +6718,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="50">
     <i>
       <x/>
     </i>
@@ -6425,6 +6845,27 @@
     <i>
       <x v="42"/>
     </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -6476,7 +6917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D0BEC72-E2E3-4364-A338-C437D8B6491F}" name="Tabela dinâmica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D0BEC72-E2E3-4364-A338-C437D8B6491F}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -6664,8 +7105,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}" name="Tabela1" displayName="Tabela1" ref="A1:AI72" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" dataCellStyle="Porcentagem">
-  <autoFilter ref="A1:AI72" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}" name="Tabela1" displayName="Tabela1" ref="A1:AI77" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" dataCellStyle="Porcentagem">
+  <autoFilter ref="A1:AI77" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}"/>
   <tableColumns count="35">
     <tableColumn id="35" xr3:uid="{D883C38E-9A1B-4018-9C05-1951B621A1A9}" name="Ano" dataDxfId="39"/>
     <tableColumn id="1" xr3:uid="{58D0E2F2-6E36-4066-8A1E-F3A3770AE0D4}" name="Semana" dataDxfId="38"/>
@@ -6744,8 +7185,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}" name="Tabela2" displayName="Tabela2" ref="A1:J72" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:J72" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}" name="Tabela2" displayName="Tabela2" ref="A1:J79" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:J79" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}"/>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{B3A7EC93-D052-476E-A7D0-7F9FEE82E6EB}" name="Ano" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{8907E03F-0276-4E6E-BA76-03A5F7E7ABA8}" name="Semana" dataDxfId="3"/>
@@ -6767,8 +7208,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}" name="Tabela3" displayName="Tabela3" ref="A1:J287" totalsRowShown="0">
-  <autoFilter ref="A1:J287" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}" name="Tabela3" displayName="Tabela3" ref="A1:J322" totalsRowShown="0">
+  <autoFilter ref="A1:J322" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}"/>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{19C2ECCC-C5CA-4CBA-9A19-FCC8487A8CC6}" name="Ano"/>
     <tableColumn id="1" xr3:uid="{42E434D7-D8A5-4430-8FC7-28848FD6B96A}" name="Semana"/>
@@ -7095,13 +7536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK72"/>
+  <dimension ref="A1:AK77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S67" sqref="S67:S72"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73:Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16190,6 +16631,621 @@
         <v>1.0198477767006608</v>
       </c>
     </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A73" s="49">
+        <v>2023</v>
+      </c>
+      <c r="B73" s="49">
+        <v>45</v>
+      </c>
+      <c r="C73" s="13">
+        <v>43</v>
+      </c>
+      <c r="D73" s="13">
+        <v>486</v>
+      </c>
+      <c r="E73" s="13">
+        <v>78</v>
+      </c>
+      <c r="F73" s="13">
+        <v>125</v>
+      </c>
+      <c r="G73" s="13">
+        <v>9</v>
+      </c>
+      <c r="H73" s="13">
+        <v>191</v>
+      </c>
+      <c r="I73" s="13">
+        <v>2</v>
+      </c>
+      <c r="J73" s="50">
+        <f t="shared" ref="J73:J77" si="149">SUM(C73:I73)</f>
+        <v>934</v>
+      </c>
+      <c r="K73" s="3">
+        <v>507.7465195479482</v>
+      </c>
+      <c r="L73" s="3">
+        <v>6165.2674300271892</v>
+      </c>
+      <c r="M73" s="3">
+        <v>1587.0930174970829</v>
+      </c>
+      <c r="N73" s="3">
+        <v>819.44626599165531</v>
+      </c>
+      <c r="O73" s="3">
+        <v>139.87000049393401</v>
+      </c>
+      <c r="P73" s="3">
+        <v>454.20434174666781</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>192</v>
+      </c>
+      <c r="R73" s="38">
+        <f t="shared" ref="R73:R77" si="150">SUM(K73:Q73)</f>
+        <v>9865.6275753044793</v>
+      </c>
+      <c r="S73" s="39">
+        <f>(C73*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D73*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F73*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G73*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H73*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C73:H73)</f>
+        <v>11.114407898658484</v>
+      </c>
+      <c r="T73" s="58">
+        <f t="shared" ref="T73:T77" si="151">$K73/SUM($K73:$Q73)</f>
+        <v>5.1466215977879926E-2</v>
+      </c>
+      <c r="U73" s="58">
+        <f t="shared" ref="U73:U77" si="152">L73/SUM($K73:$Q73)</f>
+        <v>0.62492399829282153</v>
+      </c>
+      <c r="V73" s="58">
+        <f t="shared" ref="V73:Y77" si="153">M73/SUM($K$2:$Q$2)</f>
+        <v>0.4518144160767848</v>
+      </c>
+      <c r="W73" s="58">
+        <f t="shared" si="153"/>
+        <v>0.23328036359154475</v>
+      </c>
+      <c r="X73" s="58">
+        <f t="shared" si="153"/>
+        <v>3.9818260116529398E-2</v>
+      </c>
+      <c r="Y73" s="58">
+        <f t="shared" si="153"/>
+        <v>0.12930311404774883</v>
+      </c>
+      <c r="Z73" s="58"/>
+      <c r="AA73" s="58">
+        <f t="shared" ref="AA73:AA77" si="154">R73/SUM($K73:$Q73)</f>
+        <v>1</v>
+      </c>
+      <c r="AB73" s="58">
+        <f t="shared" ref="AB73:AH77" si="155">K73/SUM($K73:$P73)</f>
+        <v>5.2487705940236877E-2</v>
+      </c>
+      <c r="AC73" s="58">
+        <f t="shared" si="155"/>
+        <v>0.63732735026582166</v>
+      </c>
+      <c r="AD73" s="58">
+        <f t="shared" si="155"/>
+        <v>0.16406389486698106</v>
+      </c>
+      <c r="AE73" s="58">
+        <f t="shared" si="155"/>
+        <v>8.4709304716629338E-2</v>
+      </c>
+      <c r="AF73" s="58">
+        <f t="shared" si="155"/>
+        <v>1.4458898629817427E-2</v>
+      </c>
+      <c r="AG73" s="58">
+        <f t="shared" si="155"/>
+        <v>4.6952845580513436E-2</v>
+      </c>
+      <c r="AH73" s="58">
+        <f t="shared" si="155"/>
+        <v>1.9847776700660999E-2</v>
+      </c>
+      <c r="AI73" s="59">
+        <f t="shared" ref="AI73:AI77" si="156">SUM($AB73:$AH73)</f>
+        <v>1.0198477767006608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A74" s="49">
+        <v>2023</v>
+      </c>
+      <c r="B74" s="49">
+        <v>46</v>
+      </c>
+      <c r="C74" s="13">
+        <v>43</v>
+      </c>
+      <c r="D74" s="13">
+        <v>538</v>
+      </c>
+      <c r="E74" s="13">
+        <v>56</v>
+      </c>
+      <c r="F74" s="13">
+        <v>111</v>
+      </c>
+      <c r="G74" s="13">
+        <v>7</v>
+      </c>
+      <c r="H74" s="13">
+        <v>230</v>
+      </c>
+      <c r="I74" s="13">
+        <v>3</v>
+      </c>
+      <c r="J74" s="50">
+        <f t="shared" si="149"/>
+        <v>988</v>
+      </c>
+      <c r="K74" s="3">
+        <v>488.20609443355102</v>
+      </c>
+      <c r="L74" s="3">
+        <v>6911.6442358573122</v>
+      </c>
+      <c r="M74" s="3">
+        <v>1106.1559279110911</v>
+      </c>
+      <c r="N74" s="3">
+        <v>723.43127229628396</v>
+      </c>
+      <c r="O74" s="3">
+        <v>123.52499988059765</v>
+      </c>
+      <c r="P74" s="3">
+        <v>546.83503417580539</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>136</v>
+      </c>
+      <c r="R74" s="38">
+        <f t="shared" si="150"/>
+        <v>10035.797564554641</v>
+      </c>
+      <c r="S74" s="39">
+        <f>(C74*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D74*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F74*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G74*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H74*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C74:H74)</f>
+        <v>11.04192748686437</v>
+      </c>
+      <c r="T74" s="58">
+        <f t="shared" si="151"/>
+        <v>4.8646466939293642E-2</v>
+      </c>
+      <c r="U74" s="58">
+        <f t="shared" si="152"/>
+        <v>0.68869904872020304</v>
+      </c>
+      <c r="V74" s="58">
+        <f t="shared" si="153"/>
+        <v>0.31490101030574424</v>
+      </c>
+      <c r="W74" s="58">
+        <f t="shared" si="153"/>
+        <v>0.20594676824909652</v>
+      </c>
+      <c r="X74" s="58">
+        <f t="shared" si="153"/>
+        <v>3.5165157351616738E-2</v>
+      </c>
+      <c r="Y74" s="58">
+        <f t="shared" si="153"/>
+        <v>0.15567326485129865</v>
+      </c>
+      <c r="Z74" s="58"/>
+      <c r="AA74" s="58">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="AB74" s="58">
+        <f t="shared" si="155"/>
+        <v>4.9314755301818516E-2</v>
+      </c>
+      <c r="AC74" s="58">
+        <f t="shared" si="155"/>
+        <v>0.69816015840605161</v>
+      </c>
+      <c r="AD74" s="58">
+        <f t="shared" si="155"/>
+        <v>0.11173520677549868</v>
+      </c>
+      <c r="AE74" s="58">
+        <f t="shared" si="155"/>
+        <v>7.3075360135288661E-2</v>
+      </c>
+      <c r="AF74" s="58">
+        <f t="shared" si="155"/>
+        <v>1.2477527856010723E-2</v>
+      </c>
+      <c r="AG74" s="58">
+        <f t="shared" si="155"/>
+        <v>5.5236991525331826E-2</v>
+      </c>
+      <c r="AH74" s="58">
+        <f t="shared" si="155"/>
+        <v>1.3737654645276393E-2</v>
+      </c>
+      <c r="AI74" s="59">
+        <f t="shared" si="156"/>
+        <v>1.0137376546452763</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A75" s="49">
+        <v>2023</v>
+      </c>
+      <c r="B75" s="49">
+        <v>47</v>
+      </c>
+      <c r="C75" s="13">
+        <v>42</v>
+      </c>
+      <c r="D75" s="13">
+        <v>482</v>
+      </c>
+      <c r="E75" s="13">
+        <v>77</v>
+      </c>
+      <c r="F75" s="13">
+        <v>121</v>
+      </c>
+      <c r="G75" s="13">
+        <v>11</v>
+      </c>
+      <c r="H75" s="13">
+        <v>175</v>
+      </c>
+      <c r="I75" s="13">
+        <v>1</v>
+      </c>
+      <c r="J75" s="50">
+        <f t="shared" si="149"/>
+        <v>909</v>
+      </c>
+      <c r="K75" s="3">
+        <v>446.00001497325781</v>
+      </c>
+      <c r="L75" s="3">
+        <v>6295.4027893065813</v>
+      </c>
+      <c r="M75" s="3">
+        <v>1529.4642479564579</v>
+      </c>
+      <c r="N75" s="3">
+        <v>882.96433823468647</v>
+      </c>
+      <c r="O75" s="3">
+        <v>169.77217271693809</v>
+      </c>
+      <c r="P75" s="3">
+        <v>376.95850907960823</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>35</v>
+      </c>
+      <c r="R75" s="38">
+        <f t="shared" si="150"/>
+        <v>9735.5620722675285</v>
+      </c>
+      <c r="S75" s="39">
+        <f>(C75*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D75*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F75*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G75*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H75*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C75:H75)</f>
+        <v>11.255394322236393</v>
+      </c>
+      <c r="T75" s="58">
+        <f t="shared" si="151"/>
+        <v>4.5811429444194286E-2</v>
+      </c>
+      <c r="U75" s="58">
+        <f t="shared" si="152"/>
+        <v>0.64663989018564261</v>
+      </c>
+      <c r="V75" s="58">
+        <f t="shared" si="153"/>
+        <v>0.43540862979194345</v>
+      </c>
+      <c r="W75" s="58">
+        <f t="shared" si="153"/>
+        <v>0.25136271944871236</v>
+      </c>
+      <c r="X75" s="58">
+        <f t="shared" si="153"/>
+        <v>4.8330825122750831E-2</v>
+      </c>
+      <c r="Y75" s="58">
+        <f t="shared" si="153"/>
+        <v>0.10731273264220735</v>
+      </c>
+      <c r="Z75" s="58"/>
+      <c r="AA75" s="58">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="AB75" s="58">
+        <f t="shared" si="155"/>
+        <v>4.5976718838623365E-2</v>
+      </c>
+      <c r="AC75" s="58">
+        <f t="shared" si="155"/>
+        <v>0.64897299170985223</v>
+      </c>
+      <c r="AD75" s="58">
+        <f t="shared" si="155"/>
+        <v>0.15766759045117293</v>
+      </c>
+      <c r="AE75" s="58">
+        <f t="shared" si="155"/>
+        <v>9.1021977041820176E-2</v>
+      </c>
+      <c r="AF75" s="58">
+        <f t="shared" si="155"/>
+        <v>1.7501271725510793E-2</v>
+      </c>
+      <c r="AG75" s="58">
+        <f t="shared" si="155"/>
+        <v>3.8859450233020704E-2</v>
+      </c>
+      <c r="AH75" s="58">
+        <f t="shared" si="155"/>
+        <v>3.6080383527527567E-3</v>
+      </c>
+      <c r="AI75" s="59">
+        <f t="shared" si="156"/>
+        <v>1.003608038352753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A76" s="49">
+        <v>2023</v>
+      </c>
+      <c r="B76" s="49">
+        <v>48</v>
+      </c>
+      <c r="C76" s="13">
+        <v>40</v>
+      </c>
+      <c r="D76" s="13">
+        <v>419</v>
+      </c>
+      <c r="E76" s="13">
+        <v>71</v>
+      </c>
+      <c r="F76" s="13">
+        <v>126</v>
+      </c>
+      <c r="G76" s="13">
+        <v>11</v>
+      </c>
+      <c r="H76" s="13">
+        <v>151</v>
+      </c>
+      <c r="I76" s="13">
+        <v>4</v>
+      </c>
+      <c r="J76" s="50">
+        <f t="shared" si="149"/>
+        <v>822</v>
+      </c>
+      <c r="K76" s="3">
+        <v>394.35456609878793</v>
+      </c>
+      <c r="L76" s="3">
+        <v>5169.0090640182416</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1454.5380151166046</v>
+      </c>
+      <c r="N76" s="3">
+        <v>862.32824085601897</v>
+      </c>
+      <c r="O76" s="3">
+        <v>174.65499845086453</v>
+      </c>
+      <c r="P76" s="3">
+        <v>347.35886884377516</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>97.419410664231847</v>
+      </c>
+      <c r="R76" s="38">
+        <f t="shared" si="150"/>
+        <v>8499.6631640485248</v>
+      </c>
+      <c r="S76" s="39">
+        <f>(C76*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D76*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F76*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G76*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H76*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C76:H76)</f>
+        <v>11.423440717089179</v>
+      </c>
+      <c r="T76" s="58">
+        <f t="shared" si="151"/>
+        <v>4.6396493424211246E-2</v>
+      </c>
+      <c r="U76" s="58">
+        <f t="shared" si="152"/>
+        <v>0.60814281275073023</v>
+      </c>
+      <c r="V76" s="58">
+        <f t="shared" si="153"/>
+        <v>0.41407859319915519</v>
+      </c>
+      <c r="W76" s="58">
+        <f t="shared" si="153"/>
+        <v>0.24548802515892826</v>
+      </c>
+      <c r="X76" s="58">
+        <f t="shared" si="153"/>
+        <v>4.9720870339670653E-2</v>
+      </c>
+      <c r="Y76" s="58">
+        <f t="shared" si="153"/>
+        <v>9.8886292589987532E-2</v>
+      </c>
+      <c r="Z76" s="58"/>
+      <c r="AA76" s="58">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="AB76" s="58">
+        <f t="shared" si="155"/>
+        <v>4.693443533341294E-2</v>
+      </c>
+      <c r="AC76" s="58">
+        <f t="shared" si="155"/>
+        <v>0.61519389531352797</v>
+      </c>
+      <c r="AD76" s="58">
+        <f t="shared" si="155"/>
+        <v>0.1731130466824102</v>
+      </c>
+      <c r="AE76" s="58">
+        <f t="shared" si="155"/>
+        <v>0.10263070986350362</v>
+      </c>
+      <c r="AF76" s="58">
+        <f t="shared" si="155"/>
+        <v>2.0786709309702688E-2</v>
+      </c>
+      <c r="AG76" s="58">
+        <f t="shared" si="155"/>
+        <v>4.1341203497442504E-2</v>
+      </c>
+      <c r="AH76" s="58">
+        <f t="shared" si="155"/>
+        <v>1.1594451854005405E-2</v>
+      </c>
+      <c r="AI76" s="59">
+        <f t="shared" si="156"/>
+        <v>1.0115944518540054</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A77" s="49">
+        <v>2023</v>
+      </c>
+      <c r="B77" s="49">
+        <v>49</v>
+      </c>
+      <c r="C77" s="13">
+        <v>39</v>
+      </c>
+      <c r="D77" s="13">
+        <v>449</v>
+      </c>
+      <c r="E77" s="13">
+        <v>58</v>
+      </c>
+      <c r="F77" s="13">
+        <v>116</v>
+      </c>
+      <c r="G77" s="13">
+        <v>7</v>
+      </c>
+      <c r="H77" s="13">
+        <v>176</v>
+      </c>
+      <c r="I77" s="13">
+        <v>6</v>
+      </c>
+      <c r="J77" s="50">
+        <f t="shared" si="149"/>
+        <v>851</v>
+      </c>
+      <c r="K77" s="3">
+        <v>379.05395985218553</v>
+      </c>
+      <c r="L77" s="3">
+        <v>5637.4895128204225</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1171.1360804265946</v>
+      </c>
+      <c r="N77" s="3">
+        <v>829.02434486168477</v>
+      </c>
+      <c r="O77" s="3">
+        <v>119.49999809265137</v>
+      </c>
+      <c r="P77" s="3">
+        <v>377.46436081187881</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>273.40373616874427</v>
+      </c>
+      <c r="R77" s="38">
+        <f t="shared" si="150"/>
+        <v>8787.071993034162</v>
+      </c>
+      <c r="S77" s="39">
+        <f>(C77*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D77*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F77*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G77*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H77*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C77:H77)</f>
+        <v>11.293444063808437</v>
+      </c>
+      <c r="T77" s="58">
+        <f t="shared" si="151"/>
+        <v>4.3137686837285007E-2</v>
+      </c>
+      <c r="U77" s="58">
+        <f t="shared" si="152"/>
+        <v>0.64156632804300107</v>
+      </c>
+      <c r="V77" s="58">
+        <f t="shared" si="153"/>
+        <v>0.33339959188962209</v>
+      </c>
+      <c r="W77" s="58">
+        <f t="shared" si="153"/>
+        <v>0.23600705576654055</v>
+      </c>
+      <c r="X77" s="58">
+        <f t="shared" si="153"/>
+        <v>3.4019317874988644E-2</v>
+      </c>
+      <c r="Y77" s="58">
+        <f t="shared" si="153"/>
+        <v>0.10745673876063744</v>
+      </c>
+      <c r="Z77" s="58"/>
+      <c r="AA77" s="58">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="AB77" s="58">
+        <f t="shared" si="155"/>
+        <v>4.4522989199927608E-2</v>
+      </c>
+      <c r="AC77" s="58">
+        <f t="shared" si="155"/>
+        <v>0.66216927213182797</v>
+      </c>
+      <c r="AD77" s="58">
+        <f t="shared" si="155"/>
+        <v>0.13755951548642867</v>
+      </c>
+      <c r="AE77" s="58">
+        <f t="shared" si="155"/>
+        <v>9.7375692809402101E-2</v>
+      </c>
+      <c r="AF77" s="58">
+        <f t="shared" si="155"/>
+        <v>1.4036252586690423E-2</v>
+      </c>
+      <c r="AG77" s="58">
+        <f t="shared" si="155"/>
+        <v>4.4336277785723181E-2</v>
+      </c>
+      <c r="AH77" s="58">
+        <f t="shared" si="155"/>
+        <v>3.2113505943606818E-2</v>
+      </c>
+      <c r="AI77" s="59">
+        <f t="shared" si="156"/>
+        <v>1.0321135059436066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16202,10 +17258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A72"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18660,6 +19716,244 @@
         <v>15.176211322772104</v>
       </c>
     </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="52">
+        <v>2023</v>
+      </c>
+      <c r="B73" s="52">
+        <v>45</v>
+      </c>
+      <c r="C73" s="13">
+        <v>0</v>
+      </c>
+      <c r="D73" s="13">
+        <v>8</v>
+      </c>
+      <c r="E73" s="13">
+        <v>12</v>
+      </c>
+      <c r="F73" s="13">
+        <v>10</v>
+      </c>
+      <c r="G73" s="13">
+        <v>5</v>
+      </c>
+      <c r="H73" s="13">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73:I79" si="10">SUM(C73:H73)</f>
+        <v>38</v>
+      </c>
+      <c r="J73" s="11">
+        <f>(C73*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D73*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E73*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F73*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G73*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H73*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C73:H73)</f>
+        <v>16.690074349799939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="52">
+        <v>2023</v>
+      </c>
+      <c r="B74" s="52">
+        <v>46</v>
+      </c>
+      <c r="C74" s="13">
+        <v>0</v>
+      </c>
+      <c r="D74" s="13">
+        <v>27</v>
+      </c>
+      <c r="E74" s="13">
+        <v>5</v>
+      </c>
+      <c r="F74" s="13">
+        <v>2</v>
+      </c>
+      <c r="G74" s="13">
+        <v>6</v>
+      </c>
+      <c r="H74" s="13">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="J74" s="11">
+        <f>(C74*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D74*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E74*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F74*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G74*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H74*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C74:H74)</f>
+        <v>15.830891812865499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="52">
+        <v>2023</v>
+      </c>
+      <c r="B75" s="52">
+        <v>47</v>
+      </c>
+      <c r="C75" s="13">
+        <v>0</v>
+      </c>
+      <c r="D75" s="13">
+        <v>20</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+      <c r="F75" s="13">
+        <v>4</v>
+      </c>
+      <c r="G75" s="13">
+        <v>10</v>
+      </c>
+      <c r="H75" s="13">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="J75" s="11">
+        <f>(C75*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D75*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E75*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F75*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G75*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H75*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C75:H75)</f>
+        <v>15.258149142043706</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="52">
+        <v>2023</v>
+      </c>
+      <c r="B76" s="52">
+        <v>48</v>
+      </c>
+      <c r="C76" s="13">
+        <v>0</v>
+      </c>
+      <c r="D76" s="13">
+        <v>30</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1</v>
+      </c>
+      <c r="F76" s="13">
+        <v>4</v>
+      </c>
+      <c r="G76" s="13">
+        <v>7</v>
+      </c>
+      <c r="H76" s="13">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="J76" s="11">
+        <f>(C76*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D76*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E76*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F76*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G76*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H76*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C76:H76)</f>
+        <v>14.714600795971414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="52">
+        <v>2023</v>
+      </c>
+      <c r="B77" s="52">
+        <v>49</v>
+      </c>
+      <c r="C77" s="13">
+        <v>0</v>
+      </c>
+      <c r="D77" s="13">
+        <v>26</v>
+      </c>
+      <c r="E77" s="13">
+        <v>3</v>
+      </c>
+      <c r="F77" s="13">
+        <v>4</v>
+      </c>
+      <c r="G77" s="13">
+        <v>11</v>
+      </c>
+      <c r="H77" s="13">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="J77" s="11">
+        <f>(C77*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D77*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E77*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F77*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G77*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H77*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C77:H77)</f>
+        <v>15.666122393846935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="52">
+        <v>2023</v>
+      </c>
+      <c r="B78" s="52">
+        <v>50</v>
+      </c>
+      <c r="C78" s="13">
+        <v>0</v>
+      </c>
+      <c r="D78" s="13">
+        <v>41</v>
+      </c>
+      <c r="E78" s="13">
+        <v>4</v>
+      </c>
+      <c r="F78" s="13">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13">
+        <v>9</v>
+      </c>
+      <c r="H78" s="13">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="J78" s="11">
+        <f>(C78*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D78*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E78*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F78*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G78*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H78*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C78:H78)</f>
+        <v>14.741700330871039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="52">
+        <v>2023</v>
+      </c>
+      <c r="B79" s="52">
+        <v>51</v>
+      </c>
+      <c r="C79" s="13">
+        <v>0</v>
+      </c>
+      <c r="D79" s="13">
+        <v>31</v>
+      </c>
+      <c r="E79" s="13">
+        <v>4</v>
+      </c>
+      <c r="F79" s="13">
+        <v>2</v>
+      </c>
+      <c r="G79" s="13">
+        <v>13</v>
+      </c>
+      <c r="H79" s="13">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="J79" s="11">
+        <f>(C79*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D79*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E79*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F79*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G79*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H79*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C79:H79)</f>
+        <v>14.663393509816206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -18670,10 +19964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6335AA81-92E1-4191-98F5-D9E75D89EE86}">
-  <dimension ref="A1:J287"/>
+  <dimension ref="A1:J322"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="I288" sqref="I288"/>
+    <sheetView topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="H323" sqref="H323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28135,6 +29429,1161 @@
         <v>9</v>
       </c>
     </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>2023</v>
+      </c>
+      <c r="B288">
+        <v>45</v>
+      </c>
+      <c r="C288" t="s">
+        <v>57</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <f t="shared" ref="J288:J292" si="55">SUM(D288:I288)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>2023</v>
+      </c>
+      <c r="B289">
+        <v>45</v>
+      </c>
+      <c r="C289" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>6</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>4</v>
+      </c>
+      <c r="H289">
+        <v>2</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="55"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>2023</v>
+      </c>
+      <c r="B290">
+        <v>45</v>
+      </c>
+      <c r="C290" t="s">
+        <v>60</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>12</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>6</v>
+      </c>
+      <c r="I290">
+        <v>3</v>
+      </c>
+      <c r="J290">
+        <f t="shared" si="55"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>2023</v>
+      </c>
+      <c r="B291">
+        <v>45</v>
+      </c>
+      <c r="C291" t="s">
+        <v>69</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>2023</v>
+      </c>
+      <c r="B292">
+        <v>45</v>
+      </c>
+      <c r="C292" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>2023</v>
+      </c>
+      <c r="B293">
+        <v>46</v>
+      </c>
+      <c r="C293" t="s">
+        <v>57</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>2</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <f t="shared" ref="J293:J297" si="56">SUM(D293:I293)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>2023</v>
+      </c>
+      <c r="B294">
+        <v>46</v>
+      </c>
+      <c r="C294" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>8</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>2023</v>
+      </c>
+      <c r="B295">
+        <v>46</v>
+      </c>
+      <c r="C295" t="s">
+        <v>60</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>8</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>4</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>2023</v>
+      </c>
+      <c r="B296">
+        <v>46</v>
+      </c>
+      <c r="C296" t="s">
+        <v>69</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>5</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>2023</v>
+      </c>
+      <c r="B297">
+        <v>46</v>
+      </c>
+      <c r="C297" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>4</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>2023</v>
+      </c>
+      <c r="B298">
+        <v>47</v>
+      </c>
+      <c r="C298" t="s">
+        <v>57</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>2</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <f t="shared" ref="J298:J302" si="57">SUM(D298:I298)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>2023</v>
+      </c>
+      <c r="B299">
+        <v>47</v>
+      </c>
+      <c r="C299" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>6</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>4</v>
+      </c>
+      <c r="H299">
+        <v>2</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>2023</v>
+      </c>
+      <c r="B300">
+        <v>47</v>
+      </c>
+      <c r="C300" t="s">
+        <v>60</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>12</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>6</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>3</v>
+      </c>
+      <c r="J300">
+        <f t="shared" si="57"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>2023</v>
+      </c>
+      <c r="B301">
+        <v>47</v>
+      </c>
+      <c r="C301" t="s">
+        <v>69</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>2023</v>
+      </c>
+      <c r="B302">
+        <v>47</v>
+      </c>
+      <c r="C302" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>2023</v>
+      </c>
+      <c r="B303">
+        <v>48</v>
+      </c>
+      <c r="C303" t="s">
+        <v>57</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <f t="shared" ref="J303:J307" si="58">SUM(D303:I303)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>2023</v>
+      </c>
+      <c r="B304">
+        <v>48</v>
+      </c>
+      <c r="C304" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>6</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>2023</v>
+      </c>
+      <c r="B305">
+        <v>48</v>
+      </c>
+      <c r="C305" t="s">
+        <v>60</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>16</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>5</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+      <c r="I305">
+        <v>3</v>
+      </c>
+      <c r="J305">
+        <f t="shared" si="58"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>2023</v>
+      </c>
+      <c r="B306">
+        <v>48</v>
+      </c>
+      <c r="C306" t="s">
+        <v>69</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>3</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>2</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>2023</v>
+      </c>
+      <c r="B307">
+        <v>48</v>
+      </c>
+      <c r="C307" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>2</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>2023</v>
+      </c>
+      <c r="B308">
+        <v>49</v>
+      </c>
+      <c r="C308" t="s">
+        <v>57</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>3</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308">
+        <f t="shared" ref="J308:J312" si="59">SUM(D308:I308)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>2023</v>
+      </c>
+      <c r="B309">
+        <v>49</v>
+      </c>
+      <c r="C309" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>12</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>2</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <f t="shared" si="59"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>2023</v>
+      </c>
+      <c r="B310">
+        <v>49</v>
+      </c>
+      <c r="C310" t="s">
+        <v>60</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>11</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>5</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <f t="shared" si="59"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>2023</v>
+      </c>
+      <c r="B311">
+        <v>49</v>
+      </c>
+      <c r="C311" t="s">
+        <v>69</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>3</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>2</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <f t="shared" si="59"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>2023</v>
+      </c>
+      <c r="B312">
+        <v>49</v>
+      </c>
+      <c r="C312" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>2023</v>
+      </c>
+      <c r="B313">
+        <v>50</v>
+      </c>
+      <c r="C313" t="s">
+        <v>57</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>6</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <f t="shared" ref="J313:J317" si="60">SUM(D313:I313)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>2023</v>
+      </c>
+      <c r="B314">
+        <v>50</v>
+      </c>
+      <c r="C314" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>19</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>4</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <f t="shared" si="60"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>2023</v>
+      </c>
+      <c r="B315">
+        <v>50</v>
+      </c>
+      <c r="C315" t="s">
+        <v>60</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>9</v>
+      </c>
+      <c r="F315">
+        <v>3</v>
+      </c>
+      <c r="G315">
+        <v>4</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>3</v>
+      </c>
+      <c r="J315">
+        <f t="shared" si="60"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>2023</v>
+      </c>
+      <c r="B316">
+        <v>50</v>
+      </c>
+      <c r="C316" t="s">
+        <v>69</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>2</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <f t="shared" si="60"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>2023</v>
+      </c>
+      <c r="B317">
+        <v>50</v>
+      </c>
+      <c r="C317" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>5</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <f t="shared" si="60"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>2023</v>
+      </c>
+      <c r="B318">
+        <v>51</v>
+      </c>
+      <c r="C318" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <f t="shared" ref="J318:J322" si="61">SUM(D318:I318)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>2023</v>
+      </c>
+      <c r="B319">
+        <v>51</v>
+      </c>
+      <c r="C319" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>16</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>10</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <f t="shared" si="61"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>2023</v>
+      </c>
+      <c r="B320">
+        <v>51</v>
+      </c>
+      <c r="C320" t="s">
+        <v>60</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>8</v>
+      </c>
+      <c r="F320">
+        <v>3</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>4</v>
+      </c>
+      <c r="J320">
+        <f t="shared" si="61"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>2023</v>
+      </c>
+      <c r="B321">
+        <v>51</v>
+      </c>
+      <c r="C321" t="s">
+        <v>69</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>3</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321">
+        <v>2</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <f t="shared" si="61"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>2023</v>
+      </c>
+      <c r="B322">
+        <v>51</v>
+      </c>
+      <c r="C322" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -28145,10 +30594,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB2B5E-69B9-4E17-A8DC-DBA424D12F80}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:G45"/>
+      <selection activeCell="B46" sqref="B46:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29157,26 +31606,187 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
+        <v>8</v>
+      </c>
+      <c r="D46" s="13">
+        <v>12</v>
+      </c>
+      <c r="E46" s="13">
+        <v>10</v>
+      </c>
+      <c r="F46" s="13">
+        <v>5</v>
+      </c>
+      <c r="G46" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
+        <v>27</v>
+      </c>
+      <c r="D47" s="13">
+        <v>5</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2</v>
+      </c>
+      <c r="F47" s="13">
+        <v>6</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13">
+        <v>20</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>4</v>
+      </c>
+      <c r="F48" s="13">
+        <v>10</v>
+      </c>
+      <c r="G48" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13">
+        <v>30</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>4</v>
+      </c>
+      <c r="F49" s="13">
+        <v>7</v>
+      </c>
+      <c r="G49" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
+        <v>26</v>
+      </c>
+      <c r="D50" s="13">
+        <v>3</v>
+      </c>
+      <c r="E50" s="13">
+        <v>4</v>
+      </c>
+      <c r="F50" s="13">
+        <v>11</v>
+      </c>
+      <c r="G50" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
+        <v>41</v>
+      </c>
+      <c r="D51" s="13">
+        <v>4</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>9</v>
+      </c>
+      <c r="G51" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13">
+        <v>31</v>
+      </c>
+      <c r="D52" s="13">
+        <v>4</v>
+      </c>
+      <c r="E52" s="13">
+        <v>2</v>
+      </c>
+      <c r="F52" s="13">
+        <v>13</v>
+      </c>
+      <c r="G52" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B53" s="13">
         <v>52</v>
       </c>
-      <c r="C46" s="13">
-        <v>895</v>
-      </c>
-      <c r="D46" s="13">
-        <v>115</v>
-      </c>
-      <c r="E46" s="13">
-        <v>176</v>
-      </c>
-      <c r="F46" s="13">
-        <v>330</v>
-      </c>
-      <c r="G46" s="13">
-        <v>151</v>
+      <c r="C53" s="13">
+        <v>1078</v>
+      </c>
+      <c r="D53" s="13">
+        <v>145</v>
+      </c>
+      <c r="E53" s="13">
+        <v>202</v>
+      </c>
+      <c r="F53" s="13">
+        <v>391</v>
+      </c>
+      <c r="G53" s="13">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -29188,7 +31798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:B23"/>
     </sheetView>
   </sheetViews>

--- a/BANDEJA DO PERIODO.xlsx
+++ b/BANDEJA DO PERIODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Repositories\bonus_bandejas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/980841a2e24dade8/Profissional/The Coffee/Operação/2.Gestão da Qualidade/Bandejas/Bandejas semanais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E7D2D2-F013-4289-9A3A-762465F99C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4064" documentId="13_ncr:4000b_{D3240E66-DB17-44F6-81B1-0D6B85E22F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3952D05A-2D44-4AFF-8C9E-0928180011D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="período" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="13" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="82">
   <si>
     <t xml:space="preserve">               New / App / Cold</t>
   </si>
@@ -1812,15 +1812,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel Bezerra de Melo Silva" refreshedDate="45280.880935416666" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="321" xr:uid="{9B5733B9-D351-4D08-9F8A-CB6331F2432F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel Bezerra de Melo Silva" refreshedDate="45336.922307291665" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="356" xr:uid="{9B5733B9-D351-4D08-9F8A-CB6331F2432F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J322" sheet="baristas"/>
+    <worksheetSource ref="A1:J357" sheet="baristas"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Ano" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2022" maxValue="2023" count="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2022" maxValue="2024" count="3">
         <n v="2022"/>
         <n v="2023"/>
+        <n v="2024"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Semana" numFmtId="0">
@@ -2782,7 +2783,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="321">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="356">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6635,17 +6636,438 @@
     <n v="0"/>
     <n v="2"/>
   </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="4"/>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993A75B1-F664-4E54-94B9-642F255C2CD9}" name="Tabela dinâmica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993A75B1-F664-4E54-94B9-642F255C2CD9}" name="Tabela dinâmica5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6718,7 +7140,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="50">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -6736,135 +7158,6 @@
     </i>
     <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
     </i>
     <i t="grand">
       <x/>
@@ -6894,7 +7187,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="0" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="6">
     <dataField name="Soma de A" fld="3" baseField="0" baseItem="0"/>
@@ -7105,8 +7398,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}" name="Tabela1" displayName="Tabela1" ref="A1:AI77" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" dataCellStyle="Porcentagem">
-  <autoFilter ref="A1:AI77" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}" name="Tabela1" displayName="Tabela1" ref="A1:AI86" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" dataCellStyle="Porcentagem">
+  <autoFilter ref="A1:AI86" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="35">
     <tableColumn id="35" xr3:uid="{D883C38E-9A1B-4018-9C05-1951B621A1A9}" name="Ano" dataDxfId="39"/>
     <tableColumn id="1" xr3:uid="{58D0E2F2-6E36-4066-8A1E-F3A3770AE0D4}" name="Semana" dataDxfId="38"/>
@@ -7185,8 +7484,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}" name="Tabela2" displayName="Tabela2" ref="A1:J79" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:J79" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}" name="Tabela2" displayName="Tabela2" ref="A1:J86" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:J86" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}"/>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{B3A7EC93-D052-476E-A7D0-7F9FEE82E6EB}" name="Ano" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{8907E03F-0276-4E6E-BA76-03A5F7E7ABA8}" name="Semana" dataDxfId="3"/>
@@ -7208,8 +7507,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}" name="Tabela3" displayName="Tabela3" ref="A1:J322" totalsRowShown="0">
-  <autoFilter ref="A1:J322" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}" name="Tabela3" displayName="Tabela3" ref="A1:J357" totalsRowShown="0">
+  <autoFilter ref="A1:J357" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}"/>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{19C2ECCC-C5CA-4CBA-9A19-FCC8487A8CC6}" name="Ano"/>
     <tableColumn id="1" xr3:uid="{42E434D7-D8A5-4430-8FC7-28848FD6B96A}" name="Semana"/>
@@ -7536,45 +7835,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK77"/>
+  <dimension ref="A1:AK86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K73" sqref="K73:Q77"/>
+      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
-    <col min="21" max="22" width="11.85546875" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
-    <col min="25" max="27" width="11.85546875" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" customWidth="1"/>
-    <col min="29" max="30" width="15.42578125" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" customWidth="1"/>
-    <col min="32" max="32" width="15.28515625" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="22" width="11.88671875" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="27" width="11.88671875" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" customWidth="1"/>
+    <col min="29" max="30" width="15.44140625" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" customWidth="1"/>
+    <col min="32" max="32" width="15.33203125" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" customWidth="1"/>
+    <col min="34" max="34" width="14.88671875" customWidth="1"/>
+    <col min="35" max="35" width="15.44140625" customWidth="1"/>
     <col min="36" max="36" width="14" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -7681,7 +7980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -7808,7 +8107,7 @@
       </c>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -7935,7 +8234,7 @@
       </c>
       <c r="AK3" s="3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -8062,7 +8361,7 @@
       </c>
       <c r="AK4" s="3"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -8189,7 +8488,7 @@
       </c>
       <c r="AK5" s="3"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8316,7 +8615,7 @@
       </c>
       <c r="AK6" s="3"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -8443,7 +8742,7 @@
       </c>
       <c r="AK7" s="3"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -8570,7 +8869,7 @@
       </c>
       <c r="AK8" s="3"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -8697,7 +8996,7 @@
       </c>
       <c r="AK9" s="3"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -8824,7 +9123,7 @@
       </c>
       <c r="AK10" s="3"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -8951,7 +9250,7 @@
       </c>
       <c r="AK11" s="3"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -9078,7 +9377,7 @@
       </c>
       <c r="AK12" s="3"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -9205,7 +9504,7 @@
       </c>
       <c r="AK13" s="3"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -9332,7 +9631,7 @@
       </c>
       <c r="AK14" s="3"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -9459,7 +9758,7 @@
       </c>
       <c r="AK15" s="3"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -9586,7 +9885,7 @@
       </c>
       <c r="AK16" s="3"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -9713,7 +10012,7 @@
       </c>
       <c r="AK17" s="3"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -9840,7 +10139,7 @@
       </c>
       <c r="AK18" s="3"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -9967,7 +10266,7 @@
       </c>
       <c r="AK19" s="3"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -10094,7 +10393,7 @@
       </c>
       <c r="AK20" s="3"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -10221,7 +10520,7 @@
       </c>
       <c r="AK21" s="3"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -10348,7 +10647,7 @@
       </c>
       <c r="AK22" s="3"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -10475,7 +10774,7 @@
       </c>
       <c r="AK23" s="3"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -10601,7 +10900,7 @@
         <v>1.0681144944003527</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -10727,7 +11026,7 @@
         <v>1.0182818496814785</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -10853,7 +11152,7 @@
         <v>1.0202247824004957</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -10979,7 +11278,7 @@
         <v>1.0725590868587431</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -11105,7 +11404,7 @@
         <v>1.0229290265522732</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>2023</v>
       </c>
@@ -11231,7 +11530,7 @@
         <v>1.0196020409300324</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>2023</v>
       </c>
@@ -11357,7 +11656,7 @@
         <v>1.02139586017904</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>2023</v>
       </c>
@@ -11483,7 +11782,7 @@
         <v>1.0241386639795635</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>2023</v>
       </c>
@@ -11609,7 +11908,7 @@
         <v>1.0145415957394686</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>2023</v>
       </c>
@@ -11735,7 +12034,7 @@
         <v>1.0582314028235635</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>2023</v>
       </c>
@@ -11861,7 +12160,7 @@
         <v>1.0222521565183638</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>2023</v>
       </c>
@@ -11987,7 +12286,7 @@
         <v>1.0445714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>2023</v>
       </c>
@@ -12113,7 +12412,7 @@
         <v>1.0117485320215118</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
         <v>2023</v>
       </c>
@@ -12239,7 +12538,7 @@
         <v>1.0494654863052115</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>2023</v>
       </c>
@@ -12365,7 +12664,7 @@
         <v>1.024073368768762</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>2023</v>
       </c>
@@ -12491,7 +12790,7 @@
         <v>1.1092886951156571</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>2023</v>
       </c>
@@ -12617,7 +12916,7 @@
         <v>1.0226961108570169</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>2023</v>
       </c>
@@ -12743,7 +13042,7 @@
         <v>1.02163097779315</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>2023</v>
       </c>
@@ -12869,7 +13168,7 @@
         <v>1.0096941451518944</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="49">
         <v>2023</v>
       </c>
@@ -12995,7 +13294,7 @@
         <v>1.0528243521867244</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
         <v>2023</v>
       </c>
@@ -13121,7 +13420,7 @@
         <v>1.0129797583685125</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
         <v>2023</v>
       </c>
@@ -13247,7 +13546,7 @@
         <v>1.0822949922140248</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>2023</v>
       </c>
@@ -13373,7 +13672,7 @@
         <v>1.0095213574121524</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
         <v>2023</v>
       </c>
@@ -13499,7 +13798,7 @@
         <v>1.0392699191431689</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
         <v>2023</v>
       </c>
@@ -13625,7 +13924,7 @@
         <v>1.0151892610811664</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="49">
         <v>2023</v>
       </c>
@@ -13751,7 +14050,7 @@
         <v>1.0099539866341773</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="49">
         <v>2023</v>
       </c>
@@ -13877,7 +14176,7 @@
         <v>1.0421891499663742</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
         <v>2023</v>
       </c>
@@ -14003,7 +14302,7 @@
         <v>1.0413808142262881</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
         <v>2023</v>
       </c>
@@ -14129,7 +14428,7 @@
         <v>1.058200008363527</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
         <v>2023</v>
       </c>
@@ -14255,7 +14554,7 @@
         <v>1.0128911735607649</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
         <v>2023</v>
       </c>
@@ -14381,7 +14680,7 @@
         <v>1.0344215107296151</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
         <v>2023</v>
       </c>
@@ -14507,7 +14806,7 @@
         <v>1.0261919807298321</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>2023</v>
       </c>
@@ -14633,7 +14932,7 @@
         <v>1.0199307821210519</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>2023</v>
       </c>
@@ -14759,7 +15058,7 @@
         <v>1.0221841083605958</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>2023</v>
       </c>
@@ -14885,7 +15184,7 @@
         <v>1.0372163797977039</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
         <v>2023</v>
       </c>
@@ -15011,7 +15310,7 @@
         <v>1.0045480341291226</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>2023</v>
       </c>
@@ -15137,7 +15436,7 @@
         <v>1.0142178539426157</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="49">
         <v>2023</v>
       </c>
@@ -15263,7 +15562,7 @@
         <v>1.0408884976888928</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
         <v>2023</v>
       </c>
@@ -15389,7 +15688,7 @@
         <v>1.0278516491044747</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
         <v>2023</v>
       </c>
@@ -15515,7 +15814,7 @@
         <v>1.0337615886638263</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
         <v>2023</v>
       </c>
@@ -15641,7 +15940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
         <v>2023</v>
       </c>
@@ -15767,7 +16066,7 @@
         <v>1.0098131356840456</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>2023</v>
       </c>
@@ -15893,7 +16192,7 @@
         <v>1.0490071672226393</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>2023</v>
       </c>
@@ -16016,7 +16315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>2023</v>
       </c>
@@ -16139,7 +16438,7 @@
         <v>1.0137390578966352</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>2023</v>
       </c>
@@ -16262,7 +16561,7 @@
         <v>1.0309444084424264</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>2023</v>
       </c>
@@ -16385,7 +16684,7 @@
         <v>1.0028690687163475</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
         <v>2023</v>
       </c>
@@ -16508,7 +16807,7 @@
         <v>1.0321282348610701</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
         <v>2023</v>
       </c>
@@ -16631,7 +16930,7 @@
         <v>1.0198477767006608</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="49">
         <v>2023</v>
       </c>
@@ -16754,7 +17053,7 @@
         <v>1.0198477767006608</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
         <v>2023</v>
       </c>
@@ -16877,7 +17176,7 @@
         <v>1.0137376546452763</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="49">
         <v>2023</v>
       </c>
@@ -17000,7 +17299,7 @@
         <v>1.003608038352753</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
         <v>2023</v>
       </c>
@@ -17123,7 +17422,7 @@
         <v>1.0115944518540054</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="49">
         <v>2023</v>
       </c>
@@ -17244,6 +17543,1113 @@
       <c r="AI77" s="59">
         <f t="shared" si="156"/>
         <v>1.0321135059436066</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A78" s="49">
+        <v>2023</v>
+      </c>
+      <c r="B78" s="49">
+        <v>50</v>
+      </c>
+      <c r="C78" s="50">
+        <v>40</v>
+      </c>
+      <c r="D78" s="50">
+        <v>515</v>
+      </c>
+      <c r="E78" s="50">
+        <v>77</v>
+      </c>
+      <c r="F78" s="50">
+        <v>148</v>
+      </c>
+      <c r="G78" s="50">
+        <v>35</v>
+      </c>
+      <c r="H78" s="45">
+        <v>182</v>
+      </c>
+      <c r="I78" s="50">
+        <v>5</v>
+      </c>
+      <c r="J78" s="50">
+        <f>SUM(C78:I78)</f>
+        <v>1002</v>
+      </c>
+      <c r="K78" s="38">
+        <v>425.60000000000019</v>
+      </c>
+      <c r="L78" s="38">
+        <v>7316.1899999999951</v>
+      </c>
+      <c r="M78" s="38">
+        <v>1793.7599999999995</v>
+      </c>
+      <c r="N78" s="38">
+        <v>1344.7900000000006</v>
+      </c>
+      <c r="O78" s="38">
+        <v>596.18999999999994</v>
+      </c>
+      <c r="P78" s="38">
+        <v>400.36</v>
+      </c>
+      <c r="Q78" s="38">
+        <v>290.68</v>
+      </c>
+      <c r="R78" s="38">
+        <f>SUM(K78:Q78)</f>
+        <v>12167.569999999998</v>
+      </c>
+      <c r="S78" s="39">
+        <f>(C78*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D78*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F78*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G78*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H78*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C78:H78)</f>
+        <v>11.684642267445613</v>
+      </c>
+      <c r="T78" s="58">
+        <f>$K78/SUM($K78:$Q78)</f>
+        <v>3.4978224904397531E-2</v>
+      </c>
+      <c r="U78" s="58">
+        <f>L78/SUM($K78:$Q78)</f>
+        <v>0.60128604150212384</v>
+      </c>
+      <c r="V78" s="58">
+        <f t="shared" ref="V78:Y80" si="157">M78/SUM($K$2:$Q$2)</f>
+        <v>0.51064847368555877</v>
+      </c>
+      <c r="W78" s="58">
+        <f t="shared" si="157"/>
+        <v>0.38283547460507711</v>
+      </c>
+      <c r="X78" s="58">
+        <f t="shared" si="157"/>
+        <v>0.16972366064947003</v>
+      </c>
+      <c r="Y78" s="58">
+        <f t="shared" si="157"/>
+        <v>0.11397468051732138</v>
+      </c>
+      <c r="Z78" s="58"/>
+      <c r="AA78" s="58">
+        <f>R78/SUM($K78:$Q78)</f>
+        <v>1</v>
+      </c>
+      <c r="AB78" s="58">
+        <f t="shared" ref="AB78:AH80" si="158">K78/SUM($K78:$P78)</f>
+        <v>3.583429668877966E-2</v>
+      </c>
+      <c r="AC78" s="58">
+        <f t="shared" si="158"/>
+        <v>0.61600216891795723</v>
+      </c>
+      <c r="AD78" s="58">
+        <f t="shared" si="158"/>
+        <v>0.15102943615710845</v>
+      </c>
+      <c r="AE78" s="58">
+        <f t="shared" si="158"/>
+        <v>0.11322745264122182</v>
+      </c>
+      <c r="AF78" s="58">
+        <f t="shared" si="158"/>
+        <v>5.0197484358278983E-2</v>
+      </c>
+      <c r="AG78" s="58">
+        <f t="shared" si="158"/>
+        <v>3.3709161236653712E-2</v>
+      </c>
+      <c r="AH78" s="58">
+        <f t="shared" si="158"/>
+        <v>2.447442049223324E-2</v>
+      </c>
+      <c r="AI78" s="59">
+        <f>SUM($AB78:$AH78)</f>
+        <v>1.0244744204922329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A79" s="49">
+        <v>2023</v>
+      </c>
+      <c r="B79" s="49">
+        <v>51</v>
+      </c>
+      <c r="C79" s="50">
+        <v>34</v>
+      </c>
+      <c r="D79" s="50">
+        <v>537</v>
+      </c>
+      <c r="E79" s="50">
+        <v>77</v>
+      </c>
+      <c r="F79" s="50">
+        <v>143</v>
+      </c>
+      <c r="G79" s="50">
+        <v>32</v>
+      </c>
+      <c r="H79" s="45">
+        <v>206</v>
+      </c>
+      <c r="I79" s="50">
+        <v>9</v>
+      </c>
+      <c r="J79" s="50">
+        <f>SUM(C79:I79)</f>
+        <v>1038</v>
+      </c>
+      <c r="K79" s="38">
+        <v>327.83000000000004</v>
+      </c>
+      <c r="L79" s="38">
+        <v>7743.0999999999958</v>
+      </c>
+      <c r="M79" s="38">
+        <v>1617.3199999999993</v>
+      </c>
+      <c r="N79" s="38">
+        <v>1291.9200000000012</v>
+      </c>
+      <c r="O79" s="38">
+        <v>406.30000000000007</v>
+      </c>
+      <c r="P79" s="38">
+        <v>481.09999999999974</v>
+      </c>
+      <c r="Q79" s="38">
+        <v>493.77</v>
+      </c>
+      <c r="R79" s="38">
+        <f>SUM(K79:Q79)</f>
+        <v>12361.339999999997</v>
+      </c>
+      <c r="S79" s="39">
+        <f>(C79*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D79*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F79*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G79*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H79*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C79:H79)</f>
+        <v>11.446303293665002</v>
+      </c>
+      <c r="T79" s="58">
+        <f>$K79/SUM($K79:$Q79)</f>
+        <v>2.6520587573839093E-2</v>
+      </c>
+      <c r="U79" s="58">
+        <f>L79/SUM($K79:$Q79)</f>
+        <v>0.62639649099531269</v>
+      </c>
+      <c r="V79" s="58">
+        <f t="shared" si="157"/>
+        <v>0.46041944823227621</v>
+      </c>
+      <c r="W79" s="58">
+        <f t="shared" si="157"/>
+        <v>0.36778441715940147</v>
+      </c>
+      <c r="X79" s="58">
+        <f t="shared" si="157"/>
+        <v>0.1156656826211102</v>
+      </c>
+      <c r="Y79" s="58">
+        <f t="shared" si="157"/>
+        <v>0.13695978318733959</v>
+      </c>
+      <c r="Z79" s="58"/>
+      <c r="AA79" s="58">
+        <f>R79/SUM($K79:$Q79)</f>
+        <v>1</v>
+      </c>
+      <c r="AB79" s="58">
+        <f t="shared" si="158"/>
+        <v>2.7624020755723382E-2</v>
+      </c>
+      <c r="AC79" s="58">
+        <f t="shared" si="158"/>
+        <v>0.65245875945960274</v>
+      </c>
+      <c r="AD79" s="58">
+        <f t="shared" si="158"/>
+        <v>0.13628063706386395</v>
+      </c>
+      <c r="AE79" s="58">
+        <f t="shared" si="158"/>
+        <v>0.1088613760019955</v>
+      </c>
+      <c r="AF79" s="58">
+        <f t="shared" si="158"/>
+        <v>3.4236157865510819E-2</v>
+      </c>
+      <c r="AG79" s="58">
+        <f t="shared" si="158"/>
+        <v>4.0539048853303575E-2</v>
+      </c>
+      <c r="AH79" s="58">
+        <f t="shared" si="158"/>
+        <v>4.1606664211797373E-2</v>
+      </c>
+      <c r="AI79" s="59">
+        <f>SUM($AB79:$AH79)</f>
+        <v>1.0416066642117974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A80" s="49">
+        <v>2023</v>
+      </c>
+      <c r="B80" s="49">
+        <v>52</v>
+      </c>
+      <c r="C80" s="50">
+        <v>23</v>
+      </c>
+      <c r="D80" s="50">
+        <v>450</v>
+      </c>
+      <c r="E80" s="50">
+        <v>69</v>
+      </c>
+      <c r="F80" s="50">
+        <v>111</v>
+      </c>
+      <c r="G80" s="50">
+        <v>24</v>
+      </c>
+      <c r="H80" s="45">
+        <v>227</v>
+      </c>
+      <c r="I80" s="50">
+        <v>9</v>
+      </c>
+      <c r="J80" s="50">
+        <f>SUM(C80:I80)</f>
+        <v>913</v>
+      </c>
+      <c r="K80" s="38">
+        <v>255.90000000000003</v>
+      </c>
+      <c r="L80" s="38">
+        <v>6437.89</v>
+      </c>
+      <c r="M80" s="38">
+        <v>1535.7599999999995</v>
+      </c>
+      <c r="N80" s="38">
+        <v>961.24000000000024</v>
+      </c>
+      <c r="O80" s="38">
+        <v>291.77999999999997</v>
+      </c>
+      <c r="P80" s="38">
+        <v>545.18999999999994</v>
+      </c>
+      <c r="Q80" s="38">
+        <v>739</v>
+      </c>
+      <c r="R80" s="38">
+        <f>SUM(K80:Q80)</f>
+        <v>10766.76</v>
+      </c>
+      <c r="S80" s="39">
+        <f>(C80*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D80*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F80*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G80*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H80*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C80:H80)</f>
+        <v>10.719660851866944</v>
+      </c>
+      <c r="T80" s="58">
+        <f>$K80/SUM($K80:$Q80)</f>
+        <v>2.3767595822698752E-2</v>
+      </c>
+      <c r="U80" s="58">
+        <f>L80/SUM($K80:$Q80)</f>
+        <v>0.59794125623678807</v>
+      </c>
+      <c r="V80" s="58">
+        <f t="shared" si="157"/>
+        <v>0.43720090756139829</v>
+      </c>
+      <c r="W80" s="58">
+        <f t="shared" si="157"/>
+        <v>0.2736462731053802</v>
+      </c>
+      <c r="X80" s="58">
+        <f t="shared" si="157"/>
+        <v>8.3064073037626196E-2</v>
+      </c>
+      <c r="Y80" s="58">
+        <f t="shared" si="157"/>
+        <v>0.15520495571794993</v>
+      </c>
+      <c r="Z80" s="58"/>
+      <c r="AA80" s="58">
+        <f>R80/SUM($K80:$Q80)</f>
+        <v>1</v>
+      </c>
+      <c r="AB80" s="58">
+        <f t="shared" si="158"/>
+        <v>2.5519158815129204E-2</v>
+      </c>
+      <c r="AC80" s="58">
+        <f t="shared" si="158"/>
+        <v>0.64200678915331044</v>
+      </c>
+      <c r="AD80" s="58">
+        <f t="shared" si="158"/>
+        <v>0.15315085323142949</v>
+      </c>
+      <c r="AE80" s="58">
+        <f t="shared" si="158"/>
+        <v>9.5857898473836647E-2</v>
+      </c>
+      <c r="AF80" s="58">
+        <f t="shared" si="158"/>
+        <v>2.9097226100345437E-2</v>
+      </c>
+      <c r="AG80" s="58">
+        <f t="shared" si="158"/>
+        <v>5.4368074225948762E-2</v>
+      </c>
+      <c r="AH80" s="58">
+        <f t="shared" si="158"/>
+        <v>7.3695421509888545E-2</v>
+      </c>
+      <c r="AI80" s="59">
+        <f>SUM($AB80:$AH80)</f>
+        <v>1.0736954215098886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A81" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B81" s="49">
+        <v>1</v>
+      </c>
+      <c r="C81" s="50">
+        <v>43</v>
+      </c>
+      <c r="D81" s="50">
+        <v>373</v>
+      </c>
+      <c r="E81" s="50">
+        <v>61</v>
+      </c>
+      <c r="F81" s="50">
+        <v>82</v>
+      </c>
+      <c r="G81" s="50">
+        <v>26</v>
+      </c>
+      <c r="H81" s="45">
+        <v>154</v>
+      </c>
+      <c r="I81" s="50">
+        <v>2</v>
+      </c>
+      <c r="J81" s="50">
+        <f>SUM(C81:I81)</f>
+        <v>741</v>
+      </c>
+      <c r="K81" s="38">
+        <v>425.79000000000008</v>
+      </c>
+      <c r="L81" s="38">
+        <v>5311.06</v>
+      </c>
+      <c r="M81" s="38">
+        <v>1292.0899999999997</v>
+      </c>
+      <c r="N81" s="38">
+        <v>710.37999999999965</v>
+      </c>
+      <c r="O81" s="38">
+        <v>333.50999999999982</v>
+      </c>
+      <c r="P81" s="38">
+        <v>374.01000000000016</v>
+      </c>
+      <c r="Q81" s="38">
+        <v>211.8</v>
+      </c>
+      <c r="R81" s="38">
+        <f>SUM(K81:Q81)</f>
+        <v>8658.64</v>
+      </c>
+      <c r="S81" s="39">
+        <f>(C81*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D81*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F81*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G81*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H81*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C81:H81)</f>
+        <v>10.90544471943277</v>
+      </c>
+      <c r="T81" s="41">
+        <f>$K81/SUM($K81:$Q81)</f>
+        <v>4.9175159147394981E-2</v>
+      </c>
+      <c r="U81" s="41">
+        <f>L81/SUM($K81:$Q81)</f>
+        <v>0.61338270213336055</v>
+      </c>
+      <c r="V81" s="41">
+        <f>M81/SUM($K$2:$Q$2)</f>
+        <v>0.36783281284250607</v>
+      </c>
+      <c r="W81" s="41">
+        <f>N81/SUM($K$2:$Q$2)</f>
+        <v>0.20223132567163232</v>
+      </c>
+      <c r="X81" s="41">
+        <f>O81/SUM($K$2:$Q$2)</f>
+        <v>9.4943789837475839E-2</v>
+      </c>
+      <c r="Y81" s="41">
+        <f>P81/SUM($K$2:$Q$2)</f>
+        <v>0.10647334963603602</v>
+      </c>
+      <c r="Z81" s="41"/>
+      <c r="AA81" s="41">
+        <f>R81/SUM($K81:$Q81)</f>
+        <v>1</v>
+      </c>
+      <c r="AB81" s="41">
+        <f>K81/SUM($K81:$P81)</f>
+        <v>5.040819998958191E-2</v>
+      </c>
+      <c r="AC81" s="41">
+        <f>L81/SUM($K81:$P81)</f>
+        <v>0.62876294566962321</v>
+      </c>
+      <c r="AD81" s="41">
+        <f>M81/SUM($K81:$P81)</f>
+        <v>0.15296726349735518</v>
+      </c>
+      <c r="AE81" s="41">
+        <f>N81/SUM($K81:$P81)</f>
+        <v>8.4100089500925748E-2</v>
+      </c>
+      <c r="AF81" s="41">
+        <f>O81/SUM($K81:$P81)</f>
+        <v>3.9483404444739079E-2</v>
+      </c>
+      <c r="AG81" s="41">
+        <f>P81/SUM($K81:$P81)</f>
+        <v>4.4278096897774809E-2</v>
+      </c>
+      <c r="AH81" s="41">
+        <f>Q81/SUM($K81:$P81)</f>
+        <v>2.5074465717357025E-2</v>
+      </c>
+      <c r="AI81" s="51">
+        <f>SUM($AB81:$AH81)</f>
+        <v>1.0250744657173569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A82" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B82" s="49">
+        <v>2</v>
+      </c>
+      <c r="C82" s="50">
+        <v>41</v>
+      </c>
+      <c r="D82" s="50">
+        <v>429</v>
+      </c>
+      <c r="E82" s="50">
+        <v>78</v>
+      </c>
+      <c r="F82" s="50">
+        <v>113</v>
+      </c>
+      <c r="G82" s="50">
+        <v>49</v>
+      </c>
+      <c r="H82" s="45">
+        <v>172</v>
+      </c>
+      <c r="I82" s="50">
+        <v>6</v>
+      </c>
+      <c r="J82" s="50">
+        <f>SUM(C82:I82)</f>
+        <v>888</v>
+      </c>
+      <c r="K82" s="38">
+        <v>434.21000000000021</v>
+      </c>
+      <c r="L82" s="38">
+        <v>6023.7999999999984</v>
+      </c>
+      <c r="M82" s="38">
+        <v>1636.7699999999995</v>
+      </c>
+      <c r="N82" s="38">
+        <v>924.77999999999975</v>
+      </c>
+      <c r="O82" s="38">
+        <v>639.93999999999994</v>
+      </c>
+      <c r="P82" s="38">
+        <v>435.12999999999988</v>
+      </c>
+      <c r="Q82" s="38">
+        <v>322</v>
+      </c>
+      <c r="R82" s="38">
+        <f>SUM(K82:Q82)</f>
+        <v>10416.629999999997</v>
+      </c>
+      <c r="S82" s="39">
+        <f>(C82*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D82*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F82*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G82*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H82*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C82:H82)</f>
+        <v>11.223761205261834</v>
+      </c>
+      <c r="T82" s="41">
+        <f>$K82/SUM($K82:$Q82)</f>
+        <v>4.1684306728759717E-2</v>
+      </c>
+      <c r="U82" s="41">
+        <f>L82/SUM($K82:$Q82)</f>
+        <v>0.57828683556966121</v>
+      </c>
+      <c r="V82" s="41">
+        <f>M82/SUM($K$2:$Q$2)</f>
+        <v>0.46595648374047366</v>
+      </c>
+      <c r="W82" s="41">
+        <f>N82/SUM($K$2:$Q$2)</f>
+        <v>0.26326682248178745</v>
+      </c>
+      <c r="X82" s="41">
+        <f>O82/SUM($K$2:$Q$2)</f>
+        <v>0.18217843203680345</v>
+      </c>
+      <c r="Y82" s="41">
+        <f>P82/SUM($K$2:$Q$2)</f>
+        <v>0.12387302111475181</v>
+      </c>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41">
+        <f>R82/SUM($K82:$Q82)</f>
+        <v>1</v>
+      </c>
+      <c r="AB82" s="41">
+        <f>K82/SUM($K82:$P82)</f>
+        <v>4.3013958906864373E-2</v>
+      </c>
+      <c r="AC82" s="41">
+        <f>L82/SUM($K82:$P82)</f>
+        <v>0.59673311453713507</v>
+      </c>
+      <c r="AD82" s="41">
+        <f>M82/SUM($K82:$P82)</f>
+        <v>0.16214264415832971</v>
+      </c>
+      <c r="AE82" s="41">
+        <f>N82/SUM($K82:$P82)</f>
+        <v>9.1611084309182203E-2</v>
+      </c>
+      <c r="AF82" s="41">
+        <f>O82/SUM($K82:$P82)</f>
+        <v>6.3394101616403978E-2</v>
+      </c>
+      <c r="AG82" s="41">
+        <f>P82/SUM($K82:$P82)</f>
+        <v>4.3105096472084665E-2</v>
+      </c>
+      <c r="AH82" s="41">
+        <f>Q82/SUM($K82:$P82)</f>
+        <v>3.1898147827112047E-2</v>
+      </c>
+      <c r="AI82" s="51">
+        <f>SUM($AB82:$AH82)</f>
+        <v>1.0318981478271121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A83" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B83" s="49">
+        <v>3</v>
+      </c>
+      <c r="C83" s="50">
+        <v>37</v>
+      </c>
+      <c r="D83" s="50">
+        <v>462</v>
+      </c>
+      <c r="E83" s="50">
+        <v>64</v>
+      </c>
+      <c r="F83" s="50">
+        <v>135</v>
+      </c>
+      <c r="G83" s="50">
+        <v>24</v>
+      </c>
+      <c r="H83" s="45">
+        <v>194</v>
+      </c>
+      <c r="I83" s="50">
+        <v>3</v>
+      </c>
+      <c r="J83" s="50">
+        <f>SUM(C83:I83)</f>
+        <v>919</v>
+      </c>
+      <c r="K83" s="38">
+        <v>410.06000000000006</v>
+      </c>
+      <c r="L83" s="38">
+        <v>6628.3500000000049</v>
+      </c>
+      <c r="M83" s="38">
+        <v>1406.91</v>
+      </c>
+      <c r="N83" s="38">
+        <v>1175.1600000000008</v>
+      </c>
+      <c r="O83" s="38">
+        <v>325.52</v>
+      </c>
+      <c r="P83" s="38">
+        <v>485.25000000000023</v>
+      </c>
+      <c r="Q83" s="38">
+        <v>178</v>
+      </c>
+      <c r="R83" s="38">
+        <f>SUM(K83:Q83)</f>
+        <v>10609.250000000007</v>
+      </c>
+      <c r="S83" s="39">
+        <f>(C83*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D83*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F83*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G83*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H83*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C83:H83)</f>
+        <v>11.233651387612044</v>
+      </c>
+      <c r="T83" s="41">
+        <f>$K83/SUM($K83:$Q83)</f>
+        <v>3.8651177038904708E-2</v>
+      </c>
+      <c r="U83" s="41">
+        <f>L83/SUM($K83:$Q83)</f>
+        <v>0.62477083676979994</v>
+      </c>
+      <c r="V83" s="41">
+        <f>M83/SUM($K$2:$Q$2)</f>
+        <v>0.40051982657264618</v>
+      </c>
+      <c r="W83" s="41">
+        <f>N83/SUM($K$2:$Q$2)</f>
+        <v>0.33454512328088587</v>
+      </c>
+      <c r="X83" s="41">
+        <f>O83/SUM($K$2:$Q$2)</f>
+        <v>9.2669192731537745E-2</v>
+      </c>
+      <c r="Y83" s="41">
+        <f>P83/SUM($K$2:$Q$2)</f>
+        <v>0.13814120721608109</v>
+      </c>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="41">
+        <f>R83/SUM($K83:$Q83)</f>
+        <v>1</v>
+      </c>
+      <c r="AB83" s="41">
+        <f>K83/SUM($K83:$P83)</f>
+        <v>3.9310724985020952E-2</v>
+      </c>
+      <c r="AC83" s="41">
+        <f>L83/SUM($K83:$P83)</f>
+        <v>0.63543199520671068</v>
+      </c>
+      <c r="AD83" s="41">
+        <f>M83/SUM($K83:$P83)</f>
+        <v>0.13487453565008978</v>
+      </c>
+      <c r="AE83" s="41">
+        <f>N83/SUM($K83:$P83)</f>
+        <v>0.11265763930497304</v>
+      </c>
+      <c r="AF83" s="41">
+        <f>O83/SUM($K83:$P83)</f>
+        <v>3.1206231276213279E-2</v>
+      </c>
+      <c r="AG83" s="41">
+        <f>P83/SUM($K83:$P83)</f>
+        <v>4.6518873576992199E-2</v>
+      </c>
+      <c r="AH83" s="41">
+        <f>Q83/SUM($K83:$P83)</f>
+        <v>1.7064110245656069E-2</v>
+      </c>
+      <c r="AI83" s="51">
+        <f>SUM($AB83:$AH83)</f>
+        <v>1.0170641102456561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A84" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B84" s="49">
+        <v>4</v>
+      </c>
+      <c r="C84" s="50">
+        <v>47</v>
+      </c>
+      <c r="D84" s="50">
+        <v>390</v>
+      </c>
+      <c r="E84" s="50">
+        <v>56</v>
+      </c>
+      <c r="F84" s="50">
+        <v>135</v>
+      </c>
+      <c r="G84" s="50">
+        <v>58</v>
+      </c>
+      <c r="H84" s="45">
+        <v>161</v>
+      </c>
+      <c r="I84" s="50">
+        <v>2</v>
+      </c>
+      <c r="J84" s="50">
+        <f>SUM(C84:I84)</f>
+        <v>849</v>
+      </c>
+      <c r="K84" s="38">
+        <v>536.23</v>
+      </c>
+      <c r="L84" s="38">
+        <v>5590.1700000000028</v>
+      </c>
+      <c r="M84" s="38">
+        <v>1176.5100000000002</v>
+      </c>
+      <c r="N84" s="38">
+        <v>1113.5300000000004</v>
+      </c>
+      <c r="O84" s="38">
+        <v>952.31999999999982</v>
+      </c>
+      <c r="P84" s="38">
+        <v>397.34999999999991</v>
+      </c>
+      <c r="Q84" s="38">
+        <v>56</v>
+      </c>
+      <c r="R84" s="38">
+        <f>SUM(K84:Q84)</f>
+        <v>9822.1100000000042</v>
+      </c>
+      <c r="S84" s="39">
+        <f>(C84*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D84*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F84*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G84*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H84*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C84:H84)</f>
+        <v>11.770956898962281</v>
+      </c>
+      <c r="T84" s="41">
+        <f>$K84/SUM($K84:$Q84)</f>
+        <v>5.4594175793184943E-2</v>
+      </c>
+      <c r="U84" s="41">
+        <f>L84/SUM($K84:$Q84)</f>
+        <v>0.56914145738542943</v>
+      </c>
+      <c r="V84" s="41">
+        <f>M84/SUM($K$2:$Q$2)</f>
+        <v>0.33492944194083774</v>
+      </c>
+      <c r="W84" s="41">
+        <f>N84/SUM($K$2:$Q$2)</f>
+        <v>0.3170002647528547</v>
+      </c>
+      <c r="X84" s="41">
+        <f>O84/SUM($K$2:$Q$2)</f>
+        <v>0.27110692314480833</v>
+      </c>
+      <c r="Y84" s="41">
+        <f>P84/SUM($K$2:$Q$2)</f>
+        <v>0.1131177922458728</v>
+      </c>
+      <c r="Z84" s="41"/>
+      <c r="AA84" s="41">
+        <f>R84/SUM($K84:$Q84)</f>
+        <v>1</v>
+      </c>
+      <c r="AB84" s="41">
+        <f>K84/SUM($K84:$P84)</f>
+        <v>5.490722508757323E-2</v>
+      </c>
+      <c r="AC84" s="41">
+        <f>L84/SUM($K84:$P84)</f>
+        <v>0.57240498007906937</v>
+      </c>
+      <c r="AD84" s="41">
+        <f>M84/SUM($K84:$P84)</f>
+        <v>0.12046864104541109</v>
+      </c>
+      <c r="AE84" s="41">
+        <f>N84/SUM($K84:$P84)</f>
+        <v>0.11401980932018992</v>
+      </c>
+      <c r="AF84" s="41">
+        <f>O84/SUM($K84:$P84)</f>
+        <v>9.7512725128019187E-2</v>
+      </c>
+      <c r="AG84" s="41">
+        <f>P84/SUM($K84:$P84)</f>
+        <v>4.0686619339737086E-2</v>
+      </c>
+      <c r="AH84" s="41">
+        <f>Q84/SUM($K84:$P84)</f>
+        <v>5.7341152209016664E-3</v>
+      </c>
+      <c r="AI84" s="51">
+        <f>SUM($AB84:$AH84)</f>
+        <v>1.0057341152209016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A85" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B85" s="49">
+        <v>5</v>
+      </c>
+      <c r="C85" s="50">
+        <v>29</v>
+      </c>
+      <c r="D85" s="50">
+        <v>426</v>
+      </c>
+      <c r="E85" s="50">
+        <v>71</v>
+      </c>
+      <c r="F85" s="50">
+        <v>119</v>
+      </c>
+      <c r="G85" s="50">
+        <v>46</v>
+      </c>
+      <c r="H85" s="45">
+        <v>164</v>
+      </c>
+      <c r="I85" s="50">
+        <v>4</v>
+      </c>
+      <c r="J85" s="50">
+        <f>SUM(C85:I85)</f>
+        <v>859</v>
+      </c>
+      <c r="K85" s="38">
+        <v>318.98</v>
+      </c>
+      <c r="L85" s="38">
+        <v>6116.5200000000013</v>
+      </c>
+      <c r="M85" s="38">
+        <v>1506.5</v>
+      </c>
+      <c r="N85" s="38">
+        <v>1000.8699999999995</v>
+      </c>
+      <c r="O85" s="38">
+        <v>644.90999999999985</v>
+      </c>
+      <c r="P85" s="38">
+        <v>422.70999999999992</v>
+      </c>
+      <c r="Q85" s="38">
+        <v>223</v>
+      </c>
+      <c r="R85" s="38">
+        <f>SUM(K85:Q85)</f>
+        <v>10233.49</v>
+      </c>
+      <c r="S85" s="39">
+        <f>(C85*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D85*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F85*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G85*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H85*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C85:H85)</f>
+        <v>11.432785386956674</v>
+      </c>
+      <c r="T85" s="41">
+        <f>$K85/SUM($K85:$Q85)</f>
+        <v>3.1170206840481596E-2</v>
+      </c>
+      <c r="U85" s="41">
+        <f>L85/SUM($K85:$Q85)</f>
+        <v>0.59769638705856964</v>
+      </c>
+      <c r="V85" s="41">
+        <f>M85/SUM($K$2:$Q$2)</f>
+        <v>0.42887115645754981</v>
+      </c>
+      <c r="W85" s="41">
+        <f>N85/SUM($K$2:$Q$2)</f>
+        <v>0.2849281608786377</v>
+      </c>
+      <c r="X85" s="41">
+        <f>O85/SUM($K$2:$Q$2)</f>
+        <v>0.18359329406640451</v>
+      </c>
+      <c r="Y85" s="41">
+        <f>P85/SUM($K$2:$Q$2)</f>
+        <v>0.1203372894431934</v>
+      </c>
+      <c r="Z85" s="41"/>
+      <c r="AA85" s="41">
+        <f>R85/SUM($K85:$Q85)</f>
+        <v>1</v>
+      </c>
+      <c r="AB85" s="41">
+        <f>K85/SUM($K85:$P85)</f>
+        <v>3.1864574061809162E-2</v>
+      </c>
+      <c r="AC85" s="41">
+        <f>L85/SUM($K85:$P85)</f>
+        <v>0.61101104940916995</v>
+      </c>
+      <c r="AD85" s="41">
+        <f>M85/SUM($K85:$P85)</f>
+        <v>0.15049213375169448</v>
+      </c>
+      <c r="AE85" s="41">
+        <f>N85/SUM($K85:$P85)</f>
+        <v>9.9982118757423424E-2</v>
+      </c>
+      <c r="AF85" s="41">
+        <f>O85/SUM($K85:$P85)</f>
+        <v>6.4423419832595599E-2</v>
+      </c>
+      <c r="AG85" s="41">
+        <f>P85/SUM($K85:$P85)</f>
+        <v>4.2226704187307507E-2</v>
+      </c>
+      <c r="AH85" s="41">
+        <f>Q85/SUM($K85:$P85)</f>
+        <v>2.2276631813227924E-2</v>
+      </c>
+      <c r="AI85" s="51">
+        <f>SUM($AB85:$AH85)</f>
+        <v>1.0222766318132281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A86" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B86" s="49">
+        <v>6</v>
+      </c>
+      <c r="C86" s="50">
+        <v>39</v>
+      </c>
+      <c r="D86" s="50">
+        <v>374</v>
+      </c>
+      <c r="E86" s="50">
+        <v>37</v>
+      </c>
+      <c r="F86" s="50">
+        <v>111</v>
+      </c>
+      <c r="G86" s="50">
+        <v>41</v>
+      </c>
+      <c r="H86" s="45">
+        <v>127</v>
+      </c>
+      <c r="I86" s="50">
+        <v>2</v>
+      </c>
+      <c r="J86" s="50">
+        <f>SUM(C86:I86)</f>
+        <v>731</v>
+      </c>
+      <c r="K86" s="38">
+        <v>437.50000000000011</v>
+      </c>
+      <c r="L86" s="38">
+        <v>5258.4399999999969</v>
+      </c>
+      <c r="M86" s="38">
+        <v>802.87000000000012</v>
+      </c>
+      <c r="N86" s="38">
+        <v>786.26999999999987</v>
+      </c>
+      <c r="O86" s="38">
+        <v>588.79000000000008</v>
+      </c>
+      <c r="P86" s="38">
+        <v>318.06000000000006</v>
+      </c>
+      <c r="Q86" s="38">
+        <v>142</v>
+      </c>
+      <c r="R86" s="38">
+        <f>SUM(K86:Q86)</f>
+        <v>8333.9299999999967</v>
+      </c>
+      <c r="S86" s="39">
+        <f>(C86*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D86*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F86*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G86*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H86*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C86:H86)</f>
+        <v>12.08826491167906</v>
+      </c>
+      <c r="T86" s="41">
+        <f>$K86/SUM($K86:$Q86)</f>
+        <v>5.2496241269125166E-2</v>
+      </c>
+      <c r="U86" s="41">
+        <f>L86/SUM($K86:$Q86)</f>
+        <v>0.63096762271821327</v>
+      </c>
+      <c r="V86" s="41">
+        <f>M86/SUM($K$2:$Q$2)</f>
+        <v>0.22856142408567745</v>
+      </c>
+      <c r="W86" s="41">
+        <f>N86/SUM($K$2:$Q$2)</f>
+        <v>0.223835727970712</v>
+      </c>
+      <c r="X86" s="41">
+        <f>O86/SUM($K$2:$Q$2)</f>
+        <v>0.16761702503195539</v>
+      </c>
+      <c r="Y86" s="41">
+        <f>P86/SUM($K$2:$Q$2)</f>
+        <v>9.0545476284691881E-2</v>
+      </c>
+      <c r="Z86" s="41"/>
+      <c r="AA86" s="41">
+        <f>R86/SUM($K86:$Q86)</f>
+        <v>1</v>
+      </c>
+      <c r="AB86" s="41">
+        <f>K86/SUM($K86:$P86)</f>
+        <v>5.3406218070711088E-2</v>
+      </c>
+      <c r="AC86" s="41">
+        <f>L86/SUM($K86:$P86)</f>
+        <v>0.64190489908971382</v>
+      </c>
+      <c r="AD86" s="41">
+        <f>M86/SUM($K86:$P86)</f>
+        <v>9.8007429262701271E-2</v>
+      </c>
+      <c r="AE86" s="41">
+        <f>N86/SUM($K86:$P86)</f>
+        <v>9.5981044759903975E-2</v>
+      </c>
+      <c r="AF86" s="41">
+        <f>O86/SUM($K86:$P86)</f>
+        <v>7.1874393457951949E-2</v>
+      </c>
+      <c r="AG86" s="41">
+        <f>P86/SUM($K86:$P86)</f>
+        <v>3.882601535901798E-2</v>
+      </c>
+      <c r="AH86" s="41">
+        <f>Q86/SUM($K86:$P86)</f>
+        <v>1.7334132493807938E-2</v>
+      </c>
+      <c r="AI86" s="51">
+        <f>SUM($AB86:$AH86)</f>
+        <v>1.0173341324938081</v>
       </c>
     </row>
   </sheetData>
@@ -17258,21 +18664,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A79"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>76</v>
       </c>
@@ -17304,7 +18710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
         <v>2022</v>
       </c>
@@ -17338,7 +18744,7 @@
         <v>7.1062365591397834</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>2022</v>
       </c>
@@ -17372,7 +18778,7 @@
         <v>7.4123684210526308</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2022</v>
       </c>
@@ -17406,7 +18812,7 @@
         <v>9.2016049382716059</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>2022</v>
       </c>
@@ -17440,7 +18846,7 @@
         <v>8.8357777777777784</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>2022</v>
       </c>
@@ -17474,7 +18880,7 @@
         <v>9.8862765957446808</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>2022</v>
       </c>
@@ -17508,7 +18914,7 @@
         <v>10.65341463414634</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>2022</v>
       </c>
@@ -17542,7 +18948,7 @@
         <v>11.008888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>2022</v>
       </c>
@@ -17576,7 +18982,7 @@
         <v>12.317361111111111</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>2022</v>
       </c>
@@ -17610,7 +19016,7 @@
         <v>11.958695652173912</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>2022</v>
       </c>
@@ -17644,7 +19050,7 @@
         <v>11.538372093023256</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>2022</v>
       </c>
@@ -17678,7 +19084,7 @@
         <v>11.79082191780822</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>2022</v>
       </c>
@@ -17712,7 +19118,7 @@
         <v>11.26686274509804</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>2022</v>
       </c>
@@ -17746,7 +19152,7 @@
         <v>10.407333333333332</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>2022</v>
       </c>
@@ -17780,7 +19186,7 @@
         <v>12.336117647058822</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>2022</v>
       </c>
@@ -17814,7 +19220,7 @@
         <v>12.719036144578311</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>2022</v>
       </c>
@@ -17848,7 +19254,7 @@
         <v>12.701891891891892</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>2022</v>
       </c>
@@ -17882,7 +19288,7 @@
         <v>13.471848739495798</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>2022</v>
       </c>
@@ -17916,7 +19322,7 @@
         <v>12.774999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>2022</v>
       </c>
@@ -17950,7 +19356,7 @@
         <v>11.37269230769231</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>2022</v>
       </c>
@@ -17984,7 +19390,7 @@
         <v>13.873571428571429</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>2022</v>
       </c>
@@ -18018,7 +19424,7 @@
         <v>13.749864864864865</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>2022</v>
       </c>
@@ -18052,7 +19458,7 @@
         <v>14.991044776119404</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>2022</v>
       </c>
@@ -18086,7 +19492,7 @@
         <v>14.623928571428573</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>2022</v>
       </c>
@@ -18120,7 +19526,7 @@
         <v>13.701739130434783</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>2022</v>
       </c>
@@ -18154,7 +19560,7 @@
         <v>15.005098039215687</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>2022</v>
       </c>
@@ -18188,7 +19594,7 @@
         <v>14.773</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>2022</v>
       </c>
@@ -18222,7 +19628,7 @@
         <v>12.647708333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
         <v>2023</v>
       </c>
@@ -18256,7 +19662,7 @@
         <v>13.190344827586209</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="52">
         <v>2023</v>
       </c>
@@ -18290,7 +19696,7 @@
         <v>14.081212121212122</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="52">
         <v>2023</v>
       </c>
@@ -18324,7 +19730,7 @@
         <v>13.164999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="52">
         <v>2023</v>
       </c>
@@ -18358,7 +19764,7 @@
         <v>12.799142857142854</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="52">
         <v>2023</v>
       </c>
@@ -18392,7 +19798,7 @@
         <v>13.504794520547945</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="52">
         <v>2023</v>
       </c>
@@ -18426,7 +19832,7 @@
         <v>12.611034482758622</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="52">
         <v>2023</v>
       </c>
@@ -18460,7 +19866,7 @@
         <v>12.230344827586206</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="52">
         <v>2023</v>
       </c>
@@ -18494,7 +19900,7 @@
         <v>13.969787234042551</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="52">
         <v>2023</v>
       </c>
@@ -18528,7 +19934,7 @@
         <v>13.64038961038961</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="52">
         <v>2023</v>
       </c>
@@ -18562,7 +19968,7 @@
         <v>14.050697674418604</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="52">
         <v>2023</v>
       </c>
@@ -18596,7 +20002,7 @@
         <v>13.122</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>2023</v>
       </c>
@@ -18630,7 +20036,7 @@
         <v>13.438333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>2023</v>
       </c>
@@ -18664,7 +20070,7 @@
         <v>13.279166666666667</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>2023</v>
       </c>
@@ -18698,7 +20104,7 @@
         <v>13.438333333333333</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>2023</v>
       </c>
@@ -18732,7 +20138,7 @@
         <v>14.318936170212766</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>2023</v>
       </c>
@@ -18766,7 +20172,7 @@
         <v>13.869393939393937</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>2023</v>
       </c>
@@ -18800,7 +20206,7 @@
         <v>12.273421052631578</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="52">
         <v>2023</v>
       </c>
@@ -18834,7 +20240,7 @@
         <v>13.482000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="52">
         <v>2023</v>
       </c>
@@ -18868,7 +20274,7 @@
         <v>14.965333333333335</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="52">
         <v>2023</v>
       </c>
@@ -18902,7 +20308,7 @@
         <v>14.640975609756097</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="52">
         <v>2023</v>
       </c>
@@ -18936,7 +20342,7 @@
         <v>13.525</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="52">
         <v>2023</v>
       </c>
@@ -18970,7 +20376,7 @@
         <v>13.716666666666665</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="52">
         <v>2023</v>
       </c>
@@ -19004,7 +20410,7 @@
         <v>14.153030303030302</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="52">
         <v>2023</v>
       </c>
@@ -19038,7 +20444,7 @@
         <v>12.247272727272726</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="52">
         <v>2023</v>
       </c>
@@ -19072,7 +20478,7 @@
         <v>13.40185185185185</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="52">
         <v>2023</v>
       </c>
@@ -19106,7 +20512,7 @@
         <v>12.881538461538462</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="52">
         <v>2023</v>
       </c>
@@ -19140,7 +20546,7 @@
         <v>13.323400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="52">
         <v>2023</v>
       </c>
@@ -19174,7 +20580,7 @@
         <v>13.320344827586208</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="52">
         <v>2023</v>
       </c>
@@ -19208,7 +20614,7 @@
         <v>11.868771929824561</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="52">
         <v>2023</v>
       </c>
@@ -19242,7 +20648,7 @@
         <v>12.511470588235293</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="52">
         <v>2023</v>
       </c>
@@ -19276,7 +20682,7 @@
         <v>13.196981132075473</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="52">
         <v>2023</v>
       </c>
@@ -19310,7 +20716,7 @@
         <v>13.417272727272726</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="52">
         <v>2023</v>
       </c>
@@ -19342,7 +20748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="52">
         <v>2023</v>
       </c>
@@ -19376,7 +20782,7 @@
         <v>13.417272727272726</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="52">
         <v>2023</v>
       </c>
@@ -19410,7 +20816,7 @@
         <v>15.414969104075293</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="52">
         <v>2023</v>
       </c>
@@ -19444,7 +20850,7 @@
         <v>13.738015647226174</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="52">
         <v>2023</v>
       </c>
@@ -19478,7 +20884,7 @@
         <v>14.144736842105264</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="52">
         <v>2023</v>
       </c>
@@ -19512,7 +20918,7 @@
         <v>15.447447612085769</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="52">
         <v>2023</v>
       </c>
@@ -19546,7 +20952,7 @@
         <v>14.698407567049811</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="52">
         <v>2023</v>
       </c>
@@ -19580,7 +20986,7 @@
         <v>13.777215973401246</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="52">
         <v>2023</v>
       </c>
@@ -19614,7 +21020,7 @@
         <v>13.38032102826511</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="52">
         <v>2023</v>
       </c>
@@ -19648,7 +21054,7 @@
         <v>13.777215973401246</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="52">
         <v>2023</v>
       </c>
@@ -19682,7 +21088,7 @@
         <v>15.632973927875243</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="52">
         <v>2023</v>
       </c>
@@ -19716,7 +21122,7 @@
         <v>15.176211322772104</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="52">
         <v>2023</v>
       </c>
@@ -19750,7 +21156,7 @@
         <v>16.690074349799939</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="52">
         <v>2023</v>
       </c>
@@ -19784,7 +21190,7 @@
         <v>15.830891812865499</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="52">
         <v>2023</v>
       </c>
@@ -19818,7 +21224,7 @@
         <v>15.258149142043706</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="52">
         <v>2023</v>
       </c>
@@ -19852,7 +21258,7 @@
         <v>14.714600795971414</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="52">
         <v>2023</v>
       </c>
@@ -19886,7 +21292,7 @@
         <v>15.666122393846935</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="52">
         <v>2023</v>
       </c>
@@ -19920,7 +21326,7 @@
         <v>14.741700330871039</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="52">
         <v>2023</v>
       </c>
@@ -19952,6 +21358,244 @@
       <c r="J79" s="11">
         <f>(C79*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D79*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E79*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F79*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G79*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H79*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C79:H79)</f>
         <v>14.663393509816206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="52">
+        <v>2023</v>
+      </c>
+      <c r="B80" s="52">
+        <v>52</v>
+      </c>
+      <c r="C80" s="13">
+        <v>0</v>
+      </c>
+      <c r="D80" s="13">
+        <v>35</v>
+      </c>
+      <c r="E80" s="13">
+        <v>1</v>
+      </c>
+      <c r="F80" s="13">
+        <v>4</v>
+      </c>
+      <c r="G80" s="13">
+        <v>12</v>
+      </c>
+      <c r="H80" s="13">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <f>SUM(C80:H80)</f>
+        <v>54</v>
+      </c>
+      <c r="J80" s="11">
+        <f>(C80*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D80*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E80*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F80*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G80*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H80*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C80:H80)</f>
+        <v>15.356992500541478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B81" s="52">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>43</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>12</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <f>SUM(C81:H81)</f>
+        <v>68</v>
+      </c>
+      <c r="J81" s="11">
+        <f>(C81*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D81*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E81*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F81*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G81*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H81*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C81:H81)</f>
+        <v>14.555771091331271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B82" s="52">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>41</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>7</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ref="I82:I86" si="11">SUM(C82:H82)</f>
+        <v>68</v>
+      </c>
+      <c r="J82" s="11">
+        <f>(C82*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D82*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E82*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F82*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G82*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H82*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C82:H82)</f>
+        <v>15.100360122119024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B83" s="52">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>46</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>21</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="J83" s="11">
+        <f>(C83*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D83*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E83*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F83*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G83*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H83*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C83:H83)</f>
+        <v>14.899068852687273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B84" s="52">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>38</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <v>21</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="J84" s="11">
+        <f>(C84*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D84*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E84*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F84*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G84*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H84*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C84:H84)</f>
+        <v>15.951802701674277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B85" s="52">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>44</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>19</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="J85" s="11">
+        <f>(C85*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D85*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E85*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F85*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G85*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H85*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C85:H85)</f>
+        <v>15.913511885423436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B86" s="52">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>36</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>13</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="J86" s="11">
+        <f>(C86*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D86*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E86*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F86*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G86*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H86*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C86:H86)</f>
+        <v>14.989051670457009</v>
       </c>
     </row>
   </sheetData>
@@ -19964,18 +21608,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6335AA81-92E1-4191-98F5-D9E75D89EE86}">
-  <dimension ref="A1:J322"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="H323" sqref="H323"/>
+    <sheetView topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="J357" sqref="J357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -20007,7 +21651,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -20040,7 +21684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -20073,7 +21717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -20106,7 +21750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -20139,7 +21783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -20172,7 +21816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -20205,7 +21849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -20238,7 +21882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -20271,7 +21915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -20304,7 +21948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -20337,7 +21981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -20370,7 +22014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -20403,7 +22047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -20436,7 +22080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -20469,7 +22113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -20502,7 +22146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -20535,7 +22179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -20568,7 +22212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -20601,7 +22245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -20634,7 +22278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -20667,7 +22311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -20700,7 +22344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -20733,7 +22377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -20766,7 +22410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -20799,7 +22443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -20832,7 +22476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -20865,7 +22509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -20898,7 +22542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -20931,7 +22575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -20964,7 +22608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -20997,7 +22641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -21030,7 +22674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -21063,7 +22707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -21096,7 +22740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -21129,7 +22773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -21162,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -21195,7 +22839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -21228,7 +22872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -21261,7 +22905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -21294,7 +22938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2022</v>
       </c>
@@ -21327,7 +22971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2022</v>
       </c>
@@ -21360,7 +23004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2022</v>
       </c>
@@ -21393,7 +23037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -21426,7 +23070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -21459,7 +23103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -21492,7 +23136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -21525,7 +23169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2022</v>
       </c>
@@ -21558,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2022</v>
       </c>
@@ -21591,7 +23235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2022</v>
       </c>
@@ -21624,7 +23268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2022</v>
       </c>
@@ -21657,7 +23301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -21690,7 +23334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2022</v>
       </c>
@@ -21723,7 +23367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2022</v>
       </c>
@@ -21756,7 +23400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2022</v>
       </c>
@@ -21789,7 +23433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2022</v>
       </c>
@@ -21822,7 +23466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2022</v>
       </c>
@@ -21855,7 +23499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2022</v>
       </c>
@@ -21888,7 +23532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2022</v>
       </c>
@@ -21921,7 +23565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2022</v>
       </c>
@@ -21954,7 +23598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2022</v>
       </c>
@@ -21987,7 +23631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -22020,7 +23664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2022</v>
       </c>
@@ -22053,7 +23697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2022</v>
       </c>
@@ -22086,7 +23730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -22119,7 +23763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -22152,7 +23796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -22185,7 +23829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -22218,7 +23862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2022</v>
       </c>
@@ -22251,7 +23895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -22284,7 +23928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -22317,7 +23961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2022</v>
       </c>
@@ -22350,7 +23994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2022</v>
       </c>
@@ -22383,7 +24027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -22416,7 +24060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -22449,7 +24093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2022</v>
       </c>
@@ -22482,7 +24126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -22515,7 +24159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2023</v>
       </c>
@@ -22548,7 +24192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2023</v>
       </c>
@@ -22581,7 +24225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2023</v>
       </c>
@@ -22614,7 +24258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2023</v>
       </c>
@@ -22647,7 +24291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2023</v>
       </c>
@@ -22680,7 +24324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2023</v>
       </c>
@@ -22713,7 +24357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2023</v>
       </c>
@@ -22743,7 +24387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2023</v>
       </c>
@@ -22776,7 +24420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2023</v>
       </c>
@@ -22809,7 +24453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2023</v>
       </c>
@@ -22842,7 +24486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2023</v>
       </c>
@@ -22875,7 +24519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2023</v>
       </c>
@@ -22908,7 +24552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2023</v>
       </c>
@@ -22941,7 +24585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2023</v>
       </c>
@@ -22974,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2023</v>
       </c>
@@ -23007,7 +24651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2023</v>
       </c>
@@ -23040,7 +24684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -23073,7 +24717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2023</v>
       </c>
@@ -23106,7 +24750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2023</v>
       </c>
@@ -23139,7 +24783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2023</v>
       </c>
@@ -23172,7 +24816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2023</v>
       </c>
@@ -23205,7 +24849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2023</v>
       </c>
@@ -23238,7 +24882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2023</v>
       </c>
@@ -23271,7 +24915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2023</v>
       </c>
@@ -23304,7 +24948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2023</v>
       </c>
@@ -23337,7 +24981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2023</v>
       </c>
@@ -23370,7 +25014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2023</v>
       </c>
@@ -23403,7 +25047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2023</v>
       </c>
@@ -23436,7 +25080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2023</v>
       </c>
@@ -23469,7 +25113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2023</v>
       </c>
@@ -23502,7 +25146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2023</v>
       </c>
@@ -23534,7 +25178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2023</v>
       </c>
@@ -23567,7 +25211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2023</v>
       </c>
@@ -23600,7 +25244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2023</v>
       </c>
@@ -23633,7 +25277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2023</v>
       </c>
@@ -23666,7 +25310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2023</v>
       </c>
@@ -23699,7 +25343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2023</v>
       </c>
@@ -23732,7 +25376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2023</v>
       </c>
@@ -23765,7 +25409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2023</v>
       </c>
@@ -23798,7 +25442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2023</v>
       </c>
@@ -23831,7 +25475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2023</v>
       </c>
@@ -23864,7 +25508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2023</v>
       </c>
@@ -23897,7 +25541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2023</v>
       </c>
@@ -23930,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2023</v>
       </c>
@@ -23963,7 +25607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2023</v>
       </c>
@@ -23996,7 +25640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2023</v>
       </c>
@@ -24029,7 +25673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2023</v>
       </c>
@@ -24062,7 +25706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2023</v>
       </c>
@@ -24095,7 +25739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2023</v>
       </c>
@@ -24128,7 +25772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2023</v>
       </c>
@@ -24161,7 +25805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2023</v>
       </c>
@@ -24194,7 +25838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2023</v>
       </c>
@@ -24227,7 +25871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2023</v>
       </c>
@@ -24260,7 +25904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2023</v>
       </c>
@@ -24293,7 +25937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2023</v>
       </c>
@@ -24326,7 +25970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2023</v>
       </c>
@@ -24359,7 +26003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2023</v>
       </c>
@@ -24392,7 +26036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2023</v>
       </c>
@@ -24425,7 +26069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2023</v>
       </c>
@@ -24458,7 +26102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2023</v>
       </c>
@@ -24491,7 +26135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2023</v>
       </c>
@@ -24524,7 +26168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2023</v>
       </c>
@@ -24557,7 +26201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2023</v>
       </c>
@@ -24590,7 +26234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2023</v>
       </c>
@@ -24623,7 +26267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2023</v>
       </c>
@@ -24656,7 +26300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2023</v>
       </c>
@@ -24689,7 +26333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2023</v>
       </c>
@@ -24722,7 +26366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2023</v>
       </c>
@@ -24755,7 +26399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2023</v>
       </c>
@@ -24788,7 +26432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2023</v>
       </c>
@@ -24821,7 +26465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2023</v>
       </c>
@@ -24854,7 +26498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2023</v>
       </c>
@@ -24887,7 +26531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2023</v>
       </c>
@@ -24920,7 +26564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2023</v>
       </c>
@@ -24953,7 +26597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2023</v>
       </c>
@@ -24986,7 +26630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2023</v>
       </c>
@@ -25019,7 +26663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2023</v>
       </c>
@@ -25052,7 +26696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2023</v>
       </c>
@@ -25085,7 +26729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2023</v>
       </c>
@@ -25118,7 +26762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2023</v>
       </c>
@@ -25151,7 +26795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2023</v>
       </c>
@@ -25184,7 +26828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2023</v>
       </c>
@@ -25217,7 +26861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2023</v>
       </c>
@@ -25250,7 +26894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2023</v>
       </c>
@@ -25283,7 +26927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2023</v>
       </c>
@@ -25316,7 +26960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2023</v>
       </c>
@@ -25349,7 +26993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2023</v>
       </c>
@@ -25382,7 +27026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2023</v>
       </c>
@@ -25415,7 +27059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2023</v>
       </c>
@@ -25448,7 +27092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2023</v>
       </c>
@@ -25481,7 +27125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2023</v>
       </c>
@@ -25514,7 +27158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2023</v>
       </c>
@@ -25547,7 +27191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2023</v>
       </c>
@@ -25580,7 +27224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2023</v>
       </c>
@@ -25613,7 +27257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2023</v>
       </c>
@@ -25646,7 +27290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2023</v>
       </c>
@@ -25679,7 +27323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2023</v>
       </c>
@@ -25712,7 +27356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2023</v>
       </c>
@@ -25745,7 +27389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2023</v>
       </c>
@@ -25778,7 +27422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2023</v>
       </c>
@@ -25811,7 +27455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2023</v>
       </c>
@@ -25844,7 +27488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2023</v>
       </c>
@@ -25877,7 +27521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2023</v>
       </c>
@@ -25910,7 +27554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2023</v>
       </c>
@@ -25943,7 +27587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2023</v>
       </c>
@@ -25976,7 +27620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2023</v>
       </c>
@@ -26009,7 +27653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2023</v>
       </c>
@@ -26042,7 +27686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2023</v>
       </c>
@@ -26075,7 +27719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2023</v>
       </c>
@@ -26108,7 +27752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2023</v>
       </c>
@@ -26141,7 +27785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2023</v>
       </c>
@@ -26174,7 +27818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2023</v>
       </c>
@@ -26207,7 +27851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2023</v>
       </c>
@@ -26240,7 +27884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2023</v>
       </c>
@@ -26273,7 +27917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2023</v>
       </c>
@@ -26306,7 +27950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2023</v>
       </c>
@@ -26339,7 +27983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2023</v>
       </c>
@@ -26372,7 +28016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2023</v>
       </c>
@@ -26405,7 +28049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2023</v>
       </c>
@@ -26438,7 +28082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2023</v>
       </c>
@@ -26468,7 +28112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2023</v>
       </c>
@@ -26501,7 +28145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2023</v>
       </c>
@@ -26534,7 +28178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2023</v>
       </c>
@@ -26567,7 +28211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2023</v>
       </c>
@@ -26600,7 +28244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2023</v>
       </c>
@@ -26633,7 +28277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2023</v>
       </c>
@@ -26666,7 +28310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2023</v>
       </c>
@@ -26699,7 +28343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2023</v>
       </c>
@@ -26732,7 +28376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2023</v>
       </c>
@@ -26765,7 +28409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2023</v>
       </c>
@@ -26798,7 +28442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2023</v>
       </c>
@@ -26831,7 +28475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2023</v>
       </c>
@@ -26864,7 +28508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2023</v>
       </c>
@@ -26888,7 +28532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2023</v>
       </c>
@@ -26921,7 +28565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2023</v>
       </c>
@@ -26954,7 +28598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2023</v>
       </c>
@@ -26987,7 +28631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2023</v>
       </c>
@@ -27020,7 +28664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2023</v>
       </c>
@@ -27053,7 +28697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2023</v>
       </c>
@@ -27086,7 +28730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2023</v>
       </c>
@@ -27119,7 +28763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2023</v>
       </c>
@@ -27152,7 +28796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2023</v>
       </c>
@@ -27185,7 +28829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2023</v>
       </c>
@@ -27218,7 +28862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2023</v>
       </c>
@@ -27251,7 +28895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2023</v>
       </c>
@@ -27284,7 +28928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2023</v>
       </c>
@@ -27317,7 +28961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2023</v>
       </c>
@@ -27350,7 +28994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2023</v>
       </c>
@@ -27383,7 +29027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2023</v>
       </c>
@@ -27416,7 +29060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2023</v>
       </c>
@@ -27449,7 +29093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2023</v>
       </c>
@@ -27482,7 +29126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2023</v>
       </c>
@@ -27515,7 +29159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2023</v>
       </c>
@@ -27548,7 +29192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2023</v>
       </c>
@@ -27581,7 +29225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2023</v>
       </c>
@@ -27614,7 +29258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2023</v>
       </c>
@@ -27647,7 +29291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2023</v>
       </c>
@@ -27680,7 +29324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2023</v>
       </c>
@@ -27713,7 +29357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2023</v>
       </c>
@@ -27746,7 +29390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2023</v>
       </c>
@@ -27779,7 +29423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2023</v>
       </c>
@@ -27812,7 +29456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2023</v>
       </c>
@@ -27845,7 +29489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2023</v>
       </c>
@@ -27878,7 +29522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2023</v>
       </c>
@@ -27911,7 +29555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2023</v>
       </c>
@@ -27944,7 +29588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2023</v>
       </c>
@@ -27977,7 +29621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2023</v>
       </c>
@@ -28010,7 +29654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2023</v>
       </c>
@@ -28043,7 +29687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2023</v>
       </c>
@@ -28076,7 +29720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2023</v>
       </c>
@@ -28109,7 +29753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2023</v>
       </c>
@@ -28142,7 +29786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2023</v>
       </c>
@@ -28175,7 +29819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2023</v>
       </c>
@@ -28208,7 +29852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2023</v>
       </c>
@@ -28241,7 +29885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2023</v>
       </c>
@@ -28274,7 +29918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2023</v>
       </c>
@@ -28307,7 +29951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2023</v>
       </c>
@@ -28340,7 +29984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2023</v>
       </c>
@@ -28373,7 +30017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2023</v>
       </c>
@@ -28406,7 +30050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2023</v>
       </c>
@@ -28439,7 +30083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2023</v>
       </c>
@@ -28472,7 +30116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2023</v>
       </c>
@@ -28505,7 +30149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2023</v>
       </c>
@@ -28538,7 +30182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2023</v>
       </c>
@@ -28571,7 +30215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2023</v>
       </c>
@@ -28604,7 +30248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2023</v>
       </c>
@@ -28637,7 +30281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2023</v>
       </c>
@@ -28670,7 +30314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2023</v>
       </c>
@@ -28703,7 +30347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2023</v>
       </c>
@@ -28736,7 +30380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2023</v>
       </c>
@@ -28769,7 +30413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2023</v>
       </c>
@@ -28802,7 +30446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2023</v>
       </c>
@@ -28835,7 +30479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2023</v>
       </c>
@@ -28868,7 +30512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2023</v>
       </c>
@@ -28901,7 +30545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2023</v>
       </c>
@@ -28934,7 +30578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2023</v>
       </c>
@@ -28967,7 +30611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2023</v>
       </c>
@@ -29000,7 +30644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2023</v>
       </c>
@@ -29033,7 +30677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2023</v>
       </c>
@@ -29066,7 +30710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2023</v>
       </c>
@@ -29099,7 +30743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2023</v>
       </c>
@@ -29132,7 +30776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2023</v>
       </c>
@@ -29165,7 +30809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2023</v>
       </c>
@@ -29198,7 +30842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2023</v>
       </c>
@@ -29231,7 +30875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2023</v>
       </c>
@@ -29264,7 +30908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2023</v>
       </c>
@@ -29297,7 +30941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2023</v>
       </c>
@@ -29330,7 +30974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2023</v>
       </c>
@@ -29363,7 +31007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2023</v>
       </c>
@@ -29396,7 +31040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2023</v>
       </c>
@@ -29429,7 +31073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2023</v>
       </c>
@@ -29462,7 +31106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2023</v>
       </c>
@@ -29495,7 +31139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2023</v>
       </c>
@@ -29528,7 +31172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2023</v>
       </c>
@@ -29561,7 +31205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2023</v>
       </c>
@@ -29594,7 +31238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2023</v>
       </c>
@@ -29627,7 +31271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2023</v>
       </c>
@@ -29660,7 +31304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2023</v>
       </c>
@@ -29693,7 +31337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2023</v>
       </c>
@@ -29726,7 +31370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2023</v>
       </c>
@@ -29759,7 +31403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2023</v>
       </c>
@@ -29792,7 +31436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2023</v>
       </c>
@@ -29825,7 +31469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2023</v>
       </c>
@@ -29858,7 +31502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2023</v>
       </c>
@@ -29891,7 +31535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2023</v>
       </c>
@@ -29924,7 +31568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2023</v>
       </c>
@@ -29957,7 +31601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2023</v>
       </c>
@@ -29990,7 +31634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2023</v>
       </c>
@@ -30023,7 +31667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2023</v>
       </c>
@@ -30056,7 +31700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2023</v>
       </c>
@@ -30089,7 +31733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2023</v>
       </c>
@@ -30122,7 +31766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2023</v>
       </c>
@@ -30155,7 +31799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2023</v>
       </c>
@@ -30188,7 +31832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2023</v>
       </c>
@@ -30221,7 +31865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2023</v>
       </c>
@@ -30254,7 +31898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2023</v>
       </c>
@@ -30287,7 +31931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2023</v>
       </c>
@@ -30320,7 +31964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2023</v>
       </c>
@@ -30353,7 +31997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2023</v>
       </c>
@@ -30386,7 +32030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2023</v>
       </c>
@@ -30419,7 +32063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2023</v>
       </c>
@@ -30452,7 +32096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2023</v>
       </c>
@@ -30485,7 +32129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2023</v>
       </c>
@@ -30518,7 +32162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2023</v>
       </c>
@@ -30551,7 +32195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2023</v>
       </c>
@@ -30582,6 +32226,1161 @@
       <c r="J322">
         <f t="shared" si="61"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2023</v>
+      </c>
+      <c r="B323">
+        <v>52</v>
+      </c>
+      <c r="C323" t="s">
+        <v>57</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>2</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <f t="shared" ref="J323:J327" si="62">SUM(D323:I323)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2023</v>
+      </c>
+      <c r="B324">
+        <v>52</v>
+      </c>
+      <c r="C324" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>15</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>7</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <f t="shared" si="62"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2023</v>
+      </c>
+      <c r="B325">
+        <v>52</v>
+      </c>
+      <c r="C325" t="s">
+        <v>60</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>7</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>2</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <f t="shared" si="62"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2023</v>
+      </c>
+      <c r="B326">
+        <v>52</v>
+      </c>
+      <c r="C326" t="s">
+        <v>69</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>3</v>
+      </c>
+      <c r="H326">
+        <v>3</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <f t="shared" si="62"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2023</v>
+      </c>
+      <c r="B327">
+        <v>52</v>
+      </c>
+      <c r="C327" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>6</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <f t="shared" si="62"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2024</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
+        <v>57</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <f>SUM(D328:I328)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2024</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>14</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="G329">
+        <v>4</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <f t="shared" ref="J329:J332" si="63">SUM(D329:I329)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2024</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>60</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>11</v>
+      </c>
+      <c r="F330">
+        <v>3</v>
+      </c>
+      <c r="G330">
+        <v>3</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>2</v>
+      </c>
+      <c r="J330">
+        <f t="shared" si="63"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2024</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>69</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>14</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>4</v>
+      </c>
+      <c r="H331">
+        <v>3</v>
+      </c>
+      <c r="I331">
+        <v>3</v>
+      </c>
+      <c r="J331">
+        <f t="shared" si="63"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2024</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>4</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2024</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" t="s">
+        <v>57</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>2</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <f t="shared" ref="J333:J337" si="64">SUM(D333:I333)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2024</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+      <c r="C334" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>14</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>4</v>
+      </c>
+      <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334">
+        <f t="shared" si="64"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2024</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335" t="s">
+        <v>60</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>8</v>
+      </c>
+      <c r="F335">
+        <v>2</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>2</v>
+      </c>
+      <c r="J335">
+        <f t="shared" si="64"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2024</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336" t="s">
+        <v>69</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>15</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>4</v>
+      </c>
+      <c r="H336">
+        <v>4</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <f t="shared" si="64"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2024</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>3</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>2</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <f t="shared" si="64"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2024</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338" t="s">
+        <v>57</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>2</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>2</v>
+      </c>
+      <c r="J338">
+        <f t="shared" ref="J338:J342" si="65">SUM(D338:I338)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2024</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>15</v>
+      </c>
+      <c r="F339">
+        <v>4</v>
+      </c>
+      <c r="G339">
+        <v>11</v>
+      </c>
+      <c r="H339">
+        <v>4</v>
+      </c>
+      <c r="I339">
+        <v>3</v>
+      </c>
+      <c r="J339">
+        <f t="shared" si="65"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2024</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340" t="s">
+        <v>60</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>19</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>8</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>3</v>
+      </c>
+      <c r="J340">
+        <f t="shared" si="65"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2024</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>69</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>5</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2024</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>5</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2024</v>
+      </c>
+      <c r="B343">
+        <v>4</v>
+      </c>
+      <c r="C343" t="s">
+        <v>57</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>2</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <f t="shared" ref="J343:J347" si="66">SUM(D343:I343)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2024</v>
+      </c>
+      <c r="B344">
+        <v>4</v>
+      </c>
+      <c r="C344" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>8</v>
+      </c>
+      <c r="F344">
+        <v>3</v>
+      </c>
+      <c r="G344">
+        <v>2</v>
+      </c>
+      <c r="H344">
+        <v>2</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <f t="shared" si="66"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2024</v>
+      </c>
+      <c r="B345">
+        <v>4</v>
+      </c>
+      <c r="C345" t="s">
+        <v>60</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>14</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>6</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345">
+        <f t="shared" si="66"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2024</v>
+      </c>
+      <c r="B346">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
+        <v>69</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>10</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>11</v>
+      </c>
+      <c r="H346">
+        <v>3</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <f t="shared" si="66"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2024</v>
+      </c>
+      <c r="B347">
+        <v>4</v>
+      </c>
+      <c r="C347" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>5</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>2</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2024</v>
+      </c>
+      <c r="B348">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>57</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>2</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>2</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>3</v>
+      </c>
+      <c r="J348">
+        <f t="shared" ref="J348:J352" si="67">SUM(D348:I348)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2024</v>
+      </c>
+      <c r="B349">
+        <v>5</v>
+      </c>
+      <c r="C349" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>19</v>
+      </c>
+      <c r="F349">
+        <v>5</v>
+      </c>
+      <c r="G349">
+        <v>7</v>
+      </c>
+      <c r="H349">
+        <v>2</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <f t="shared" si="67"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2024</v>
+      </c>
+      <c r="B350">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>60</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>14</v>
+      </c>
+      <c r="F350">
+        <v>3</v>
+      </c>
+      <c r="G350">
+        <v>5</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <f t="shared" si="67"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2024</v>
+      </c>
+      <c r="B351">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>69</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>7</v>
+      </c>
+      <c r="F351">
+        <v>3</v>
+      </c>
+      <c r="G351">
+        <v>5</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <f t="shared" si="67"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2024</v>
+      </c>
+      <c r="B352">
+        <v>5</v>
+      </c>
+      <c r="C352" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>2</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2024</v>
+      </c>
+      <c r="B353">
+        <v>6</v>
+      </c>
+      <c r="C353" t="s">
+        <v>57</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>4</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <f t="shared" ref="J353:J357" si="68">SUM(D353:I353)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2024</v>
+      </c>
+      <c r="B354">
+        <v>6</v>
+      </c>
+      <c r="C354" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>14</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="G354">
+        <v>3</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <f t="shared" si="68"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2024</v>
+      </c>
+      <c r="B355">
+        <v>6</v>
+      </c>
+      <c r="C355" t="s">
+        <v>60</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>10</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>3</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>2</v>
+      </c>
+      <c r="J355">
+        <f t="shared" si="68"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2024</v>
+      </c>
+      <c r="B356">
+        <v>6</v>
+      </c>
+      <c r="C356" t="s">
+        <v>69</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>4</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>2</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <f t="shared" si="68"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2024</v>
+      </c>
+      <c r="B357">
+        <v>6</v>
+      </c>
+      <c r="C357" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>7</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <f t="shared" si="68"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -30594,29 +33393,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB2B5E-69B9-4E17-A8DC-DBA424D12F80}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:G52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="12">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>62</v>
       </c>
@@ -30639,122 +33439,122 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13">
         <v>4</v>
       </c>
-      <c r="C4" s="13">
-        <v>28</v>
-      </c>
-      <c r="D4" s="13">
-        <v>10</v>
-      </c>
       <c r="E4" s="13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G4" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D5" s="13">
         <v>5</v>
       </c>
       <c r="E5" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5" s="13">
         <v>7</v>
       </c>
       <c r="G5" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D6" s="13">
         <v>5</v>
       </c>
       <c r="E6" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G6" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="13">
+        <v>38</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13">
         <v>21</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>3</v>
-      </c>
-      <c r="F7" s="13">
-        <v>6</v>
       </c>
       <c r="G7" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="13">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -30762,1031 +33562,42 @@
         <v>0</v>
       </c>
       <c r="C9" s="13">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>248</v>
+      </c>
+      <c r="D10" s="13">
         <v>31</v>
       </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13">
-        <v>10</v>
-      </c>
-      <c r="F9" s="13">
-        <v>10</v>
-      </c>
-      <c r="G9" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13">
-        <v>5</v>
-      </c>
       <c r="E10" s="13">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F10" s="13">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="G10" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13">
-        <v>42</v>
-      </c>
-      <c r="D11" s="13">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13">
-        <v>14</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>14</v>
-      </c>
-      <c r="G12" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
-        <v>7</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13">
-        <v>6</v>
-      </c>
-      <c r="F13" s="13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13">
-        <v>3</v>
-      </c>
-      <c r="E14" s="13">
-        <v>6</v>
-      </c>
-      <c r="F14" s="13">
-        <v>4</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13">
-        <v>3</v>
-      </c>
-      <c r="E15" s="13">
-        <v>6</v>
-      </c>
-      <c r="F15" s="13">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3</v>
-      </c>
-      <c r="E16" s="13">
-        <v>6</v>
-      </c>
-      <c r="F16" s="13">
-        <v>4</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>3</v>
-      </c>
-      <c r="F17" s="13">
-        <v>17</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13">
-        <v>2</v>
-      </c>
-      <c r="C18" s="13">
-        <v>19</v>
-      </c>
-      <c r="D18" s="13">
-        <v>4</v>
-      </c>
-      <c r="E18" s="13">
-        <v>3</v>
-      </c>
-      <c r="F18" s="13">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13">
-        <v>2</v>
-      </c>
-      <c r="C19" s="13">
-        <v>17</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3</v>
-      </c>
-      <c r="E19" s="13">
-        <v>4</v>
-      </c>
-      <c r="F19" s="13">
-        <v>6</v>
-      </c>
-      <c r="G19" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
-        <v>10</v>
-      </c>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13">
-        <v>3</v>
-      </c>
-      <c r="F20" s="13">
-        <v>4</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13">
-        <v>4</v>
-      </c>
-      <c r="C21" s="13">
-        <v>23</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>3</v>
-      </c>
-      <c r="F21" s="13">
-        <v>15</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13">
-        <v>2</v>
-      </c>
-      <c r="C22" s="13">
-        <v>18</v>
-      </c>
-      <c r="D22" s="13">
-        <v>2</v>
-      </c>
-      <c r="E22" s="13">
-        <v>8</v>
-      </c>
-      <c r="F22" s="13">
-        <v>11</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13">
-        <v>2</v>
-      </c>
-      <c r="C23" s="13">
-        <v>14</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>5</v>
-      </c>
-      <c r="F23" s="13">
-        <v>7</v>
-      </c>
-      <c r="G23" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13">
-        <v>2</v>
-      </c>
-      <c r="C24" s="13">
-        <v>21</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13">
-        <v>6</v>
-      </c>
-      <c r="F24" s="13">
-        <v>7</v>
-      </c>
-      <c r="G24" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13">
-        <v>2</v>
-      </c>
-      <c r="C25" s="13">
-        <v>15</v>
-      </c>
-      <c r="D25" s="13">
-        <v>2</v>
-      </c>
-      <c r="E25" s="13">
-        <v>4</v>
-      </c>
-      <c r="F25" s="13">
-        <v>8</v>
-      </c>
-      <c r="G25" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13">
-        <v>1</v>
-      </c>
-      <c r="C26" s="13">
-        <v>17</v>
-      </c>
-      <c r="D26" s="13">
-        <v>2</v>
-      </c>
-      <c r="E26" s="13">
-        <v>4</v>
-      </c>
-      <c r="F26" s="13">
-        <v>3</v>
-      </c>
-      <c r="G26" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
-        <v>13</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13">
-        <v>6</v>
-      </c>
-      <c r="F27" s="13">
-        <v>5</v>
-      </c>
-      <c r="G27" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
-        <v>32</v>
-      </c>
-      <c r="D28" s="13">
-        <v>2</v>
-      </c>
-      <c r="E28" s="13">
-        <v>5</v>
-      </c>
-      <c r="F28" s="13">
-        <v>6</v>
-      </c>
-      <c r="G28" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
         <v>27</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
-        <v>34</v>
-      </c>
-      <c r="D29" s="13">
-        <v>3</v>
-      </c>
-      <c r="E29" s="13">
-        <v>4</v>
-      </c>
-      <c r="F29" s="13">
-        <v>4</v>
-      </c>
-      <c r="G29" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13">
-        <v>2</v>
-      </c>
-      <c r="C30" s="13">
-        <v>17</v>
-      </c>
-      <c r="D30" s="13">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <v>4</v>
-      </c>
-      <c r="G30" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13">
-        <v>1</v>
-      </c>
-      <c r="C31" s="13">
-        <v>31</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>3</v>
-      </c>
-      <c r="F31" s="13">
-        <v>9</v>
-      </c>
-      <c r="G31" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13">
-        <v>0</v>
-      </c>
-      <c r="C32" s="13">
-        <v>20</v>
-      </c>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
-        <v>7</v>
-      </c>
-      <c r="G32" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13">
-        <v>2</v>
-      </c>
-      <c r="C33" s="13">
-        <v>22</v>
-      </c>
-      <c r="D33" s="13">
-        <v>9</v>
-      </c>
-      <c r="E33" s="13">
-        <v>5</v>
-      </c>
-      <c r="F33" s="13">
-        <v>6</v>
-      </c>
-      <c r="G33" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13">
-        <v>35</v>
-      </c>
-      <c r="D34" s="13">
-        <v>2</v>
-      </c>
-      <c r="E34" s="13">
-        <v>4</v>
-      </c>
-      <c r="F34" s="13">
-        <v>16</v>
-      </c>
-      <c r="G34" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13">
-        <v>35</v>
-      </c>
-      <c r="D35" s="13">
-        <v>2</v>
-      </c>
-      <c r="E35" s="13">
-        <v>4</v>
-      </c>
-      <c r="F35" s="13">
-        <v>16</v>
-      </c>
-      <c r="G35" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13">
-        <v>31</v>
-      </c>
-      <c r="D36" s="13">
-        <v>6</v>
-      </c>
-      <c r="E36" s="13">
-        <v>10</v>
-      </c>
-      <c r="F36" s="13">
-        <v>12</v>
-      </c>
-      <c r="G36" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13">
-        <v>13</v>
-      </c>
-      <c r="D37" s="13">
-        <v>2</v>
-      </c>
-      <c r="E37" s="13">
-        <v>6</v>
-      </c>
-      <c r="F37" s="13">
-        <v>8</v>
-      </c>
-      <c r="G37" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13">
-        <v>0</v>
-      </c>
-      <c r="C38" s="13">
-        <v>5</v>
-      </c>
-      <c r="D38" s="13">
-        <v>0</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13">
-        <v>1</v>
-      </c>
-      <c r="C39" s="13">
-        <v>11</v>
-      </c>
-      <c r="D39" s="13">
-        <v>0</v>
-      </c>
-      <c r="E39" s="13">
-        <v>4</v>
-      </c>
-      <c r="F39" s="13">
-        <v>4</v>
-      </c>
-      <c r="G39" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13">
-        <v>1</v>
-      </c>
-      <c r="C40" s="13">
-        <v>15</v>
-      </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13">
-        <v>2</v>
-      </c>
-      <c r="F40" s="13">
-        <v>7</v>
-      </c>
-      <c r="G40" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1</v>
-      </c>
-      <c r="C41" s="13">
-        <v>16</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
-        <v>8</v>
-      </c>
-      <c r="G41" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13">
-        <v>28</v>
-      </c>
-      <c r="D42" s="13">
-        <v>3</v>
-      </c>
-      <c r="E42" s="13">
-        <v>5</v>
-      </c>
-      <c r="F42" s="13">
-        <v>4</v>
-      </c>
-      <c r="G42" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13">
-        <v>1</v>
-      </c>
-      <c r="C43" s="13">
-        <v>16</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <v>8</v>
-      </c>
-      <c r="G43" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
-        <v>29</v>
-      </c>
-      <c r="D44" s="13">
-        <v>2</v>
-      </c>
-      <c r="E44" s="13">
-        <v>3</v>
-      </c>
-      <c r="F44" s="13">
-        <v>10</v>
-      </c>
-      <c r="G44" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1</v>
-      </c>
-      <c r="C45" s="13">
-        <v>42</v>
-      </c>
-      <c r="D45" s="13">
-        <v>6</v>
-      </c>
-      <c r="E45" s="13">
-        <v>7</v>
-      </c>
-      <c r="F45" s="13">
-        <v>8</v>
-      </c>
-      <c r="G45" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13">
-        <v>8</v>
-      </c>
-      <c r="D46" s="13">
-        <v>12</v>
-      </c>
-      <c r="E46" s="13">
-        <v>10</v>
-      </c>
-      <c r="F46" s="13">
-        <v>5</v>
-      </c>
-      <c r="G46" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13">
-        <v>0</v>
-      </c>
-      <c r="C47" s="13">
-        <v>27</v>
-      </c>
-      <c r="D47" s="13">
-        <v>5</v>
-      </c>
-      <c r="E47" s="13">
-        <v>2</v>
-      </c>
-      <c r="F47" s="13">
-        <v>6</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13">
-        <v>20</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13">
-        <v>4</v>
-      </c>
-      <c r="F48" s="13">
-        <v>10</v>
-      </c>
-      <c r="G48" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13">
-        <v>0</v>
-      </c>
-      <c r="C49" s="13">
-        <v>30</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13">
-        <v>4</v>
-      </c>
-      <c r="F49" s="13">
-        <v>7</v>
-      </c>
-      <c r="G49" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13">
-        <v>26</v>
-      </c>
-      <c r="D50" s="13">
-        <v>3</v>
-      </c>
-      <c r="E50" s="13">
-        <v>4</v>
-      </c>
-      <c r="F50" s="13">
-        <v>11</v>
-      </c>
-      <c r="G50" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13">
-        <v>41</v>
-      </c>
-      <c r="D51" s="13">
-        <v>4</v>
-      </c>
-      <c r="E51" s="13">
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
-        <v>9</v>
-      </c>
-      <c r="G51" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
-        <v>51</v>
-      </c>
-      <c r="B52" s="13">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13">
-        <v>31</v>
-      </c>
-      <c r="D52" s="13">
-        <v>4</v>
-      </c>
-      <c r="E52" s="13">
-        <v>2</v>
-      </c>
-      <c r="F52" s="13">
-        <v>13</v>
-      </c>
-      <c r="G52" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="13">
-        <v>52</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1078</v>
-      </c>
-      <c r="D53" s="13">
-        <v>145</v>
-      </c>
-      <c r="E53" s="13">
-        <v>202</v>
-      </c>
-      <c r="F53" s="13">
-        <v>391</v>
-      </c>
-      <c r="G53" s="13">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -31798,17 +33609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -31816,7 +33627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -31824,7 +33635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -31832,7 +33643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -31840,7 +33651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -31848,7 +33659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -31856,7 +33667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -31864,7 +33675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -31872,7 +33683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -31880,7 +33691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -31888,7 +33699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -31896,7 +33707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -31904,7 +33715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -31912,7 +33723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -31920,8 +33731,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -31929,7 +33740,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -31937,7 +33748,7 @@
         <v>13.478947368421053</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -31945,7 +33756,7 @@
         <v>14.144736842105264</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -31953,7 +33764,7 @@
         <v>19.183333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -31961,7 +33772,7 @@
         <v>18.605555555555554</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -31969,7 +33780,7 @@
         <v>19.700000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
@@ -31977,7 +33788,7 @@
         <v>2.1031249999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
@@ -31985,7 +33796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -31993,7 +33804,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -32001,7 +33812,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -32009,7 +33820,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -32017,7 +33828,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -32025,7 +33836,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
@@ -32033,7 +33844,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>24</v>
       </c>
@@ -32041,7 +33852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -32049,7 +33860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -32057,7 +33868,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -32065,7 +33876,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
@@ -32073,7 +33884,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
@@ -32081,7 +33892,7 @@
         <v>16.93</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>20</v>
       </c>
@@ -32089,7 +33900,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
@@ -32097,7 +33908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
@@ -32105,7 +33916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
@@ -32113,7 +33924,7 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>22</v>
       </c>
@@ -32121,7 +33932,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>21</v>
       </c>
@@ -32129,7 +33940,7 @@
         <v>9.61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>17</v>
       </c>
@@ -32137,7 +33948,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
@@ -32145,7 +33956,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>24</v>
       </c>
@@ -32153,7 +33964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>18</v>
       </c>
@@ -32162,7 +33973,7 @@
       </c>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
@@ -32171,7 +33982,7 @@
       </c>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>22</v>
       </c>
@@ -32180,7 +33991,7 @@
       </c>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
@@ -32189,7 +34000,7 @@
       </c>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
@@ -32197,7 +34008,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>20</v>
       </c>
@@ -32205,7 +34016,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>24</v>
       </c>
@@ -32213,7 +34024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>18</v>
       </c>
@@ -32221,7 +34032,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -32229,7 +34040,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>22</v>
       </c>
@@ -32237,7 +34048,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
@@ -32245,7 +34056,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>17</v>
       </c>
@@ -32253,7 +34064,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>20</v>
       </c>
@@ -32274,17 +34085,17 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>62</v>
       </c>
@@ -32307,7 +34118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
         <v>27</v>
       </c>
@@ -32331,7 +34142,7 @@
         <v>8.1124942263279465</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
         <v>28</v>
       </c>
@@ -32355,7 +34166,7 @@
         <v>8.2330619520638155</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
         <v>29</v>
       </c>
@@ -32379,7 +34190,7 @@
         <v>8.6284923581532027</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <v>30</v>
       </c>
@@ -32403,7 +34214,7 @@
         <v>8.2300695205145189</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>31</v>
       </c>
@@ -32427,7 +34238,7 @@
         <v>8.8945100092641081</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <v>32</v>
       </c>
@@ -32451,7 +34262,7 @@
         <v>8.7546744355281838</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>33</v>
       </c>
@@ -32475,7 +34286,7 @@
         <v>8.6327332086041615</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>34</v>
       </c>
@@ -32499,7 +34310,7 @@
         <v>8.9721788413098231</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>35</v>
       </c>
@@ -32523,7 +34334,7 @@
         <v>9.4376021080368897</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
         <v>36</v>
       </c>
@@ -32547,7 +34358,7 @@
         <v>9.6009402654867255</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
         <v>37</v>
       </c>
@@ -32571,7 +34382,7 @@
         <v>9.3883333333333354</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
         <v>38</v>
       </c>
@@ -32595,7 +34406,7 @@
         <v>11.017771739130433</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
         <v>39</v>
       </c>
@@ -32619,7 +34430,7 @@
         <v>9.1337606837606824</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>40</v>
       </c>
@@ -32643,7 +34454,7 @@
         <v>8.3730927835051538</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>41</v>
       </c>
@@ -32667,7 +34478,7 @@
         <v>8.8751871657754009</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>42</v>
       </c>
@@ -32691,7 +34502,7 @@
         <v>9.139214123006834</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="53">
         <v>43</v>
       </c>
@@ -32715,7 +34526,7 @@
         <v>9.1049747729566093</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
         <v>44</v>
       </c>
@@ -32739,7 +34550,7 @@
         <v>9.1187112171837708</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="53">
         <v>45</v>
       </c>
@@ -32763,7 +34574,7 @@
         <v>9.0241582914572867</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="53">
         <v>46</v>
       </c>
@@ -32787,7 +34598,7 @@
         <v>9.8566986301369859</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
         <v>47</v>
       </c>
@@ -32811,7 +34622,7 @@
         <v>9.1845620915032686</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="53">
         <v>48</v>
       </c>
@@ -32835,7 +34646,7 @@
         <v>9.9805516265912306</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="53">
         <v>49</v>
       </c>
@@ -32859,7 +34670,7 @@
         <v>10.280881542699724</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="53">
         <v>50</v>
       </c>
@@ -32883,7 +34694,7 @@
         <v>10.158090575275398</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>23</v>
       </c>

--- a/BANDEJA DO PERIODO.xlsx
+++ b/BANDEJA DO PERIODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/980841a2e24dade8/Profissional/The Coffee/Operação/2.Gestão da Qualidade/Bandejas/Bandejas semanais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4064" documentId="13_ncr:4000b_{D3240E66-DB17-44F6-81B1-0D6B85E22F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3952D05A-2D44-4AFF-8C9E-0928180011D6}"/>
+  <xr:revisionPtr revIDLastSave="4282" documentId="13_ncr:4000b_{D3240E66-DB17-44F6-81B1-0D6B85E22F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B418FE18-42CE-4AD1-9C60-76E8AFFFDE2A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="período" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="13" r:id="rId8"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="83">
   <si>
     <t xml:space="preserve">               New / App / Cold</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Talita</t>
+  </si>
+  <si>
+    <t>Ticket médio de produtos disponíveis (BR-C/fev-24)</t>
   </si>
 </sst>
 </file>
@@ -1812,9 +1815,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel Bezerra de Melo Silva" refreshedDate="45336.922307291665" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="356" xr:uid="{9B5733B9-D351-4D08-9F8A-CB6331F2432F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel Bezerra de Melo Silva" refreshedDate="45371.706183912036" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="381" xr:uid="{9B5733B9-D351-4D08-9F8A-CB6331F2432F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J357" sheet="baristas"/>
+    <worksheetSource ref="A1:J382" sheet="baristas"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Ano" numFmtId="0">
@@ -1825,7 +1828,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Semana" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="53" count="52">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="53" count="53">
         <n v="41"/>
         <n v="42"/>
         <n v="43"/>
@@ -1877,6 +1880,7 @@
         <n v="38"/>
         <n v="39"/>
         <n v="40"/>
+        <n v="7"/>
         <n v="33" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2783,7 +2787,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="356">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="381">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7056,12 +7060,312 @@
     <n v="0"/>
     <n v="8"/>
   </r>
+  <r>
+    <x v="2"/>
+    <x v="51"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="51"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="51"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="51"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="51"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <s v="Evelyn"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <s v="Jéssica"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <s v="Carolina"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <s v="Iasmym"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <s v="Evelyn"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <s v="Talita"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993A75B1-F664-4E54-94B9-642F255C2CD9}" name="Tabela dinâmica5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993A75B1-F664-4E54-94B9-642F255C2CD9}" name="Tabela dinâmica5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
       <items count="4">
@@ -7072,13 +7376,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="53">
+      <items count="54">
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
+        <item x="51"/>
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
@@ -7104,7 +7409,7 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
-        <item m="1" x="51"/>
+        <item m="1" x="52"/>
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
@@ -7140,7 +7445,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -7158,6 +7463,21 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -7398,8 +7718,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}" name="Tabela1" displayName="Tabela1" ref="A1:AI86" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" dataCellStyle="Porcentagem">
-  <autoFilter ref="A1:AI86" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}" name="Tabela1" displayName="Tabela1" ref="A1:AI89" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" dataCellStyle="Porcentagem">
+  <autoFilter ref="A1:AI89" xr:uid="{5B5D9E64-24ED-42BB-9763-8BC754E6493A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -7430,7 +7750,7 @@
       <calculatedColumnFormula>SUM(K2:Q2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{BDAED799-A45F-4E6C-A49B-F47A77327A56}" name="Ticket período" dataDxfId="22">
-      <calculatedColumnFormula>(C2*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D2*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F2*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G2*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H2*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C2:H2)</calculatedColumnFormula>
+      <calculatedColumnFormula>(C2*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D2*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F2*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G2*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H2*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C2:H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{180F3C0A-C5B0-4129-AF46-1A6F46AB2FAC}" name="A$%  total" dataDxfId="21" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>$K2/SUM($K2:$Q2)</calculatedColumnFormula>
@@ -7484,8 +7804,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}" name="Tabela2" displayName="Tabela2" ref="A1:J86" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:J86" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}" name="Tabela2" displayName="Tabela2" ref="A1:J91" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:J91" xr:uid="{8C617F03-4756-4E7E-89E1-3D05D07FEFA9}"/>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{B3A7EC93-D052-476E-A7D0-7F9FEE82E6EB}" name="Ano" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{8907E03F-0276-4E6E-BA76-03A5F7E7ABA8}" name="Semana" dataDxfId="3"/>
@@ -7499,7 +7819,7 @@
       <calculatedColumnFormula>SUM(C2:H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{C514D4B9-0A71-4B2C-A024-55D260D421F2}" name="Ticket Recomendado" dataDxfId="2">
-      <calculatedColumnFormula>(C2*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D2*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E2*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F2*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G2*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H2*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C2:H2)</calculatedColumnFormula>
+      <calculatedColumnFormula>(C2*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D2*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+E2*VLOOKUP($E$1,OP!$A$59:$B$65,2,FALSE)+F2*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G2*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H2*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C2:H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7507,8 +7827,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}" name="Tabela3" displayName="Tabela3" ref="A1:J357" totalsRowShown="0">
-  <autoFilter ref="A1:J357" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}" name="Tabela3" displayName="Tabela3" ref="A1:J382" totalsRowShown="0">
+  <autoFilter ref="A1:J382" xr:uid="{703EDD0E-C0B1-4373-BA4B-5824553F7E4F}"/>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{19C2ECCC-C5CA-4CBA-9A19-FCC8487A8CC6}" name="Ano"/>
     <tableColumn id="1" xr3:uid="{42E434D7-D8A5-4430-8FC7-28848FD6B96A}" name="Semana"/>
@@ -7528,9 +7848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7568,7 +7888,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7674,7 +7994,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7816,7 +8136,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7835,13 +8155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK86"/>
+  <dimension ref="A1:AK89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomRight" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8038,7 +8358,7 @@
         <v>3512.7100000000005</v>
       </c>
       <c r="S2" s="15">
-        <f>(C2*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D2*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F2*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G2*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H2*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C2:H2)</f>
+        <f>(C2*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D2*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+F2*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G2*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H2*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C2:H2)</f>
         <v>8.8622325581395351</v>
       </c>
       <c r="T2" s="20">
@@ -8165,7 +8485,7 @@
         <v>8752.4035000000003</v>
       </c>
       <c r="S3" s="15">
-        <f>(C3*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D3*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F3*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G3*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H3*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C3:H3)</f>
+        <f>(C3*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D3*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+F3*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G3*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H3*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C3:H3)</f>
         <v>8.8726769242401335</v>
       </c>
       <c r="T3" s="20">
@@ -8292,7 +8612,7 @@
         <v>7576.3340000000007</v>
       </c>
       <c r="S4" s="15">
-        <f>(C4*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D4*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F4*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G4*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H4*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C4:H4)</f>
+        <f>(C4*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D4*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+F4*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G4*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H4*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C4:H4)</f>
         <v>8.8366614860695272</v>
       </c>
       <c r="T4" s="20">
@@ -8419,7 +8739,7 @@
         <v>7588.371000000001</v>
       </c>
       <c r="S5" s="15">
-        <f>(C5*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D5*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F5*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G5*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H5*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C5:H5)</f>
+        <f>(C5*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D5*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+F5*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G5*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H5*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C5:H5)</f>
         <v>8.6117242620197807</v>
       </c>
       <c r="T5" s="20">
@@ -8546,7 +8866,7 @@
         <v>8832.9599999999991</v>
       </c>
       <c r="S6" s="15">
-        <f>(C6*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D6*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F6*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G6*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H6*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C6:H6)</f>
+        <f>(C6*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D6*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+F6*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G6*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H6*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C6:H6)</f>
         <v>8.7192880494006548</v>
       </c>
       <c r="T6" s="20">
@@ -8673,7 +8993,7 @@
         <v>8842.3524999999991</v>
       </c>
       <c r="S7" s="15">
-        <f>(C7*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D7*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F7*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G7*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H7*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C7:H7)</f>
+        <f>(C7*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D7*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F7*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G7*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H7*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C7:H7)</f>
         <v>10.839957911075956</v>
       </c>
       <c r="T7" s="20">
@@ -8800,7 +9120,7 @@
         <v>8028.5713749999995</v>
       </c>
       <c r="S8" s="18">
-        <f>(C8*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D8*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F8*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G8*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H8*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C8:H8)</f>
+        <f>(C8*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D8*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F8*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G8*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H8*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C8:H8)</f>
         <v>10.661622027750902</v>
       </c>
       <c r="T8" s="17">
@@ -8927,7 +9247,7 @@
         <v>7123.9099999999989</v>
       </c>
       <c r="S9" s="18">
-        <f>(C9*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D9*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F9*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G9*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H9*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C9:H9)</f>
+        <f>(C9*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D9*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F9*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G9*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H9*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C9:H9)</f>
         <v>10.424412136536029</v>
       </c>
       <c r="T9" s="17">
@@ -9054,7 +9374,7 @@
         <v>7163.1399999999994</v>
       </c>
       <c r="S10" s="18">
-        <f>(C10*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D10*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F10*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G10*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H10*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C10:H10)</f>
+        <f>(C10*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D10*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F10*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G10*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H10*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C10:H10)</f>
         <v>10.520092838196286</v>
       </c>
       <c r="T10" s="17">
@@ -9181,7 +9501,7 @@
         <v>8679.25</v>
       </c>
       <c r="S11" s="18">
-        <f>(C11*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D11*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F11*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G11*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H11*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C11:H11)</f>
+        <f>(C11*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D11*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F11*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G11*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H11*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C11:H11)</f>
         <v>10.407404063205419</v>
       </c>
       <c r="T11" s="17">
@@ -9308,7 +9628,7 @@
         <v>8843.8100000000013</v>
       </c>
       <c r="S12" s="18">
-        <f>(C12*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D12*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F12*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G12*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H12*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C12:H12)</f>
+        <f>(C12*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D12*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F12*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G12*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H12*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C12:H12)</f>
         <v>10.465438972162742</v>
       </c>
       <c r="T12" s="17">
@@ -9435,7 +9755,7 @@
         <v>8109.079999999999</v>
       </c>
       <c r="S13" s="18">
-        <f>(C13*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D13*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F13*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G13*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H13*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C13:H13)</f>
+        <f>(C13*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D13*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F13*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G13*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H13*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C13:H13)</f>
         <v>12.459713114754097</v>
       </c>
       <c r="T13" s="17">
@@ -9562,7 +9882,7 @@
         <v>7480.5499999999993</v>
       </c>
       <c r="S14" s="18">
-        <f>(C14*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D14*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F14*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G14*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H14*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C14:H14)</f>
+        <f>(C14*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D14*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F14*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G14*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H14*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C14:H14)</f>
         <v>10.825719557195571</v>
       </c>
       <c r="T14" s="17">
@@ -9689,7 +10009,7 @@
         <v>7309.7099999999991</v>
       </c>
       <c r="S15" s="18">
-        <f>(C15*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D15*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F15*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G15*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H15*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C15:H15)</f>
+        <f>(C15*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D15*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F15*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G15*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H15*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C15:H15)</f>
         <v>10.009850402761794</v>
       </c>
       <c r="T15" s="25">
@@ -9816,7 +10136,7 @@
         <v>8298.2999999999993</v>
       </c>
       <c r="S16" s="39">
-        <f>(C16*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D16*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F16*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G16*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H16*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C16:H16)</f>
+        <f>(C16*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D16*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F16*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G16*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H16*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C16:H16)</f>
         <v>10.226984978540772</v>
       </c>
       <c r="T16" s="40">
@@ -9943,7 +10263,7 @@
         <v>8024.23</v>
       </c>
       <c r="S17" s="39">
-        <f>(C17*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D17*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F17*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G17*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H17*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C17:H17)</f>
+        <f>(C17*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D17*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F17*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G17*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H17*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C17:H17)</f>
         <v>9.6995438996579253</v>
       </c>
       <c r="T17" s="41">
@@ -10070,7 +10390,7 @@
         <v>9023.0300000000007</v>
       </c>
       <c r="S18" s="39">
-        <f>(C18*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D18*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F18*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G18*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H18*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C18:H18)</f>
+        <f>(C18*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D18*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F18*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G18*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H18*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C18:H18)</f>
         <v>10.061565656565655</v>
       </c>
       <c r="T18" s="41">
@@ -10197,7 +10517,7 @@
         <v>7641.48</v>
       </c>
       <c r="S19" s="39">
-        <f>(C19*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D19*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F19*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G19*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H19*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C19:H19)</f>
+        <f>(C19*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D19*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F19*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G19*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H19*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C19:H19)</f>
         <v>10.159293413173653</v>
       </c>
       <c r="T19" s="41">
@@ -10324,7 +10644,7 @@
         <v>7183.23</v>
       </c>
       <c r="S20" s="39">
-        <f>(C20*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D20*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F20*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G20*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H20*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C20:H20)</f>
+        <f>(C20*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D20*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F20*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G20*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H20*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C20:H20)</f>
         <v>10.335182389937106</v>
       </c>
       <c r="T20" s="41">
@@ -10451,7 +10771,7 @@
         <v>7195.3899999999994</v>
       </c>
       <c r="S21" s="39">
-        <f>(C21*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D21*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F21*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G21*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H21*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C21:H21)</f>
+        <f>(C21*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D21*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F21*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G21*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H21*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C21:H21)</f>
         <v>10.498821081830791</v>
       </c>
       <c r="T21" s="41">
@@ -10578,7 +10898,7 @@
         <v>7026.1900000000005</v>
       </c>
       <c r="S22" s="39">
-        <f>(C22*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D22*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F22*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G22*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H22*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C22:H22)</f>
+        <f>(C22*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D22*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F22*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G22*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H22*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C22:H22)</f>
         <v>10.428664921465968</v>
       </c>
       <c r="T22" s="41">
@@ -10705,7 +11025,7 @@
         <v>7056.25</v>
       </c>
       <c r="S23" s="39">
-        <f>(C23*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D23*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F23*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G23*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H23*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C23:H23)</f>
+        <f>(C23*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D23*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F23*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G23*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H23*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C23:H23)</f>
         <v>9.9048575498575513</v>
       </c>
       <c r="T23" s="41">
@@ -10832,7 +11152,7 @@
         <v>7463.92</v>
       </c>
       <c r="S24" s="39">
-        <f>(C24*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D24*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F24*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G24*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H24*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C24:H24)</f>
+        <f>(C24*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D24*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F24*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G24*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H24*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C24:H24)</f>
         <v>9.8796805555555558</v>
       </c>
       <c r="T24" s="41">
@@ -10958,7 +11278,7 @@
         <v>8299.16</v>
       </c>
       <c r="S25" s="39">
-        <f>(C25*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D25*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F25*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G25*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H25*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C25:H25)</f>
+        <f>(C25*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D25*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F25*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G25*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H25*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C25:H25)</f>
         <v>9.8307116564417178</v>
       </c>
       <c r="T25" s="41">
@@ -11084,7 +11404,7 @@
         <v>9054.75</v>
       </c>
       <c r="S26" s="39">
-        <f>(C26*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D26*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F26*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G26*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H26*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C26:H26)</f>
+        <f>(C26*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D26*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F26*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G26*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H26*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C26:H26)</f>
         <v>9.713912087912087</v>
       </c>
       <c r="T26" s="41">
@@ -11210,7 +11530,7 @@
         <v>10110.799999999999</v>
       </c>
       <c r="S27" s="39">
-        <f>(C27*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D27*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F27*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G27*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H27*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C27:H27)</f>
+        <f>(C27*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D27*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F27*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G27*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H27*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C27:H27)</f>
         <v>9.6760650887573938</v>
       </c>
       <c r="T27" s="41">
@@ -11336,7 +11656,7 @@
         <v>9553.84</v>
       </c>
       <c r="S28" s="39">
-        <f>(C28*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D28*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+F28*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G28*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H28*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C28:H28)</f>
+        <f>(C28*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D28*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+F28*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G28*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H28*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C28:H28)</f>
         <v>9.5830785562632705</v>
       </c>
       <c r="T28" s="41">
@@ -11462,7 +11782,7 @@
         <v>8235.0299999999988</v>
       </c>
       <c r="S29" s="39">
-        <f>(C29*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D29*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F29*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G29*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H29*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C29:H29)</f>
+        <f>(C29*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D29*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F29*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G29*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H29*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C29:H29)</f>
         <v>9.911662790697676</v>
       </c>
       <c r="T29" s="58">
@@ -11588,7 +11908,7 @@
         <v>11390.290000000003</v>
       </c>
       <c r="S30" s="39">
-        <f>(C30*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D30*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F30*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G30*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H30*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C30:H30)</f>
+        <f>(C30*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D30*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F30*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G30*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H30*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C30:H30)</f>
         <v>9.998725314183126</v>
       </c>
       <c r="T30" s="58">
@@ -11714,7 +12034,7 @@
         <v>10407.419999999996</v>
       </c>
       <c r="S31" s="39">
-        <f>(C31*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D31*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F31*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G31*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H31*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C31:H31)</f>
+        <f>(C31*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D31*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F31*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G31*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H31*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C31:H31)</f>
         <v>9.8859042033235554</v>
       </c>
       <c r="T31" s="58">
@@ -11840,7 +12160,7 @@
         <v>9732.6700000000019</v>
       </c>
       <c r="S32" s="39">
-        <f>(C32*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D32*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F32*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G32*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H32*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C32:H32)</f>
+        <f>(C32*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D32*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F32*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G32*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H32*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C32:H32)</f>
         <v>10.255621734587251</v>
       </c>
       <c r="T32" s="58">
@@ -11966,7 +12286,7 @@
         <v>10076.489999999998</v>
       </c>
       <c r="S33" s="39">
-        <f>(C33*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D33*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F33*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G33*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H33*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C33:H33)</f>
+        <f>(C33*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D33*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F33*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G33*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H33*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C33:H33)</f>
         <v>9.8781038135593224</v>
       </c>
       <c r="T33" s="58">
@@ -12092,7 +12412,7 @@
         <v>10639.58</v>
       </c>
       <c r="S34" s="39">
-        <f>(C34*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D34*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F34*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G34*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H34*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C34:H34)</f>
+        <f>(C34*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D34*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F34*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G34*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H34*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C34:H34)</f>
         <v>9.9122084130019115</v>
       </c>
       <c r="T34" s="58">
@@ -12218,7 +12538,7 @@
         <v>9697.5400000000009</v>
       </c>
       <c r="S35" s="39">
-        <f>(C35*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D35*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F35*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G35*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H35*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C35:H35)</f>
+        <f>(C35*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D35*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F35*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G35*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H35*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C35:H35)</f>
         <v>9.7389738219895285</v>
       </c>
       <c r="T35" s="58">
@@ -12344,7 +12664,7 @@
         <v>8603.09</v>
       </c>
       <c r="S36" s="39">
-        <f>(C36*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D36*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F36*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G36*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H36*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C36:H36)</f>
+        <f>(C36*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D36*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F36*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G36*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H36*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C36:H36)</f>
         <v>9.9269195402298855</v>
       </c>
       <c r="T36" s="58">
@@ -12470,7 +12790,7 @@
         <v>10953.031950741113</v>
       </c>
       <c r="S37" s="39">
-        <f>(C37*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D37*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F37*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G37*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H37*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C37:H37)</f>
+        <f>(C37*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D37*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F37*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G37*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H37*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C37:H37)</f>
         <v>9.7660834088848585</v>
       </c>
       <c r="T37" s="58">
@@ -12596,7 +12916,7 @@
         <v>10905.046593417504</v>
       </c>
       <c r="S38" s="39">
-        <f>(C38*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D38*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F38*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G38*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H38*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C38:H38)</f>
+        <f>(C38*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D38*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F38*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G38*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H38*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C38:H38)</f>
         <v>9.6468636363636353</v>
       </c>
       <c r="T38" s="58">
@@ -12722,7 +13042,7 @@
         <v>9439.0643143017714</v>
       </c>
       <c r="S39" s="39">
-        <f>(C39*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D39*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F39*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G39*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H39*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C39:H39)</f>
+        <f>(C39*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D39*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F39*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G39*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H39*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C39:H39)</f>
         <v>10.100921501706484</v>
       </c>
       <c r="T39" s="58">
@@ -12848,7 +13168,7 @@
         <v>9760.0852854110308</v>
       </c>
       <c r="S40" s="39">
-        <f>(C40*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D40*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F40*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G40*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H40*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C40:H40)</f>
+        <f>(C40*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D40*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F40*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G40*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H40*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C40:H40)</f>
         <v>9.9437735849056619</v>
       </c>
       <c r="T40" s="58">
@@ -12974,7 +13294,7 @@
         <v>11181.229068587949</v>
       </c>
       <c r="S41" s="39">
-        <f>(C41*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D41*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F41*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G41*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H41*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C41:H41)</f>
+        <f>(C41*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D41*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F41*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G41*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H41*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C41:H41)</f>
         <v>10.190568181818183</v>
       </c>
       <c r="T41" s="58">
@@ -13100,7 +13420,7 @@
         <v>12219.470097158182</v>
       </c>
       <c r="S42" s="39">
-        <f>(C42*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D42*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F42*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G42*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H42*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C42:H42)</f>
+        <f>(C42*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D42*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F42*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G42*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H42*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C42:H42)</f>
         <v>9.8232074016962212</v>
       </c>
       <c r="T42" s="58">
@@ -13226,7 +13546,7 @@
         <v>11368.450103676121</v>
       </c>
       <c r="S43" s="39">
-        <f>(C43*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D43*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F43*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G43*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H43*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C43:H43)</f>
+        <f>(C43*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D43*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F43*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G43*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H43*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C43:H43)</f>
         <v>9.8622088006902473</v>
       </c>
       <c r="T43" s="58">
@@ -13352,7 +13672,7 @@
         <v>10735.600083143254</v>
       </c>
       <c r="S44" s="39">
-        <f>(C44*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D44*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F44*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G44*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H44*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C44:H44)</f>
+        <f>(C44*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D44*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F44*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G44*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H44*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C44:H44)</f>
         <v>9.7726173285198552</v>
       </c>
       <c r="T44" s="58">
@@ -13478,7 +13798,7 @@
         <v>10744.700070439605</v>
       </c>
       <c r="S45" s="39">
-        <f>(C45*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D45*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F45*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G45*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H45*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C45:H45)</f>
+        <f>(C45*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D45*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F45*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G45*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H45*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C45:H45)</f>
         <v>9.7530134357005736</v>
       </c>
       <c r="T45" s="58">
@@ -13604,7 +13924,7 @@
         <v>10390.65006635699</v>
       </c>
       <c r="S46" s="39">
-        <f>(C46*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D46*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F46*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G46*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H46*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C46:H46)</f>
+        <f>(C46*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D46*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+F46*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G46*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H46*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C46:H46)</f>
         <v>9.9827522935779811</v>
       </c>
       <c r="T46" s="58">
@@ -13730,7 +14050,7 @@
         <v>10445.650076811111</v>
       </c>
       <c r="S47" s="39">
-        <f>(C47*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D47*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F47*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G47*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H47*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C47:H47)</f>
+        <f>(C47*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D47*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F47*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G47*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H47*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C47:H47)</f>
         <v>10.432495088408643</v>
       </c>
       <c r="T47" s="58">
@@ -13856,7 +14176,7 @@
         <v>10159.070073242085</v>
       </c>
       <c r="S48" s="39">
-        <f>(C48*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D48*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F48*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G48*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H48*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C48:H48)</f>
+        <f>(C48*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D48*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F48*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G48*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H48*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C48:H48)</f>
         <v>10.371764705882352</v>
       </c>
       <c r="T48" s="58">
@@ -13982,7 +14302,7 @@
         <v>9517.1600561698524</v>
       </c>
       <c r="S49" s="39">
-        <f>(C49*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D49*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F49*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G49*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H49*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C49:H49)</f>
+        <f>(C49*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D49*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F49*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G49*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H49*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C49:H49)</f>
         <v>10.248048523206753</v>
       </c>
       <c r="T49" s="58">
@@ -14108,7 +14428,7 @@
         <v>10498.68008928211</v>
       </c>
       <c r="S50" s="39">
-        <f>(C50*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D50*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F50*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G50*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H50*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C50:H50)</f>
+        <f>(C50*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D50*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F50*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G50*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H50*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C50:H50)</f>
         <v>10.709343283582088</v>
       </c>
       <c r="T50" s="58">
@@ -14234,7 +14554,7 @@
         <v>10695.460065766629</v>
       </c>
       <c r="S51" s="39">
-        <f>(C51*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D51*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F51*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G51*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H51*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C51:H51)</f>
+        <f>(C51*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D51*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F51*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G51*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H51*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C51:H51)</f>
         <v>10.183500473036897</v>
       </c>
       <c r="T51" s="58">
@@ -14360,7 +14680,7 @@
         <v>10509.270050507781</v>
       </c>
       <c r="S52" s="39">
-        <f>(C52*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D52*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F52*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G52*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H52*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C52:H52)</f>
+        <f>(C52*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D52*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F52*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G52*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H52*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C52:H52)</f>
         <v>10.298216374269007</v>
       </c>
       <c r="T52" s="58">
@@ -14486,7 +14806,7 @@
         <v>8957.2600385557525</v>
       </c>
       <c r="S53" s="39">
-        <f>(C53*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D53*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F53*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G53*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H53*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C53:H53)</f>
+        <f>(C53*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D53*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F53*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G53*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H53*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C53:H53)</f>
         <v>10.46601931330472</v>
       </c>
       <c r="T53" s="58">
@@ -14612,7 +14932,7 @@
         <v>10680.940074127277</v>
       </c>
       <c r="S54" s="39">
-        <f>(C54*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D54*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F54*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G54*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H54*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C54:H54)</f>
+        <f>(C54*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D54*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F54*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G54*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H54*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C54:H54)</f>
         <v>10.615456273764257</v>
       </c>
       <c r="T54" s="58">
@@ -14738,7 +15058,7 @@
         <v>11479.630099581571</v>
       </c>
       <c r="S55" s="39">
-        <f>(C55*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D55*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F55*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G55*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H55*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C55:H55)</f>
+        <f>(C55*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D55*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F55*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G55*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H55*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C55:H55)</f>
         <v>10.290008857395923</v>
       </c>
       <c r="T55" s="58">
@@ -14864,7 +15184,7 @@
         <v>10388.250070320999</v>
       </c>
       <c r="S56" s="39">
-        <f>(C56*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D56*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F56*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G56*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H56*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C56:H56)</f>
+        <f>(C56*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D56*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F56*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G56*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H56*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C56:H56)</f>
         <v>10.352050092764379</v>
       </c>
       <c r="T56" s="62">
@@ -14990,7 +15310,7 @@
         <v>13546.730072406823</v>
       </c>
       <c r="S57" s="39">
-        <f>(C57*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D57*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F57*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G57*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H57*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C57:H57)</f>
+        <f>(C57*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D57*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F57*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G57*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H57*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C57:H57)</f>
         <v>10.372683851402577</v>
       </c>
       <c r="T57" s="62">
@@ -15116,7 +15436,7 @@
         <v>12315.579451853017</v>
       </c>
       <c r="S58" s="39">
-        <f>(C58*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D58*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F58*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G58*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H58*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C58:H58)</f>
+        <f>(C58*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D58*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F58*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G58*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H58*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C58:H58)</f>
         <v>9.8922546634225466</v>
       </c>
       <c r="T58" s="62">
@@ -15242,7 +15562,7 @@
         <v>10160.260072379077</v>
       </c>
       <c r="S59" s="39">
-        <f>(C59*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D59*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F59*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G59*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H59*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C59:H59)</f>
+        <f>(C59*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D59*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F59*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G59*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H59*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C59:H59)</f>
         <v>10.178948412698414</v>
       </c>
       <c r="T59" s="62">
@@ -15368,7 +15688,7 @@
         <v>11897.101568576896</v>
       </c>
       <c r="S60" s="39">
-        <f>(C60*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D60*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F60*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G60*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H60*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C60:H60)</f>
+        <f>(C60*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D60*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F60*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G60*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H60*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C60:H60)</f>
         <v>10.163086319218241</v>
       </c>
       <c r="T60" s="58">
@@ -15494,7 +15814,7 @@
         <v>11115.248564756723</v>
       </c>
       <c r="S61" s="39">
-        <f>(C61*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D61*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F61*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G61*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H61*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C61:H61)</f>
+        <f>(C61*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D61*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F61*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G61*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H61*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C61:H61)</f>
         <v>10.126496872207328</v>
       </c>
       <c r="T61" s="58">
@@ -15620,7 +15940,7 @@
         <v>9521.3653049488476</v>
       </c>
       <c r="S62" s="39">
-        <f>(C62*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D62*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F62*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G62*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H62*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C62:H62)</f>
+        <f>(C62*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D62*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F62*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G62*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H62*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C62:H62)</f>
         <v>9.8342971086739794</v>
       </c>
       <c r="T62" s="58">
@@ -15746,7 +16066,7 @@
         <v>8389.7318373934941</v>
       </c>
       <c r="S63" s="39">
-        <f>(C63*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D63*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F63*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G63*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H63*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C63:H63)</f>
+        <f>(C63*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D63*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+F63*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G63*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H63*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C63:H63)</f>
         <v>10.037154195011338</v>
       </c>
       <c r="T63" s="58">
@@ -15872,7 +16192,7 @@
         <v>9194.5015460136165</v>
       </c>
       <c r="S64" s="39">
-        <f>(C64*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D64*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F64*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G64*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H64*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C64:H64)</f>
+        <f>(C64*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D64*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F64*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G64*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H64*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C64:H64)</f>
         <v>11.535195140278923</v>
       </c>
       <c r="T64" s="58">
@@ -15998,7 +16318,7 @@
         <v>9137.8953052371253</v>
       </c>
       <c r="S65" s="39">
-        <f>(C65*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D65*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F65*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G65*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H65*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C65:H65)</f>
+        <f>(C65*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D65*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F65*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G65*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H65*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C65:H65)</f>
         <v>11.479287543213465</v>
       </c>
       <c r="T65" s="58">
@@ -16124,7 +16444,7 @@
         <v>8583.4766197617519</v>
       </c>
       <c r="S66" s="39">
-        <f>(C66*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D66*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F66*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G66*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H66*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C66:H66)</f>
+        <f>(C66*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D66*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F66*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G66*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H66*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C66:H66)</f>
         <v>11.595632666089708</v>
       </c>
       <c r="T66" s="58">
@@ -16250,7 +16570,7 @@
         <v>8528.8979226116535</v>
       </c>
       <c r="S67" s="39">
-        <f>(C67*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D67*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F67*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G67*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H67*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C67:H67)</f>
+        <f>(C67*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D67*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F67*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G67*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H67*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C67:H67)</f>
         <v>11.464338752116907</v>
       </c>
       <c r="T67" s="58">
@@ -16373,7 +16693,7 @@
         <v>10477.49760604591</v>
       </c>
       <c r="S68" s="39">
-        <f>(C68*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D68*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F68*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G68*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H68*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C68:H68)</f>
+        <f>(C68*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D68*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F68*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G68*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H68*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C68:H68)</f>
         <v>11.126582943518182</v>
       </c>
       <c r="T68" s="62">
@@ -16496,7 +16816,7 @@
         <v>10061.436848239848</v>
       </c>
       <c r="S69" s="39">
-        <f>(C69*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D69*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F69*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G69*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H69*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C69:H69)</f>
+        <f>(C69*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D69*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F69*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G69*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H69*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C69:H69)</f>
         <v>11.310968636358051</v>
       </c>
       <c r="T69" s="62">
@@ -16619,7 +16939,7 @@
         <v>9787.2643356568587</v>
       </c>
       <c r="S70" s="39">
-        <f>(C70*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D70*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F70*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G70*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H70*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C70:H70)</f>
+        <f>(C70*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D70*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F70*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G70*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H70*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C70:H70)</f>
         <v>11.221234641346275</v>
       </c>
       <c r="T70" s="62">
@@ -16742,7 +17062,7 @@
         <v>9172.3808871874426</v>
       </c>
       <c r="S71" s="39">
-        <f>(C71*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D71*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F71*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G71*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H71*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C71:H71)</f>
+        <f>(C71*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D71*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F71*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G71*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H71*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C71:H71)</f>
         <v>11.285605659983291</v>
       </c>
       <c r="T71" s="62">
@@ -16865,7 +17185,7 @@
         <v>9865.6275753044793</v>
       </c>
       <c r="S72" s="39">
-        <f>(C72*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D72*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F72*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G72*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H72*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C72:H72)</f>
+        <f>(C72*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D72*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F72*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G72*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H72*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C72:H72)</f>
         <v>11.114407898658484</v>
       </c>
       <c r="T72" s="58">
@@ -16988,7 +17308,7 @@
         <v>9865.6275753044793</v>
       </c>
       <c r="S73" s="39">
-        <f>(C73*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D73*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F73*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G73*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H73*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C73:H73)</f>
+        <f>(C73*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D73*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F73*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G73*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H73*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C73:H73)</f>
         <v>11.114407898658484</v>
       </c>
       <c r="T73" s="58">
@@ -17111,7 +17431,7 @@
         <v>10035.797564554641</v>
       </c>
       <c r="S74" s="39">
-        <f>(C74*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D74*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F74*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G74*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H74*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C74:H74)</f>
+        <f>(C74*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D74*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F74*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G74*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H74*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C74:H74)</f>
         <v>11.04192748686437</v>
       </c>
       <c r="T74" s="58">
@@ -17234,7 +17554,7 @@
         <v>9735.5620722675285</v>
       </c>
       <c r="S75" s="39">
-        <f>(C75*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D75*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F75*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G75*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H75*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C75:H75)</f>
+        <f>(C75*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D75*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F75*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G75*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H75*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C75:H75)</f>
         <v>11.255394322236393</v>
       </c>
       <c r="T75" s="58">
@@ -17357,7 +17677,7 @@
         <v>8499.6631640485248</v>
       </c>
       <c r="S76" s="39">
-        <f>(C76*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D76*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F76*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G76*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H76*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C76:H76)</f>
+        <f>(C76*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D76*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F76*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G76*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H76*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C76:H76)</f>
         <v>11.423440717089179</v>
       </c>
       <c r="T76" s="58">
@@ -17480,7 +17800,7 @@
         <v>8787.071993034162</v>
       </c>
       <c r="S77" s="39">
-        <f>(C77*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D77*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F77*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G77*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H77*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C77:H77)</f>
+        <f>(C77*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D77*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F77*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G77*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H77*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C77:H77)</f>
         <v>11.293444063808437</v>
       </c>
       <c r="T77" s="58">
@@ -17574,7 +17894,7 @@
         <v>5</v>
       </c>
       <c r="J78" s="50">
-        <f>SUM(C78:I78)</f>
+        <f t="shared" ref="J78:J86" si="157">SUM(C78:I78)</f>
         <v>1002</v>
       </c>
       <c r="K78" s="38">
@@ -17599,72 +17919,72 @@
         <v>290.68</v>
       </c>
       <c r="R78" s="38">
-        <f>SUM(K78:Q78)</f>
+        <f t="shared" ref="R78:R89" si="158">SUM(K78:Q78)</f>
         <v>12167.569999999998</v>
       </c>
       <c r="S78" s="39">
-        <f>(C78*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D78*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F78*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G78*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H78*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C78:H78)</f>
+        <f>(C78*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D78*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F78*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G78*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H78*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C78:H78)</f>
         <v>11.684642267445613</v>
       </c>
       <c r="T78" s="58">
-        <f>$K78/SUM($K78:$Q78)</f>
+        <f t="shared" ref="T78:T86" si="159">$K78/SUM($K78:$Q78)</f>
         <v>3.4978224904397531E-2</v>
       </c>
       <c r="U78" s="58">
-        <f>L78/SUM($K78:$Q78)</f>
+        <f t="shared" ref="U78:U86" si="160">L78/SUM($K78:$Q78)</f>
         <v>0.60128604150212384</v>
       </c>
       <c r="V78" s="58">
-        <f t="shared" ref="V78:Y80" si="157">M78/SUM($K$2:$Q$2)</f>
+        <f t="shared" ref="V78:Y80" si="161">M78/SUM($K$2:$Q$2)</f>
         <v>0.51064847368555877</v>
       </c>
       <c r="W78" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.38283547460507711</v>
       </c>
       <c r="X78" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.16972366064947003</v>
       </c>
       <c r="Y78" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.11397468051732138</v>
       </c>
       <c r="Z78" s="58"/>
       <c r="AA78" s="58">
-        <f>R78/SUM($K78:$Q78)</f>
+        <f t="shared" ref="AA78:AA86" si="162">R78/SUM($K78:$Q78)</f>
         <v>1</v>
       </c>
       <c r="AB78" s="58">
-        <f t="shared" ref="AB78:AH80" si="158">K78/SUM($K78:$P78)</f>
+        <f t="shared" ref="AB78:AH80" si="163">K78/SUM($K78:$P78)</f>
         <v>3.583429668877966E-2</v>
       </c>
       <c r="AC78" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.61600216891795723</v>
       </c>
       <c r="AD78" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.15102943615710845</v>
       </c>
       <c r="AE78" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.11322745264122182</v>
       </c>
       <c r="AF78" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>5.0197484358278983E-2</v>
       </c>
       <c r="AG78" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>3.3709161236653712E-2</v>
       </c>
       <c r="AH78" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>2.447442049223324E-2</v>
       </c>
       <c r="AI78" s="59">
-        <f>SUM($AB78:$AH78)</f>
+        <f t="shared" ref="AI78:AI86" si="164">SUM($AB78:$AH78)</f>
         <v>1.0244744204922329</v>
       </c>
     </row>
@@ -17697,7 +18017,7 @@
         <v>9</v>
       </c>
       <c r="J79" s="50">
-        <f>SUM(C79:I79)</f>
+        <f t="shared" si="157"/>
         <v>1038</v>
       </c>
       <c r="K79" s="38">
@@ -17722,72 +18042,72 @@
         <v>493.77</v>
       </c>
       <c r="R79" s="38">
-        <f>SUM(K79:Q79)</f>
+        <f t="shared" si="158"/>
         <v>12361.339999999997</v>
       </c>
       <c r="S79" s="39">
-        <f>(C79*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D79*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F79*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G79*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H79*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C79:H79)</f>
+        <f>(C79*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D79*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F79*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G79*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H79*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C79:H79)</f>
         <v>11.446303293665002</v>
       </c>
       <c r="T79" s="58">
-        <f>$K79/SUM($K79:$Q79)</f>
+        <f t="shared" si="159"/>
         <v>2.6520587573839093E-2</v>
       </c>
       <c r="U79" s="58">
-        <f>L79/SUM($K79:$Q79)</f>
+        <f t="shared" si="160"/>
         <v>0.62639649099531269</v>
       </c>
       <c r="V79" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.46041944823227621</v>
       </c>
       <c r="W79" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.36778441715940147</v>
       </c>
       <c r="X79" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.1156656826211102</v>
       </c>
       <c r="Y79" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.13695978318733959</v>
       </c>
       <c r="Z79" s="58"/>
       <c r="AA79" s="58">
-        <f>R79/SUM($K79:$Q79)</f>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AB79" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>2.7624020755723382E-2</v>
       </c>
       <c r="AC79" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.65245875945960274</v>
       </c>
       <c r="AD79" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.13628063706386395</v>
       </c>
       <c r="AE79" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.1088613760019955</v>
       </c>
       <c r="AF79" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>3.4236157865510819E-2</v>
       </c>
       <c r="AG79" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>4.0539048853303575E-2</v>
       </c>
       <c r="AH79" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>4.1606664211797373E-2</v>
       </c>
       <c r="AI79" s="59">
-        <f>SUM($AB79:$AH79)</f>
+        <f t="shared" si="164"/>
         <v>1.0416066642117974</v>
       </c>
     </row>
@@ -17820,7 +18140,7 @@
         <v>9</v>
       </c>
       <c r="J80" s="50">
-        <f>SUM(C80:I80)</f>
+        <f t="shared" si="157"/>
         <v>913</v>
       </c>
       <c r="K80" s="38">
@@ -17845,72 +18165,72 @@
         <v>739</v>
       </c>
       <c r="R80" s="38">
-        <f>SUM(K80:Q80)</f>
+        <f t="shared" si="158"/>
         <v>10766.76</v>
       </c>
       <c r="S80" s="39">
-        <f>(C80*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D80*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+F80*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G80*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H80*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C80:H80)</f>
+        <f>(C80*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D80*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+F80*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G80*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H80*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C80:H80)</f>
         <v>10.719660851866944</v>
       </c>
       <c r="T80" s="58">
-        <f>$K80/SUM($K80:$Q80)</f>
+        <f t="shared" si="159"/>
         <v>2.3767595822698752E-2</v>
       </c>
       <c r="U80" s="58">
-        <f>L80/SUM($K80:$Q80)</f>
+        <f t="shared" si="160"/>
         <v>0.59794125623678807</v>
       </c>
       <c r="V80" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.43720090756139829</v>
       </c>
       <c r="W80" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.2736462731053802</v>
       </c>
       <c r="X80" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>8.3064073037626196E-2</v>
       </c>
       <c r="Y80" s="58">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.15520495571794993</v>
       </c>
       <c r="Z80" s="58"/>
       <c r="AA80" s="58">
-        <f>R80/SUM($K80:$Q80)</f>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AB80" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>2.5519158815129204E-2</v>
       </c>
       <c r="AC80" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.64200678915331044</v>
       </c>
       <c r="AD80" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.15315085323142949</v>
       </c>
       <c r="AE80" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>9.5857898473836647E-2</v>
       </c>
       <c r="AF80" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>2.9097226100345437E-2</v>
       </c>
       <c r="AG80" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>5.4368074225948762E-2</v>
       </c>
       <c r="AH80" s="58">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>7.3695421509888545E-2</v>
       </c>
       <c r="AI80" s="59">
-        <f>SUM($AB80:$AH80)</f>
+        <f t="shared" si="164"/>
         <v>1.0736954215098886</v>
       </c>
     </row>
@@ -17943,7 +18263,7 @@
         <v>2</v>
       </c>
       <c r="J81" s="50">
-        <f>SUM(C81:I81)</f>
+        <f t="shared" si="157"/>
         <v>741</v>
       </c>
       <c r="K81" s="38">
@@ -17968,72 +18288,72 @@
         <v>211.8</v>
       </c>
       <c r="R81" s="38">
-        <f>SUM(K81:Q81)</f>
+        <f t="shared" si="158"/>
         <v>8658.64</v>
       </c>
       <c r="S81" s="39">
-        <f>(C81*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D81*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F81*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G81*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H81*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C81:H81)</f>
+        <f>(C81*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D81*VLOOKUP($D$1,OP!$A$25:$B$30,2,FALSE)+F81*VLOOKUP($F$1,OP!$A$25:$B$30,2,FALSE)+G81*VLOOKUP($G$1,OP!$A$25:$B$30,2,FALSE)+H81*VLOOKUP($H$1,OP!$A$25:$B$30,2,FALSE))/SUM(C81:H81)</f>
         <v>10.90544471943277</v>
       </c>
       <c r="T81" s="41">
-        <f>$K81/SUM($K81:$Q81)</f>
+        <f t="shared" si="159"/>
         <v>4.9175159147394981E-2</v>
       </c>
       <c r="U81" s="41">
-        <f>L81/SUM($K81:$Q81)</f>
+        <f t="shared" si="160"/>
         <v>0.61338270213336055</v>
       </c>
       <c r="V81" s="41">
-        <f>M81/SUM($K$2:$Q$2)</f>
+        <f t="shared" ref="V81:Y86" si="165">M81/SUM($K$2:$Q$2)</f>
         <v>0.36783281284250607</v>
       </c>
       <c r="W81" s="41">
-        <f>N81/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.20223132567163232</v>
       </c>
       <c r="X81" s="41">
-        <f>O81/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>9.4943789837475839E-2</v>
       </c>
       <c r="Y81" s="41">
-        <f>P81/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.10647334963603602</v>
       </c>
       <c r="Z81" s="41"/>
       <c r="AA81" s="41">
-        <f>R81/SUM($K81:$Q81)</f>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AB81" s="41">
-        <f>K81/SUM($K81:$P81)</f>
+        <f t="shared" ref="AB81:AH86" si="166">K81/SUM($K81:$P81)</f>
         <v>5.040819998958191E-2</v>
       </c>
       <c r="AC81" s="41">
-        <f>L81/SUM($K81:$P81)</f>
+        <f t="shared" si="166"/>
         <v>0.62876294566962321</v>
       </c>
       <c r="AD81" s="41">
-        <f>M81/SUM($K81:$P81)</f>
+        <f t="shared" si="166"/>
         <v>0.15296726349735518</v>
       </c>
       <c r="AE81" s="41">
-        <f>N81/SUM($K81:$P81)</f>
+        <f t="shared" si="166"/>
         <v>8.4100089500925748E-2</v>
       </c>
       <c r="AF81" s="41">
-        <f>O81/SUM($K81:$P81)</f>
+        <f t="shared" si="166"/>
         <v>3.9483404444739079E-2</v>
       </c>
       <c r="AG81" s="41">
-        <f>P81/SUM($K81:$P81)</f>
+        <f t="shared" si="166"/>
         <v>4.4278096897774809E-2</v>
       </c>
       <c r="AH81" s="41">
-        <f>Q81/SUM($K81:$P81)</f>
+        <f t="shared" si="166"/>
         <v>2.5074465717357025E-2</v>
       </c>
       <c r="AI81" s="51">
-        <f>SUM($AB81:$AH81)</f>
+        <f t="shared" si="164"/>
         <v>1.0250744657173569</v>
       </c>
     </row>
@@ -18066,7 +18386,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="50">
-        <f>SUM(C82:I82)</f>
+        <f t="shared" si="157"/>
         <v>888</v>
       </c>
       <c r="K82" s="38">
@@ -18091,72 +18411,72 @@
         <v>322</v>
       </c>
       <c r="R82" s="38">
-        <f>SUM(K82:Q82)</f>
+        <f t="shared" si="158"/>
         <v>10416.629999999997</v>
       </c>
       <c r="S82" s="39">
-        <f>(C82*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D82*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F82*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G82*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H82*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C82:H82)</f>
+        <f>(C82*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D82*VLOOKUP($D$1,OP!$A$25:$B$30,2,FALSE)+F82*VLOOKUP($F$1,OP!$A$25:$B$30,2,FALSE)+G82*VLOOKUP($G$1,OP!$A$25:$B$30,2,FALSE)+H82*VLOOKUP($H$1,OP!$A$25:$B$30,2,FALSE))/SUM(C82:H82)</f>
         <v>11.223761205261834</v>
       </c>
       <c r="T82" s="41">
-        <f>$K82/SUM($K82:$Q82)</f>
+        <f t="shared" si="159"/>
         <v>4.1684306728759717E-2</v>
       </c>
       <c r="U82" s="41">
-        <f>L82/SUM($K82:$Q82)</f>
+        <f t="shared" si="160"/>
         <v>0.57828683556966121</v>
       </c>
       <c r="V82" s="41">
-        <f>M82/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.46595648374047366</v>
       </c>
       <c r="W82" s="41">
-        <f>N82/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.26326682248178745</v>
       </c>
       <c r="X82" s="41">
-        <f>O82/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.18217843203680345</v>
       </c>
       <c r="Y82" s="41">
-        <f>P82/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.12387302111475181</v>
       </c>
       <c r="Z82" s="41"/>
       <c r="AA82" s="41">
-        <f>R82/SUM($K82:$Q82)</f>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AB82" s="41">
-        <f>K82/SUM($K82:$P82)</f>
+        <f t="shared" si="166"/>
         <v>4.3013958906864373E-2</v>
       </c>
       <c r="AC82" s="41">
-        <f>L82/SUM($K82:$P82)</f>
+        <f t="shared" si="166"/>
         <v>0.59673311453713507</v>
       </c>
       <c r="AD82" s="41">
-        <f>M82/SUM($K82:$P82)</f>
+        <f t="shared" si="166"/>
         <v>0.16214264415832971</v>
       </c>
       <c r="AE82" s="41">
-        <f>N82/SUM($K82:$P82)</f>
+        <f t="shared" si="166"/>
         <v>9.1611084309182203E-2</v>
       </c>
       <c r="AF82" s="41">
-        <f>O82/SUM($K82:$P82)</f>
+        <f t="shared" si="166"/>
         <v>6.3394101616403978E-2</v>
       </c>
       <c r="AG82" s="41">
-        <f>P82/SUM($K82:$P82)</f>
+        <f t="shared" si="166"/>
         <v>4.3105096472084665E-2</v>
       </c>
       <c r="AH82" s="41">
-        <f>Q82/SUM($K82:$P82)</f>
+        <f t="shared" si="166"/>
         <v>3.1898147827112047E-2</v>
       </c>
       <c r="AI82" s="51">
-        <f>SUM($AB82:$AH82)</f>
+        <f t="shared" si="164"/>
         <v>1.0318981478271121</v>
       </c>
     </row>
@@ -18189,7 +18509,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="50">
-        <f>SUM(C83:I83)</f>
+        <f t="shared" si="157"/>
         <v>919</v>
       </c>
       <c r="K83" s="38">
@@ -18214,72 +18534,72 @@
         <v>178</v>
       </c>
       <c r="R83" s="38">
-        <f>SUM(K83:Q83)</f>
+        <f t="shared" si="158"/>
         <v>10609.250000000007</v>
       </c>
       <c r="S83" s="39">
-        <f>(C83*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D83*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F83*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G83*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H83*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C83:H83)</f>
+        <f>(C83*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D83*VLOOKUP($D$1,OP!$A$25:$B$30,2,FALSE)+F83*VLOOKUP($F$1,OP!$A$25:$B$30,2,FALSE)+G83*VLOOKUP($G$1,OP!$A$25:$B$30,2,FALSE)+H83*VLOOKUP($H$1,OP!$A$25:$B$30,2,FALSE))/SUM(C83:H83)</f>
         <v>11.233651387612044</v>
       </c>
       <c r="T83" s="41">
-        <f>$K83/SUM($K83:$Q83)</f>
+        <f t="shared" si="159"/>
         <v>3.8651177038904708E-2</v>
       </c>
       <c r="U83" s="41">
-        <f>L83/SUM($K83:$Q83)</f>
+        <f t="shared" si="160"/>
         <v>0.62477083676979994</v>
       </c>
       <c r="V83" s="41">
-        <f>M83/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.40051982657264618</v>
       </c>
       <c r="W83" s="41">
-        <f>N83/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.33454512328088587</v>
       </c>
       <c r="X83" s="41">
-        <f>O83/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>9.2669192731537745E-2</v>
       </c>
       <c r="Y83" s="41">
-        <f>P83/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.13814120721608109</v>
       </c>
       <c r="Z83" s="41"/>
       <c r="AA83" s="41">
-        <f>R83/SUM($K83:$Q83)</f>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AB83" s="41">
-        <f>K83/SUM($K83:$P83)</f>
+        <f t="shared" si="166"/>
         <v>3.9310724985020952E-2</v>
       </c>
       <c r="AC83" s="41">
-        <f>L83/SUM($K83:$P83)</f>
+        <f t="shared" si="166"/>
         <v>0.63543199520671068</v>
       </c>
       <c r="AD83" s="41">
-        <f>M83/SUM($K83:$P83)</f>
+        <f t="shared" si="166"/>
         <v>0.13487453565008978</v>
       </c>
       <c r="AE83" s="41">
-        <f>N83/SUM($K83:$P83)</f>
+        <f t="shared" si="166"/>
         <v>0.11265763930497304</v>
       </c>
       <c r="AF83" s="41">
-        <f>O83/SUM($K83:$P83)</f>
+        <f t="shared" si="166"/>
         <v>3.1206231276213279E-2</v>
       </c>
       <c r="AG83" s="41">
-        <f>P83/SUM($K83:$P83)</f>
+        <f t="shared" si="166"/>
         <v>4.6518873576992199E-2</v>
       </c>
       <c r="AH83" s="41">
-        <f>Q83/SUM($K83:$P83)</f>
+        <f t="shared" si="166"/>
         <v>1.7064110245656069E-2</v>
       </c>
       <c r="AI83" s="51">
-        <f>SUM($AB83:$AH83)</f>
+        <f t="shared" si="164"/>
         <v>1.0170641102456561</v>
       </c>
     </row>
@@ -18312,7 +18632,7 @@
         <v>2</v>
       </c>
       <c r="J84" s="50">
-        <f>SUM(C84:I84)</f>
+        <f t="shared" si="157"/>
         <v>849</v>
       </c>
       <c r="K84" s="38">
@@ -18337,72 +18657,72 @@
         <v>56</v>
       </c>
       <c r="R84" s="38">
-        <f>SUM(K84:Q84)</f>
+        <f t="shared" si="158"/>
         <v>9822.1100000000042</v>
       </c>
       <c r="S84" s="39">
-        <f>(C84*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D84*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F84*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G84*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H84*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C84:H84)</f>
+        <f>(C84*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D84*VLOOKUP($D$1,OP!$A$25:$B$30,2,FALSE)+F84*VLOOKUP($F$1,OP!$A$25:$B$30,2,FALSE)+G84*VLOOKUP($G$1,OP!$A$25:$B$30,2,FALSE)+H84*VLOOKUP($H$1,OP!$A$25:$B$30,2,FALSE))/SUM(C84:H84)</f>
         <v>11.770956898962281</v>
       </c>
       <c r="T84" s="41">
-        <f>$K84/SUM($K84:$Q84)</f>
+        <f t="shared" si="159"/>
         <v>5.4594175793184943E-2</v>
       </c>
       <c r="U84" s="41">
-        <f>L84/SUM($K84:$Q84)</f>
+        <f t="shared" si="160"/>
         <v>0.56914145738542943</v>
       </c>
       <c r="V84" s="41">
-        <f>M84/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.33492944194083774</v>
       </c>
       <c r="W84" s="41">
-        <f>N84/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.3170002647528547</v>
       </c>
       <c r="X84" s="41">
-        <f>O84/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.27110692314480833</v>
       </c>
       <c r="Y84" s="41">
-        <f>P84/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.1131177922458728</v>
       </c>
       <c r="Z84" s="41"/>
       <c r="AA84" s="41">
-        <f>R84/SUM($K84:$Q84)</f>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AB84" s="41">
-        <f>K84/SUM($K84:$P84)</f>
+        <f t="shared" si="166"/>
         <v>5.490722508757323E-2</v>
       </c>
       <c r="AC84" s="41">
-        <f>L84/SUM($K84:$P84)</f>
+        <f t="shared" si="166"/>
         <v>0.57240498007906937</v>
       </c>
       <c r="AD84" s="41">
-        <f>M84/SUM($K84:$P84)</f>
+        <f t="shared" si="166"/>
         <v>0.12046864104541109</v>
       </c>
       <c r="AE84" s="41">
-        <f>N84/SUM($K84:$P84)</f>
+        <f t="shared" si="166"/>
         <v>0.11401980932018992</v>
       </c>
       <c r="AF84" s="41">
-        <f>O84/SUM($K84:$P84)</f>
+        <f t="shared" si="166"/>
         <v>9.7512725128019187E-2</v>
       </c>
       <c r="AG84" s="41">
-        <f>P84/SUM($K84:$P84)</f>
+        <f t="shared" si="166"/>
         <v>4.0686619339737086E-2</v>
       </c>
       <c r="AH84" s="41">
-        <f>Q84/SUM($K84:$P84)</f>
+        <f t="shared" si="166"/>
         <v>5.7341152209016664E-3</v>
       </c>
       <c r="AI84" s="51">
-        <f>SUM($AB84:$AH84)</f>
+        <f t="shared" si="164"/>
         <v>1.0057341152209016</v>
       </c>
     </row>
@@ -18414,119 +18734,119 @@
         <v>5</v>
       </c>
       <c r="C85" s="50">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D85" s="50">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="E85" s="50">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F85" s="50">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="G85" s="50">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H85" s="45">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="I85" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85" s="50">
-        <f>SUM(C85:I85)</f>
-        <v>859</v>
+        <f t="shared" si="157"/>
+        <v>543</v>
       </c>
       <c r="K85" s="38">
-        <v>318.98</v>
+        <v>186.70999999999998</v>
       </c>
       <c r="L85" s="38">
-        <v>6116.5200000000013</v>
+        <v>3888.4700000000025</v>
       </c>
       <c r="M85" s="38">
-        <v>1506.5</v>
+        <v>888.08000000000015</v>
       </c>
       <c r="N85" s="38">
-        <v>1000.8699999999995</v>
+        <v>506.73999999999961</v>
       </c>
       <c r="O85" s="38">
-        <v>644.90999999999985</v>
+        <v>523.82000000000005</v>
       </c>
       <c r="P85" s="38">
-        <v>422.70999999999992</v>
+        <v>255.66000000000025</v>
       </c>
       <c r="Q85" s="38">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="R85" s="38">
-        <f>SUM(K85:Q85)</f>
-        <v>10233.49</v>
+        <f t="shared" si="158"/>
+        <v>6332.4800000000023</v>
       </c>
       <c r="S85" s="39">
-        <f>(C85*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D85*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F85*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G85*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H85*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C85:H85)</f>
-        <v>11.432785386956674</v>
+        <f>(C85*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D85*VLOOKUP($D$1,OP!$A$25:$B$30,2,FALSE)+F85*VLOOKUP($F$1,OP!$A$25:$B$30,2,FALSE)+G85*VLOOKUP($G$1,OP!$A$25:$B$30,2,FALSE)+H85*VLOOKUP($H$1,OP!$A$25:$B$30,2,FALSE))/SUM(C85:H85)</f>
+        <v>11.475167547642982</v>
       </c>
       <c r="T85" s="41">
-        <f>$K85/SUM($K85:$Q85)</f>
-        <v>3.1170206840481596E-2</v>
+        <f t="shared" si="159"/>
+        <v>2.9484498964070936E-2</v>
       </c>
       <c r="U85" s="41">
-        <f>L85/SUM($K85:$Q85)</f>
-        <v>0.59769638705856964</v>
+        <f t="shared" si="160"/>
+        <v>0.61405168275304478</v>
       </c>
       <c r="V85" s="41">
-        <f>M85/SUM($K$2:$Q$2)</f>
-        <v>0.42887115645754981</v>
+        <f t="shared" si="165"/>
+        <v>0.25281904854087017</v>
       </c>
       <c r="W85" s="41">
-        <f>N85/SUM($K$2:$Q$2)</f>
-        <v>0.2849281608786377</v>
+        <f t="shared" si="165"/>
+        <v>0.14425899092153907</v>
       </c>
       <c r="X85" s="41">
-        <f>O85/SUM($K$2:$Q$2)</f>
-        <v>0.18359329406640451</v>
+        <f t="shared" si="165"/>
+        <v>0.14912133367115418</v>
       </c>
       <c r="Y85" s="41">
-        <f>P85/SUM($K$2:$Q$2)</f>
-        <v>0.1203372894431934</v>
+        <f t="shared" si="165"/>
+        <v>7.2781413780243803E-2</v>
       </c>
       <c r="Z85" s="41"/>
       <c r="AA85" s="41">
-        <f>R85/SUM($K85:$Q85)</f>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AB85" s="41">
-        <f>K85/SUM($K85:$P85)</f>
-        <v>3.1864574061809162E-2</v>
+        <f t="shared" si="166"/>
+        <v>2.9876085690329422E-2</v>
       </c>
       <c r="AC85" s="41">
-        <f>L85/SUM($K85:$P85)</f>
-        <v>0.61101104940916995</v>
+        <f t="shared" si="166"/>
+        <v>0.62220696761970617</v>
       </c>
       <c r="AD85" s="41">
-        <f>M85/SUM($K85:$P85)</f>
-        <v>0.15049213375169448</v>
+        <f t="shared" si="166"/>
+        <v>0.14210462310464228</v>
       </c>
       <c r="AE85" s="41">
-        <f>N85/SUM($K85:$P85)</f>
-        <v>9.9982118757423424E-2</v>
+        <f t="shared" si="166"/>
+        <v>8.1085146284170753E-2</v>
       </c>
       <c r="AF85" s="41">
-        <f>O85/SUM($K85:$P85)</f>
-        <v>6.4423419832595599E-2</v>
+        <f t="shared" si="166"/>
+        <v>8.3818173672049495E-2</v>
       </c>
       <c r="AG85" s="41">
-        <f>P85/SUM($K85:$P85)</f>
-        <v>4.2226704187307507E-2</v>
+        <f t="shared" si="166"/>
+        <v>4.0909003629101964E-2</v>
       </c>
       <c r="AH85" s="41">
-        <f>Q85/SUM($K85:$P85)</f>
-        <v>2.2276631813227924E-2</v>
+        <f t="shared" si="166"/>
+        <v>1.3281104987934991E-2</v>
       </c>
       <c r="AI85" s="51">
-        <f>SUM($AB85:$AH85)</f>
-        <v>1.0222766318132281</v>
+        <f t="shared" si="164"/>
+        <v>1.0132811049879349</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.25">
@@ -18558,7 +18878,7 @@
         <v>2</v>
       </c>
       <c r="J86" s="50">
-        <f>SUM(C86:I86)</f>
+        <f t="shared" si="157"/>
         <v>731</v>
       </c>
       <c r="K86" s="38">
@@ -18583,73 +18903,442 @@
         <v>142</v>
       </c>
       <c r="R86" s="38">
-        <f>SUM(K86:Q86)</f>
+        <f t="shared" si="158"/>
         <v>8333.9299999999967</v>
       </c>
       <c r="S86" s="39">
-        <f>(C86*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D86*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F86*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G86*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H86*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C86:H86)</f>
+        <f>(C86*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D86*VLOOKUP($D$1,OP!$A$25:$B$30,2,FALSE)+F86*VLOOKUP($F$1,OP!$A$25:$B$30,2,FALSE)+G86*VLOOKUP($G$1,OP!$A$25:$B$30,2,FALSE)+H86*VLOOKUP($H$1,OP!$A$25:$B$30,2,FALSE))/SUM(C86:H86)</f>
         <v>12.08826491167906</v>
       </c>
       <c r="T86" s="41">
-        <f>$K86/SUM($K86:$Q86)</f>
+        <f t="shared" si="159"/>
         <v>5.2496241269125166E-2</v>
       </c>
       <c r="U86" s="41">
-        <f>L86/SUM($K86:$Q86)</f>
+        <f t="shared" si="160"/>
         <v>0.63096762271821327</v>
       </c>
       <c r="V86" s="41">
-        <f>M86/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.22856142408567745</v>
       </c>
       <c r="W86" s="41">
-        <f>N86/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.223835727970712</v>
       </c>
       <c r="X86" s="41">
-        <f>O86/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>0.16761702503195539</v>
       </c>
       <c r="Y86" s="41">
-        <f>P86/SUM($K$2:$Q$2)</f>
+        <f t="shared" si="165"/>
         <v>9.0545476284691881E-2</v>
       </c>
       <c r="Z86" s="41"/>
       <c r="AA86" s="41">
-        <f>R86/SUM($K86:$Q86)</f>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AB86" s="41">
-        <f>K86/SUM($K86:$P86)</f>
+        <f t="shared" si="166"/>
         <v>5.3406218070711088E-2</v>
       </c>
       <c r="AC86" s="41">
-        <f>L86/SUM($K86:$P86)</f>
+        <f t="shared" si="166"/>
         <v>0.64190489908971382</v>
       </c>
       <c r="AD86" s="41">
-        <f>M86/SUM($K86:$P86)</f>
+        <f t="shared" si="166"/>
         <v>9.8007429262701271E-2</v>
       </c>
       <c r="AE86" s="41">
-        <f>N86/SUM($K86:$P86)</f>
+        <f t="shared" si="166"/>
         <v>9.5981044759903975E-2</v>
       </c>
       <c r="AF86" s="41">
-        <f>O86/SUM($K86:$P86)</f>
+        <f t="shared" si="166"/>
         <v>7.1874393457951949E-2</v>
       </c>
       <c r="AG86" s="41">
-        <f>P86/SUM($K86:$P86)</f>
+        <f t="shared" si="166"/>
         <v>3.882601535901798E-2</v>
       </c>
       <c r="AH86" s="41">
-        <f>Q86/SUM($K86:$P86)</f>
+        <f t="shared" si="166"/>
         <v>1.7334132493807938E-2</v>
       </c>
       <c r="AI86" s="51">
-        <f>SUM($AB86:$AH86)</f>
+        <f t="shared" si="164"/>
         <v>1.0173341324938081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A87" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B87" s="27">
+        <v>7</v>
+      </c>
+      <c r="C87" s="13">
+        <v>48</v>
+      </c>
+      <c r="D87" s="13">
+        <v>411</v>
+      </c>
+      <c r="E87" s="13">
+        <v>72</v>
+      </c>
+      <c r="F87" s="13">
+        <v>89</v>
+      </c>
+      <c r="G87" s="13">
+        <v>45</v>
+      </c>
+      <c r="H87" s="13">
+        <v>206</v>
+      </c>
+      <c r="I87" s="13">
+        <v>0</v>
+      </c>
+      <c r="J87" s="22">
+        <f t="shared" ref="J87:J89" si="167">SUM(C87:I87)</f>
+        <v>871</v>
+      </c>
+      <c r="K87" s="16">
+        <v>499.1600000000002</v>
+      </c>
+      <c r="L87" s="16">
+        <v>6040.1</v>
+      </c>
+      <c r="M87" s="16">
+        <v>1609.3999999999994</v>
+      </c>
+      <c r="N87" s="16">
+        <v>922.1600000000002</v>
+      </c>
+      <c r="O87" s="16">
+        <v>657.54</v>
+      </c>
+      <c r="P87" s="16">
+        <v>576.5099999999992</v>
+      </c>
+      <c r="Q87" s="16">
+        <v>0</v>
+      </c>
+      <c r="R87" s="38">
+        <f t="shared" si="158"/>
+        <v>10304.869999999999</v>
+      </c>
+      <c r="S87" s="39">
+        <f>(C87*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D87*VLOOKUP($D$1,OP!$A$25:$B$30,2,FALSE)+F87*VLOOKUP($F$1,OP!$A$25:$B$30,2,FALSE)+G87*VLOOKUP($G$1,OP!$A$25:$B$30,2,FALSE)+H87*VLOOKUP($H$1,OP!$A$25:$B$30,2,FALSE))/SUM(C87:H87)</f>
+        <v>10.630912785935369</v>
+      </c>
+      <c r="T87" s="62">
+        <f t="shared" ref="T87:T89" si="168">$K87/SUM($K87:$Q87)</f>
+        <v>4.8439233100466113E-2</v>
+      </c>
+      <c r="U87" s="62">
+        <f t="shared" ref="U87:U89" si="169">L87/SUM($K87:$Q87)</f>
+        <v>0.5861403394705611</v>
+      </c>
+      <c r="V87" s="62">
+        <f t="shared" ref="V87:V89" si="170">M87/SUM($K$2:$Q$2)</f>
+        <v>0.45816477876055783</v>
+      </c>
+      <c r="W87" s="62">
+        <f t="shared" ref="W87:W89" si="171">N87/SUM($K$2:$Q$2)</f>
+        <v>0.26252095960099187</v>
+      </c>
+      <c r="X87" s="62">
+        <f t="shared" ref="X87:X89" si="172">O87/SUM($K$2:$Q$2)</f>
+        <v>0.18718880864062215</v>
+      </c>
+      <c r="Y87" s="62">
+        <f t="shared" ref="Y87:Y89" si="173">P87/SUM($K$2:$Q$2)</f>
+        <v>0.16412114862883617</v>
+      </c>
+      <c r="Z87" s="62"/>
+      <c r="AA87" s="62">
+        <f t="shared" ref="AA87:AA89" si="174">R87/SUM($K87:$Q87)</f>
+        <v>1</v>
+      </c>
+      <c r="AB87" s="62">
+        <f t="shared" ref="AB87:AB89" si="175">K87/SUM($K87:$P87)</f>
+        <v>4.8439233100466113E-2</v>
+      </c>
+      <c r="AC87" s="62">
+        <f t="shared" ref="AC87:AC89" si="176">L87/SUM($K87:$P87)</f>
+        <v>0.5861403394705611</v>
+      </c>
+      <c r="AD87" s="62">
+        <f t="shared" ref="AD87:AD89" si="177">M87/SUM($K87:$P87)</f>
+        <v>0.15617858352410069</v>
+      </c>
+      <c r="AE87" s="62">
+        <f t="shared" ref="AE87:AE89" si="178">N87/SUM($K87:$P87)</f>
+        <v>8.948778587211681E-2</v>
+      </c>
+      <c r="AF87" s="62">
+        <f t="shared" ref="AF87:AF89" si="179">O87/SUM($K87:$P87)</f>
+        <v>6.3808665223336156E-2</v>
+      </c>
+      <c r="AG87" s="62">
+        <f t="shared" ref="AG87:AG89" si="180">P87/SUM($K87:$P87)</f>
+        <v>5.594539280941916E-2</v>
+      </c>
+      <c r="AH87" s="62">
+        <f t="shared" ref="AH87:AH89" si="181">Q87/SUM($K87:$P87)</f>
+        <v>0</v>
+      </c>
+      <c r="AI87" s="63">
+        <f t="shared" ref="AI87:AI89" si="182">SUM($AB87:$AH87)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A88" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B88" s="27">
+        <v>8</v>
+      </c>
+      <c r="C88" s="13">
+        <v>38</v>
+      </c>
+      <c r="D88" s="13">
+        <v>439</v>
+      </c>
+      <c r="E88" s="13">
+        <v>68</v>
+      </c>
+      <c r="F88" s="13">
+        <v>113</v>
+      </c>
+      <c r="G88" s="13">
+        <v>35</v>
+      </c>
+      <c r="H88" s="13">
+        <v>156</v>
+      </c>
+      <c r="I88" s="13">
+        <v>1</v>
+      </c>
+      <c r="J88" s="22">
+        <f t="shared" si="167"/>
+        <v>850</v>
+      </c>
+      <c r="K88" s="16">
+        <v>391.64999999999986</v>
+      </c>
+      <c r="L88" s="16">
+        <v>6531.9899999999907</v>
+      </c>
+      <c r="M88" s="16">
+        <v>1597.7</v>
+      </c>
+      <c r="N88" s="16">
+        <v>994.23999999999967</v>
+      </c>
+      <c r="O88" s="16">
+        <v>507.71</v>
+      </c>
+      <c r="P88" s="16">
+        <v>485.58999999999884</v>
+      </c>
+      <c r="Q88" s="16">
+        <v>67</v>
+      </c>
+      <c r="R88" s="38">
+        <f t="shared" si="158"/>
+        <v>10575.879999999988</v>
+      </c>
+      <c r="S88" s="39">
+        <f>(C88*VLOOKUP($C$1,OP!$A$18:$B$23,2,FALSE)+D88*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F88*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G88*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H88*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C88:H88)</f>
+        <v>11.733722025912837</v>
+      </c>
+      <c r="T88" s="62">
+        <f t="shared" si="168"/>
+        <v>3.7032379338646081E-2</v>
+      </c>
+      <c r="U88" s="62">
+        <f t="shared" si="169"/>
+        <v>0.61763087327012012</v>
+      </c>
+      <c r="V88" s="62">
+        <f t="shared" si="170"/>
+        <v>0.45483401704097404</v>
+      </c>
+      <c r="W88" s="62">
+        <f t="shared" si="171"/>
+        <v>0.28304072923754009</v>
+      </c>
+      <c r="X88" s="62">
+        <f t="shared" si="172"/>
+        <v>0.14453513099572693</v>
+      </c>
+      <c r="Y88" s="62">
+        <f t="shared" si="173"/>
+        <v>0.13823799858229083</v>
+      </c>
+      <c r="Z88" s="62"/>
+      <c r="AA88" s="62">
+        <f t="shared" si="174"/>
+        <v>1</v>
+      </c>
+      <c r="AB88" s="62">
+        <f t="shared" si="175"/>
+        <v>3.7268481512777792E-2</v>
+      </c>
+      <c r="AC88" s="62">
+        <f t="shared" si="176"/>
+        <v>0.62156861625596616</v>
+      </c>
+      <c r="AD88" s="62">
+        <f t="shared" si="177"/>
+        <v>0.15203332800450683</v>
+      </c>
+      <c r="AE88" s="62">
+        <f t="shared" si="178"/>
+        <v>9.4609511194342383E-2</v>
+      </c>
+      <c r="AF88" s="62">
+        <f t="shared" si="179"/>
+        <v>4.8312474783230995E-2</v>
+      </c>
+      <c r="AG88" s="62">
+        <f t="shared" si="180"/>
+        <v>4.6207588249175875E-2</v>
+      </c>
+      <c r="AH88" s="62">
+        <f t="shared" si="181"/>
+        <v>6.3755604783763895E-3</v>
+      </c>
+      <c r="AI88" s="63">
+        <f t="shared" si="182"/>
+        <v>1.0063755604783764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A89" s="49">
+        <v>2024</v>
+      </c>
+      <c r="B89" s="49">
+        <v>9</v>
+      </c>
+      <c r="C89" s="13">
+        <v>24</v>
+      </c>
+      <c r="D89" s="13">
+        <v>287</v>
+      </c>
+      <c r="E89" s="13">
+        <v>45</v>
+      </c>
+      <c r="F89" s="13">
+        <v>65</v>
+      </c>
+      <c r="G89" s="13">
+        <v>25</v>
+      </c>
+      <c r="H89" s="13">
+        <v>107</v>
+      </c>
+      <c r="I89" s="13">
+        <v>3</v>
+      </c>
+      <c r="J89" s="50">
+        <f t="shared" si="167"/>
+        <v>556</v>
+      </c>
+      <c r="K89" s="38">
+        <v>292.08999999999997</v>
+      </c>
+      <c r="L89" s="38">
+        <v>4412.5400000000054</v>
+      </c>
+      <c r="M89" s="38">
+        <v>1076.8200000000002</v>
+      </c>
+      <c r="N89" s="38">
+        <v>779.27</v>
+      </c>
+      <c r="O89" s="38">
+        <v>377.31999999999994</v>
+      </c>
+      <c r="P89" s="38">
+        <v>381.18999999999966</v>
+      </c>
+      <c r="Q89" s="38">
+        <v>240</v>
+      </c>
+      <c r="R89" s="38">
+        <f t="shared" si="158"/>
+        <v>7559.2300000000059</v>
+      </c>
+      <c r="S89" s="39">
+        <f>(C89*VLOOKUP($C$1,OP!$A$18:$B$23,2,FALSE)+D89*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+F89*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G89*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H89*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C89:H89)</f>
+        <v>11.700560578661847</v>
+      </c>
+      <c r="T89" s="58">
+        <f t="shared" si="168"/>
+        <v>3.864017896002632E-2</v>
+      </c>
+      <c r="U89" s="58">
+        <f t="shared" si="169"/>
+        <v>0.58372876602511126</v>
+      </c>
+      <c r="V89" s="58">
+        <f t="shared" si="170"/>
+        <v>0.3065496440070487</v>
+      </c>
+      <c r="W89" s="58">
+        <f t="shared" si="171"/>
+        <v>0.2218429645487387</v>
+      </c>
+      <c r="X89" s="58">
+        <f t="shared" si="172"/>
+        <v>0.1074156420541405</v>
+      </c>
+      <c r="Y89" s="58">
+        <f t="shared" si="173"/>
+        <v>0.10851735554600284</v>
+      </c>
+      <c r="Z89" s="58"/>
+      <c r="AA89" s="58">
+        <f t="shared" si="174"/>
+        <v>1</v>
+      </c>
+      <c r="AB89" s="58">
+        <f t="shared" si="175"/>
+        <v>3.9907203353358171E-2</v>
+      </c>
+      <c r="AC89" s="58">
+        <f t="shared" si="176"/>
+        <v>0.60286942752174777</v>
+      </c>
+      <c r="AD89" s="58">
+        <f t="shared" si="177"/>
+        <v>0.1471220333286424</v>
+      </c>
+      <c r="AE89" s="58">
+        <f t="shared" si="178"/>
+        <v>0.1064688498653546</v>
+      </c>
+      <c r="AF89" s="58">
+        <f t="shared" si="179"/>
+        <v>5.1551870893522901E-2</v>
+      </c>
+      <c r="AG89" s="58">
+        <f t="shared" si="180"/>
+        <v>5.2080615037374059E-2</v>
+      </c>
+      <c r="AH89" s="58">
+        <f t="shared" si="181"/>
+        <v>3.2790334502399814E-2</v>
+      </c>
+      <c r="AI89" s="59">
+        <f t="shared" si="182"/>
+        <v>1.0327903345023997</v>
       </c>
     </row>
   </sheetData>
@@ -18664,10 +19353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:A86"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88:J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18740,7 +19429,7 @@
         <v>93</v>
       </c>
       <c r="J2" s="47">
-        <f>(C2*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D2*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E2*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F2*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G2*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H2*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C2:H2)</f>
+        <f>(C2*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D2*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+E2*VLOOKUP($E$1,OP!$A$59:$B$65,2,FALSE)+F2*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G2*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H2*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C2:H2)</f>
         <v>7.1062365591397834</v>
       </c>
     </row>
@@ -18774,7 +19463,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="47">
-        <f>(C3*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D3*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E3*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F3*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G3*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H3*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C3:H3)</f>
+        <f>(C3*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D3*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+E3*VLOOKUP($E$1,OP!$A$59:$B$65,2,FALSE)+F3*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G3*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H3*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C3:H3)</f>
         <v>7.4123684210526308</v>
       </c>
     </row>
@@ -18808,7 +19497,7 @@
         <v>81</v>
       </c>
       <c r="J4" s="47">
-        <f>(C4*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D4*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E4*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F4*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G4*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H4*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C4:H4)</f>
+        <f>(C4*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D4*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+E4*VLOOKUP($E$1,OP!$A$59:$B$65,2,FALSE)+F4*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G4*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H4*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C4:H4)</f>
         <v>9.2016049382716059</v>
       </c>
     </row>
@@ -18842,7 +19531,7 @@
         <v>90</v>
       </c>
       <c r="J5" s="47">
-        <f>(C5*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D5*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E5*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F5*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G5*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H5*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C5:H5)</f>
+        <f>(C5*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D5*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+E5*VLOOKUP($E$1,OP!$A$59:$B$65,2,FALSE)+F5*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G5*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H5*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C5:H5)</f>
         <v>8.8357777777777784</v>
       </c>
     </row>
@@ -18876,7 +19565,7 @@
         <v>94</v>
       </c>
       <c r="J6" s="47">
-        <f>(C6*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D6*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E6*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F6*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G6*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H6*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C6:H6)</f>
+        <f>(C6*VLOOKUP($C$1,OP!$A$59:$B$65,2,FALSE)+D6*VLOOKUP($D$1,OP!$A$59:$B$65,2,FALSE)+E6*VLOOKUP($E$1,OP!$A$59:$B$65,2,FALSE)+F6*VLOOKUP($F$1,OP!$A$59:$B$65,2,FALSE)+G6*VLOOKUP($G$1,OP!$A$59:$B$65,2,FALSE)+H6*VLOOKUP($H$1,OP!$A$59:$B$65,2,FALSE))/SUM(C6:H6)</f>
         <v>9.8862765957446808</v>
       </c>
     </row>
@@ -18910,7 +19599,7 @@
         <v>41</v>
       </c>
       <c r="J7" s="47">
-        <f>(C7*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D7*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E7*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F7*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G7*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H7*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C7:H7)</f>
+        <f>(C7*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D7*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E7*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F7*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G7*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H7*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C7:H7)</f>
         <v>10.65341463414634</v>
       </c>
     </row>
@@ -18944,7 +19633,7 @@
         <v>63</v>
       </c>
       <c r="J8" s="47">
-        <f>(C8*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D8*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E8*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F8*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G8*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H8*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C8:H8)</f>
+        <f>(C8*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D8*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E8*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F8*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G8*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H8*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C8:H8)</f>
         <v>11.008888888888889</v>
       </c>
     </row>
@@ -18978,7 +19667,7 @@
         <v>72</v>
       </c>
       <c r="J9" s="47">
-        <f>(C9*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D9*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E9*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F9*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G9*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H9*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C9:H9)</f>
+        <f>(C9*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D9*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E9*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F9*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G9*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H9*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C9:H9)</f>
         <v>12.317361111111111</v>
       </c>
     </row>
@@ -19012,7 +19701,7 @@
         <v>69</v>
       </c>
       <c r="J10" s="47">
-        <f>(C10*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D10*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E10*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F10*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G10*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H10*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C10:H10)</f>
+        <f>(C10*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D10*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E10*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F10*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G10*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H10*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C10:H10)</f>
         <v>11.958695652173912</v>
       </c>
     </row>
@@ -19046,7 +19735,7 @@
         <v>86</v>
       </c>
       <c r="J11" s="47">
-        <f>(C11*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D11*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E11*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F11*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G11*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H11*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C11:H11)</f>
+        <f>(C11*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D11*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E11*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F11*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G11*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H11*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C11:H11)</f>
         <v>11.538372093023256</v>
       </c>
     </row>
@@ -19080,7 +19769,7 @@
         <v>73</v>
       </c>
       <c r="J12" s="47">
-        <f>(C12*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D12*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E12*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F12*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G12*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H12*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C12:H12)</f>
+        <f>(C12*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D12*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E12*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F12*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G12*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H12*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C12:H12)</f>
         <v>11.79082191780822</v>
       </c>
     </row>
@@ -19114,7 +19803,7 @@
         <v>51</v>
       </c>
       <c r="J13" s="47">
-        <f>(C13*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D13*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E13*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F13*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G13*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H13*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C13:H13)</f>
+        <f>(C13*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D13*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E13*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F13*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G13*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H13*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C13:H13)</f>
         <v>11.26686274509804</v>
       </c>
     </row>
@@ -19148,7 +19837,7 @@
         <v>75</v>
       </c>
       <c r="J14" s="47">
-        <f>(C14*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D14*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E14*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F14*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G14*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H14*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C14:H14)</f>
+        <f>(C14*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D14*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E14*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F14*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G14*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H14*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C14:H14)</f>
         <v>10.407333333333332</v>
       </c>
     </row>
@@ -19182,7 +19871,7 @@
         <v>85</v>
       </c>
       <c r="J15" s="47">
-        <f>(C15*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D15*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E15*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F15*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G15*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H15*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C15:H15)</f>
+        <f>(C15*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D15*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E15*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F15*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G15*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H15*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C15:H15)</f>
         <v>12.336117647058822</v>
       </c>
     </row>
@@ -19216,7 +19905,7 @@
         <v>83</v>
       </c>
       <c r="J16" s="47">
-        <f>(C16*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D16*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E16*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F16*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G16*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H16*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C16:H16)</f>
+        <f>(C16*VLOOKUP($C$1,OP!$A$52:$B$58,2,FALSE)+D16*VLOOKUP($D$1,OP!$A$52:$B$58,2,FALSE)+E16*VLOOKUP($E$1,OP!$A$52:$B$58,2,FALSE)+F16*VLOOKUP($F$1,OP!$A$52:$B$58,2,FALSE)+G16*VLOOKUP($G$1,OP!$A$52:$B$58,2,FALSE)+H16*VLOOKUP($H$1,OP!$A$52:$B$58,2,FALSE))/SUM(C16:H16)</f>
         <v>12.719036144578311</v>
       </c>
     </row>
@@ -19250,7 +19939,7 @@
         <v>74</v>
       </c>
       <c r="J17" s="47">
-        <f>(C17*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D17*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E17*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F17*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G17*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H17*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C17:H17)</f>
+        <f>(C17*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D17*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E17*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F17*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G17*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H17*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C17:H17)</f>
         <v>12.701891891891892</v>
       </c>
     </row>
@@ -19284,7 +19973,7 @@
         <v>119</v>
       </c>
       <c r="J18" s="47">
-        <f>(C18*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D18*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E18*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F18*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G18*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H18*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C18:H18)</f>
+        <f>(C18*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D18*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E18*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F18*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G18*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H18*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C18:H18)</f>
         <v>13.471848739495798</v>
       </c>
     </row>
@@ -19318,7 +20007,7 @@
         <v>70</v>
       </c>
       <c r="J19" s="47">
-        <f>(C19*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D19*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E19*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F19*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G19*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H19*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C19:H19)</f>
+        <f>(C19*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D19*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E19*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F19*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G19*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H19*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C19:H19)</f>
         <v>12.774999999999999</v>
       </c>
     </row>
@@ -19352,7 +20041,7 @@
         <v>52</v>
       </c>
       <c r="J20" s="47">
-        <f>(C20*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D20*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E20*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F20*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G20*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H20*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C20:H20)</f>
+        <f>(C20*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D20*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E20*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F20*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G20*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H20*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C20:H20)</f>
         <v>11.37269230769231</v>
       </c>
     </row>
@@ -19386,7 +20075,7 @@
         <v>56</v>
       </c>
       <c r="J21" s="47">
-        <f>(C21*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D21*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E21*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F21*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G21*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H21*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C21:H21)</f>
+        <f>(C21*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D21*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E21*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F21*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G21*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H21*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C21:H21)</f>
         <v>13.873571428571429</v>
       </c>
     </row>
@@ -19420,7 +20109,7 @@
         <v>74</v>
       </c>
       <c r="J22" s="47">
-        <f>(C22*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D22*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E22*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F22*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G22*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H22*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C22:H22)</f>
+        <f>(C22*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D22*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E22*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F22*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G22*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H22*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C22:H22)</f>
         <v>13.749864864864865</v>
       </c>
     </row>
@@ -19454,7 +20143,7 @@
         <v>67</v>
       </c>
       <c r="J23" s="47">
-        <f>(C23*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D23*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E23*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F23*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G23*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H23*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C23:H23)</f>
+        <f>(C23*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D23*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E23*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F23*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G23*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H23*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C23:H23)</f>
         <v>14.991044776119404</v>
       </c>
     </row>
@@ -19488,7 +20177,7 @@
         <v>84</v>
       </c>
       <c r="J24" s="47">
-        <f>(C24*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D24*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E24*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F24*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G24*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H24*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C24:H24)</f>
+        <f>(C24*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D24*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E24*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F24*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G24*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H24*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C24:H24)</f>
         <v>14.623928571428573</v>
       </c>
     </row>
@@ -19522,7 +20211,7 @@
         <v>69</v>
       </c>
       <c r="J25" s="47">
-        <f>(C25*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D25*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E25*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F25*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G25*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H25*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C25:H25)</f>
+        <f>(C25*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D25*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E25*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F25*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G25*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H25*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C25:H25)</f>
         <v>13.701739130434783</v>
       </c>
     </row>
@@ -19556,7 +20245,7 @@
         <v>51</v>
       </c>
       <c r="J26" s="47">
-        <f>(C26*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D26*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E26*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F26*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G26*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H26*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C26:H26)</f>
+        <f>(C26*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D26*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E26*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F26*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G26*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H26*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C26:H26)</f>
         <v>15.005098039215687</v>
       </c>
     </row>
@@ -19590,7 +20279,7 @@
         <v>40</v>
       </c>
       <c r="J27" s="47">
-        <f>(C27*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D27*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E27*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F27*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G27*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H27*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C27:H27)</f>
+        <f>(C27*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D27*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E27*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F27*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G27*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H27*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C27:H27)</f>
         <v>14.773</v>
       </c>
     </row>
@@ -19624,7 +20313,7 @@
         <v>48</v>
       </c>
       <c r="J28" s="47">
-        <f>(C28*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D28*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E28*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F28*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G28*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H28*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C28:H28)</f>
+        <f>(C28*VLOOKUP($C$1,OP!$A$45:$B$51,2,FALSE)+D28*VLOOKUP($D$1,OP!$A$45:$B$51,2,FALSE)+E28*VLOOKUP($E$1,OP!$A$45:$B$51,2,FALSE)+F28*VLOOKUP($F$1,OP!$A$45:$B$51,2,FALSE)+G28*VLOOKUP($G$1,OP!$A$45:$B$51,2,FALSE)+H28*VLOOKUP($H$1,OP!$A$45:$B$51,2,FALSE))/SUM(C28:H28)</f>
         <v>12.647708333333334</v>
       </c>
     </row>
@@ -19658,7 +20347,7 @@
         <v>58</v>
       </c>
       <c r="J29" s="11">
-        <f>(C29*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D29*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E29*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F29*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G29*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H29*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C29:H29)</f>
+        <f>(C29*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D29*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E29*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F29*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G29*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H29*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C29:H29)</f>
         <v>13.190344827586209</v>
       </c>
     </row>
@@ -19692,7 +20381,7 @@
         <v>33</v>
       </c>
       <c r="J30" s="11">
-        <f>(C30*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D30*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E30*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F30*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G30*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H30*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C30:H30)</f>
+        <f>(C30*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D30*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E30*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F30*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G30*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H30*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C30:H30)</f>
         <v>14.081212121212122</v>
       </c>
     </row>
@@ -19726,7 +20415,7 @@
         <v>32</v>
       </c>
       <c r="J31" s="11">
-        <f>(C31*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D31*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E31*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F31*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G31*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H31*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C31:H31)</f>
+        <f>(C31*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D31*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E31*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F31*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G31*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H31*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C31:H31)</f>
         <v>13.164999999999999</v>
       </c>
     </row>
@@ -19760,7 +20449,7 @@
         <v>35</v>
       </c>
       <c r="J32" s="11">
-        <f>(C32*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D32*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E32*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F32*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G32*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H32*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C32:H32)</f>
+        <f>(C32*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D32*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E32*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F32*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G32*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H32*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C32:H32)</f>
         <v>12.799142857142854</v>
       </c>
     </row>
@@ -19794,7 +20483,7 @@
         <v>73</v>
       </c>
       <c r="J33" s="11">
-        <f>(C33*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D33*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E33*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F33*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G33*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H33*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C33:H33)</f>
+        <f>(C33*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D33*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E33*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F33*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G33*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H33*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C33:H33)</f>
         <v>13.504794520547945</v>
       </c>
     </row>
@@ -19828,7 +20517,7 @@
         <v>58</v>
       </c>
       <c r="J34" s="11">
-        <f>(C34*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D34*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E34*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F34*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G34*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H34*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C34:H34)</f>
+        <f>(C34*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D34*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E34*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F34*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G34*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H34*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C34:H34)</f>
         <v>12.611034482758622</v>
       </c>
     </row>
@@ -19862,7 +20551,7 @@
         <v>29</v>
       </c>
       <c r="J35" s="11">
-        <f>(C35*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D35*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E35*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F35*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G35*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H35*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C35:H35)</f>
+        <f>(C35*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D35*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E35*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F35*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G35*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H35*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C35:H35)</f>
         <v>12.230344827586206</v>
       </c>
     </row>
@@ -19896,7 +20585,7 @@
         <v>47</v>
       </c>
       <c r="J36" s="11">
-        <f>(C36*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D36*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E36*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F36*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G36*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H36*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C36:H36)</f>
+        <f>(C36*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D36*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E36*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F36*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G36*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H36*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C36:H36)</f>
         <v>13.969787234042551</v>
       </c>
     </row>
@@ -19930,7 +20619,7 @@
         <v>77</v>
       </c>
       <c r="J37" s="11">
-        <f>(C37*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D37*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E37*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F37*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G37*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H37*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C37:H37)</f>
+        <f>(C37*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D37*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E37*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F37*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G37*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H37*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C37:H37)</f>
         <v>13.64038961038961</v>
       </c>
     </row>
@@ -19964,7 +20653,7 @@
         <v>43</v>
       </c>
       <c r="J38" s="11">
-        <f>(C38*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D38*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E38*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F38*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G38*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H38*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C38:H38)</f>
+        <f>(C38*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D38*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E38*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F38*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G38*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H38*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C38:H38)</f>
         <v>14.050697674418604</v>
       </c>
     </row>
@@ -19998,7 +20687,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="11">
-        <f>(C39*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D39*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E39*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F39*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G39*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H39*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C39:H39)</f>
+        <f>(C39*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D39*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E39*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F39*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G39*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H39*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C39:H39)</f>
         <v>13.122</v>
       </c>
     </row>
@@ -20032,7 +20721,7 @@
         <v>24</v>
       </c>
       <c r="J40" s="11">
-        <f>(C40*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D40*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E40*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F40*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G40*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H40*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C40:H40)</f>
+        <f>(C40*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D40*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E40*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F40*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G40*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H40*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C40:H40)</f>
         <v>13.438333333333333</v>
       </c>
     </row>
@@ -20066,7 +20755,7 @@
         <v>24</v>
       </c>
       <c r="J41" s="11">
-        <f>(C41*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D41*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E41*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F41*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G41*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H41*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C41:H41)</f>
+        <f>(C41*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D41*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E41*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F41*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G41*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H41*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C41:H41)</f>
         <v>13.279166666666667</v>
       </c>
     </row>
@@ -20100,7 +20789,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="11">
-        <f>(C42*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D42*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E42*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F42*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G42*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H42*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C42:H42)</f>
+        <f>(C42*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D42*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E42*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F42*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G42*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H42*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C42:H42)</f>
         <v>13.438333333333333</v>
       </c>
     </row>
@@ -20134,7 +20823,7 @@
         <v>47</v>
       </c>
       <c r="J43" s="11">
-        <f>(C43*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D43*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E43*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F43*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G43*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H43*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C43:H43)</f>
+        <f>(C43*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D43*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E43*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F43*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G43*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H43*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C43:H43)</f>
         <v>14.318936170212766</v>
       </c>
     </row>
@@ -20168,7 +20857,7 @@
         <v>33</v>
       </c>
       <c r="J44" s="11">
-        <f>(C44*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D44*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E44*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F44*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G44*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H44*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C44:H44)</f>
+        <f>(C44*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D44*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E44*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F44*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G44*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H44*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C44:H44)</f>
         <v>13.869393939393937</v>
       </c>
     </row>
@@ -20202,7 +20891,7 @@
         <v>38</v>
       </c>
       <c r="J45" s="11">
-        <f>(C45*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D45*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E45*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F45*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G45*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H45*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C45:H45)</f>
+        <f>(C45*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D45*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E45*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F45*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G45*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H45*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C45:H45)</f>
         <v>12.273421052631578</v>
       </c>
     </row>
@@ -20236,7 +20925,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="11">
-        <f>(C46*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D46*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E46*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F46*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G46*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H46*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C46:H46)</f>
+        <f>(C46*VLOOKUP($C$1,OP!$A$38:$B$44,2,FALSE)+D46*VLOOKUP($D$1,OP!$A$38:$B$44,2,FALSE)+E46*VLOOKUP($E$1,OP!$A$38:$B$44,2,FALSE)+F46*VLOOKUP($F$1,OP!$A$38:$B$44,2,FALSE)+G46*VLOOKUP($G$1,OP!$A$38:$B$44,2,FALSE)+H46*VLOOKUP($H$1,OP!$A$38:$B$44,2,FALSE))/SUM(C46:H46)</f>
         <v>13.482000000000003</v>
       </c>
     </row>
@@ -20270,7 +20959,7 @@
         <v>45</v>
       </c>
       <c r="J47" s="11">
-        <f>(C47*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D47*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E47*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F47*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G47*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H47*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C47:H47)</f>
+        <f>(C47*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D47*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E47*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F47*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G47*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H47*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C47:H47)</f>
         <v>14.965333333333335</v>
       </c>
     </row>
@@ -20304,7 +20993,7 @@
         <v>41</v>
       </c>
       <c r="J48" s="11">
-        <f>(C48*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D48*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E48*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F48*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G48*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H48*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C48:H48)</f>
+        <f>(C48*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D48*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E48*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F48*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G48*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H48*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C48:H48)</f>
         <v>14.640975609756097</v>
       </c>
     </row>
@@ -20338,7 +21027,7 @@
         <v>30</v>
       </c>
       <c r="J49" s="11">
-        <f>(C49*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D49*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E49*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F49*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G49*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H49*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C49:H49)</f>
+        <f>(C49*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D49*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E49*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F49*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G49*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H49*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C49:H49)</f>
         <v>13.525</v>
       </c>
     </row>
@@ -20372,7 +21061,7 @@
         <v>39</v>
       </c>
       <c r="J50" s="11">
-        <f>(C50*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D50*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E50*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F50*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G50*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H50*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C50:H50)</f>
+        <f>(C50*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D50*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E50*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F50*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G50*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H50*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C50:H50)</f>
         <v>13.716666666666665</v>
       </c>
     </row>
@@ -20406,7 +21095,7 @@
         <v>33</v>
       </c>
       <c r="J51" s="11">
-        <f>(C51*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D51*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E51*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F51*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G51*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H51*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C51:H51)</f>
+        <f>(C51*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D51*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E51*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F51*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G51*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H51*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C51:H51)</f>
         <v>14.153030303030302</v>
       </c>
     </row>
@@ -20440,7 +21129,7 @@
         <v>33</v>
       </c>
       <c r="J52" s="11">
-        <f>(C52*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D52*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E52*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F52*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G52*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H52*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C52:H52)</f>
+        <f>(C52*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D52*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E52*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F52*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G52*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H52*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C52:H52)</f>
         <v>12.247272727272726</v>
       </c>
     </row>
@@ -20474,7 +21163,7 @@
         <v>27</v>
       </c>
       <c r="J53" s="11">
-        <f>(C53*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D53*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E53*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F53*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G53*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H53*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C53:H53)</f>
+        <f>(C53*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D53*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E53*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F53*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G53*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H53*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C53:H53)</f>
         <v>13.40185185185185</v>
       </c>
     </row>
@@ -20508,7 +21197,7 @@
         <v>52</v>
       </c>
       <c r="J54" s="11">
-        <f>(C54*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D54*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E54*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F54*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G54*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H54*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C54:H54)</f>
+        <f>(C54*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D54*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E54*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F54*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G54*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H54*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C54:H54)</f>
         <v>12.881538461538462</v>
       </c>
     </row>
@@ -20542,7 +21231,7 @@
         <v>50</v>
       </c>
       <c r="J55" s="11">
-        <f>(C55*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D55*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E55*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F55*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G55*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H55*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C55:H55)</f>
+        <f>(C55*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D55*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E55*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F55*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G55*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H55*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C55:H55)</f>
         <v>13.323400000000001</v>
       </c>
     </row>
@@ -20576,7 +21265,7 @@
         <v>29</v>
       </c>
       <c r="J56" s="11">
-        <f>(C56*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D56*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E56*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F56*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G56*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H56*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C56:H56)</f>
+        <f>(C56*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D56*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E56*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F56*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G56*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H56*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C56:H56)</f>
         <v>13.320344827586208</v>
       </c>
     </row>
@@ -20610,7 +21299,7 @@
         <v>57</v>
       </c>
       <c r="J57" s="11">
-        <f>(C57*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D57*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E57*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F57*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G57*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H57*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C57:H57)</f>
+        <f>(C57*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D57*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E57*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F57*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G57*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H57*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C57:H57)</f>
         <v>11.868771929824561</v>
       </c>
     </row>
@@ -20644,7 +21333,7 @@
         <v>34</v>
       </c>
       <c r="J58" s="11">
-        <f>(C58*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D58*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E58*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F58*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G58*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H58*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C58:H58)</f>
+        <f>(C58*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D58*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E58*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F58*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G58*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H58*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C58:H58)</f>
         <v>12.511470588235293</v>
       </c>
     </row>
@@ -20678,7 +21367,7 @@
         <v>53</v>
       </c>
       <c r="J59" s="11">
-        <f>(C59*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D59*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E59*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F59*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G59*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H59*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C59:H59)</f>
+        <f>(C59*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D59*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E59*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F59*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G59*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H59*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C59:H59)</f>
         <v>13.196981132075473</v>
       </c>
     </row>
@@ -20712,7 +21401,7 @@
         <v>66</v>
       </c>
       <c r="J60" s="11">
-        <f>(C60*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D60*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E60*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F60*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G60*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H60*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C60:H60)</f>
+        <f>(C60*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D60*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E60*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F60*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G60*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H60*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C60:H60)</f>
         <v>13.417272727272726</v>
       </c>
     </row>
@@ -20778,7 +21467,7 @@
         <v>66</v>
       </c>
       <c r="J62" s="11">
-        <f>(C62*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D62*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E62*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F62*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G62*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H62*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C62:H62)</f>
+        <f>(C62*VLOOKUP($C$1,OP!$A$31:$B$37,2,FALSE)+D62*VLOOKUP($D$1,OP!$A$31:$B$37,2,FALSE)+E62*VLOOKUP($E$1,OP!$A$31:$B$37,2,FALSE)+F62*VLOOKUP($F$1,OP!$A$31:$B$37,2,FALSE)+G62*VLOOKUP($G$1,OP!$A$31:$B$37,2,FALSE)+H62*VLOOKUP($H$1,OP!$A$31:$B$37,2,FALSE))/SUM(C62:H62)</f>
         <v>13.417272727272726</v>
       </c>
     </row>
@@ -20812,7 +21501,7 @@
         <v>64</v>
       </c>
       <c r="J63" s="11">
-        <f>(C63*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D63*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E63*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F63*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G63*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H63*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C63:H63)</f>
+        <f>(C63*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D63*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E63*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F63*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G63*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H63*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C63:H63)</f>
         <v>15.414969104075293</v>
       </c>
     </row>
@@ -20846,7 +21535,7 @@
         <v>37</v>
       </c>
       <c r="J64" s="11">
-        <f>(C64*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D64*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E64*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F64*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G64*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H64*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C64:H64)</f>
+        <f>(C64*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D64*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E64*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F64*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G64*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H64*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C64:H64)</f>
         <v>13.738015647226174</v>
       </c>
     </row>
@@ -20880,7 +21569,7 @@
         <v>5</v>
       </c>
       <c r="J65" s="11">
-        <f>(C65*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D65*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E65*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F65*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G65*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H65*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C65:H65)</f>
+        <f>(C65*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D65*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E65*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F65*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G65*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H65*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C65:H65)</f>
         <v>14.144736842105264</v>
       </c>
     </row>
@@ -20914,7 +21603,7 @@
         <v>21</v>
       </c>
       <c r="J66" s="11">
-        <f>(C66*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D66*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E66*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F66*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G66*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H66*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C66:H66)</f>
+        <f>(C66*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D66*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E66*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F66*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G66*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H66*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C66:H66)</f>
         <v>15.447447612085769</v>
       </c>
     </row>
@@ -20948,7 +21637,7 @@
         <v>29</v>
       </c>
       <c r="J67" s="11">
-        <f>(C67*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D67*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E67*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F67*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G67*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H67*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C67:H67)</f>
+        <f>(C67*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D67*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E67*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F67*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G67*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H67*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C67:H67)</f>
         <v>14.698407567049811</v>
       </c>
     </row>
@@ -20982,7 +21671,7 @@
         <v>31</v>
       </c>
       <c r="J68" s="11">
-        <f>(C68*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D68*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E68*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F68*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G68*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H68*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C68:H68)</f>
+        <f>(C68*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D68*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E68*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F68*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G68*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H68*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C68:H68)</f>
         <v>13.777215973401246</v>
       </c>
     </row>
@@ -21016,7 +21705,7 @@
         <v>48</v>
       </c>
       <c r="J69" s="11">
-        <f>(C69*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D69*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E69*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F69*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G69*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H69*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C69:H69)</f>
+        <f>(C69*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D69*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E69*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F69*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G69*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H69*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C69:H69)</f>
         <v>13.38032102826511</v>
       </c>
     </row>
@@ -21050,7 +21739,7 @@
         <v>31</v>
       </c>
       <c r="J70" s="11">
-        <f>(C70*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D70*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E70*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F70*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G70*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H70*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C70:H70)</f>
+        <f>(C70*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D70*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E70*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F70*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G70*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H70*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C70:H70)</f>
         <v>13.777215973401246</v>
       </c>
     </row>
@@ -21084,7 +21773,7 @@
         <v>45</v>
       </c>
       <c r="J71" s="11">
-        <f>(C71*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D71*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E71*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F71*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G71*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H71*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C71:H71)</f>
+        <f>(C71*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D71*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E71*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F71*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G71*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H71*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C71:H71)</f>
         <v>15.632973927875243</v>
       </c>
     </row>
@@ -21118,7 +21807,7 @@
         <v>67</v>
       </c>
       <c r="J72" s="11">
-        <f>(C72*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D72*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E72*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F72*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G72*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H72*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C72:H72)</f>
+        <f>(C72*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D72*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E72*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F72*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G72*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H72*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C72:H72)</f>
         <v>15.176211322772104</v>
       </c>
     </row>
@@ -21152,7 +21841,7 @@
         <v>38</v>
       </c>
       <c r="J73" s="11">
-        <f>(C73*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D73*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E73*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F73*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G73*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H73*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C73:H73)</f>
+        <f>(C73*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D73*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E73*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F73*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G73*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H73*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C73:H73)</f>
         <v>16.690074349799939</v>
       </c>
     </row>
@@ -21186,7 +21875,7 @@
         <v>40</v>
       </c>
       <c r="J74" s="11">
-        <f>(C74*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D74*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E74*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F74*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G74*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H74*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C74:H74)</f>
+        <f>(C74*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D74*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E74*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F74*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G74*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H74*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C74:H74)</f>
         <v>15.830891812865499</v>
       </c>
     </row>
@@ -21220,7 +21909,7 @@
         <v>38</v>
       </c>
       <c r="J75" s="11">
-        <f>(C75*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D75*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E75*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F75*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G75*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H75*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C75:H75)</f>
+        <f>(C75*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D75*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E75*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F75*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G75*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H75*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C75:H75)</f>
         <v>15.258149142043706</v>
       </c>
     </row>
@@ -21254,7 +21943,7 @@
         <v>45</v>
       </c>
       <c r="J76" s="11">
-        <f>(C76*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D76*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E76*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F76*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G76*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H76*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C76:H76)</f>
+        <f>(C76*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D76*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E76*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F76*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G76*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H76*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C76:H76)</f>
         <v>14.714600795971414</v>
       </c>
     </row>
@@ -21288,7 +21977,7 @@
         <v>46</v>
       </c>
       <c r="J77" s="11">
-        <f>(C77*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D77*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E77*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F77*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G77*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H77*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C77:H77)</f>
+        <f>(C77*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D77*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E77*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F77*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G77*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H77*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C77:H77)</f>
         <v>15.666122393846935</v>
       </c>
     </row>
@@ -21322,7 +22011,7 @@
         <v>57</v>
       </c>
       <c r="J78" s="11">
-        <f>(C78*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D78*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E78*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F78*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G78*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H78*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C78:H78)</f>
+        <f>(C78*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D78*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E78*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F78*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G78*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H78*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C78:H78)</f>
         <v>14.741700330871039</v>
       </c>
     </row>
@@ -21356,7 +22045,7 @@
         <v>56</v>
       </c>
       <c r="J79" s="11">
-        <f>(C79*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D79*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E79*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F79*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G79*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H79*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C79:H79)</f>
+        <f>(C79*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D79*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E79*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F79*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G79*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H79*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C79:H79)</f>
         <v>14.663393509816206</v>
       </c>
     </row>
@@ -21390,7 +22079,7 @@
         <v>54</v>
       </c>
       <c r="J80" s="11">
-        <f>(C80*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D80*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E80*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F80*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G80*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H80*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C80:H80)</f>
+        <f>(C80*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D80*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E80*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F80*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G80*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H80*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C80:H80)</f>
         <v>15.356992500541478</v>
       </c>
     </row>
@@ -21424,7 +22113,7 @@
         <v>68</v>
       </c>
       <c r="J81" s="11">
-        <f>(C81*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D81*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E81*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F81*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G81*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H81*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C81:H81)</f>
+        <f>(C81*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D81*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E81*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F81*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G81*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H81*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C81:H81)</f>
         <v>14.555771091331271</v>
       </c>
     </row>
@@ -21458,7 +22147,7 @@
         <v>68</v>
       </c>
       <c r="J82" s="11">
-        <f>(C82*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D82*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E82*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F82*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G82*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H82*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C82:H82)</f>
+        <f>(C82*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D82*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E82*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F82*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G82*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H82*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C82:H82)</f>
         <v>15.100360122119024</v>
       </c>
     </row>
@@ -21492,7 +22181,7 @@
         <v>84</v>
       </c>
       <c r="J83" s="11">
-        <f>(C83*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D83*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E83*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F83*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G83*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H83*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C83:H83)</f>
+        <f>(C83*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D83*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E83*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F83*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G83*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H83*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C83:H83)</f>
         <v>14.899068852687273</v>
       </c>
     </row>
@@ -21526,7 +22215,7 @@
         <v>73</v>
       </c>
       <c r="J84" s="11">
-        <f>(C84*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D84*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E84*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F84*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G84*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H84*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C84:H84)</f>
+        <f>(C84*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D84*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E84*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F84*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G84*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H84*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C84:H84)</f>
         <v>15.951802701674277</v>
       </c>
     </row>
@@ -21560,7 +22249,7 @@
         <v>81</v>
       </c>
       <c r="J85" s="11">
-        <f>(C85*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D85*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E85*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F85*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G85*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H85*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C85:H85)</f>
+        <f>(C85*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D85*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E85*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F85*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G85*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H85*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C85:H85)</f>
         <v>15.913511885423436</v>
       </c>
     </row>
@@ -21594,8 +22283,178 @@
         <v>54</v>
       </c>
       <c r="J86" s="11">
-        <f>(C86*VLOOKUP($C$1,OP!$A$17:$B$23,2,FALSE)+D86*VLOOKUP($D$1,OP!$A$17:$B$23,2,FALSE)+E86*VLOOKUP($E$1,OP!$A$17:$B$23,2,FALSE)+F86*VLOOKUP($F$1,OP!$A$17:$B$23,2,FALSE)+G86*VLOOKUP($G$1,OP!$A$17:$B$23,2,FALSE)+H86*VLOOKUP($H$1,OP!$A$17:$B$23,2,FALSE))/SUM(C86:H86)</f>
+        <f>(C86*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D86*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E86*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F86*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G86*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H86*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C86:H86)</f>
         <v>14.989051670457009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B87" s="52">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>37</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>11</v>
+      </c>
+      <c r="H87">
+        <v>7</v>
+      </c>
+      <c r="I87">
+        <f>SUM(C87:H87)</f>
+        <v>61</v>
+      </c>
+      <c r="J87" s="11">
+        <f>(C87*VLOOKUP($C$1,OP!$A$24:$B$30,2,FALSE)+D87*VLOOKUP($D$1,OP!$A$24:$B$30,2,FALSE)+E87*VLOOKUP($E$1,OP!$A$24:$B$30,2,FALSE)+F87*VLOOKUP($F$1,OP!$A$24:$B$30,2,FALSE)+G87*VLOOKUP($G$1,OP!$A$24:$B$30,2,FALSE)+H87*VLOOKUP($H$1,OP!$A$24:$B$30,2,FALSE))/SUM(C87:H87)</f>
+        <v>14.212922119164029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B88" s="52">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>7</v>
+      </c>
+      <c r="I88">
+        <f>SUM(C88:H88)</f>
+        <v>48</v>
+      </c>
+      <c r="J88" s="11">
+        <f>(C88*VLOOKUP($C$1,OP!$A$18:$B$23,2,FALSE)+D88*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+E88*VLOOKUP($E$1,OP!$A$18:$B$23,2,FALSE)+F88*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G88*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H88*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C88:H88)</f>
+        <v>14.788333333333332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B89" s="52">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>29</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <f>SUM(C89:H89)</f>
+        <v>49</v>
+      </c>
+      <c r="J89" s="11">
+        <f>(C89*VLOOKUP($C$1,OP!$A$18:$B$23,2,FALSE)+D89*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+E89*VLOOKUP($E$1,OP!$A$18:$B$23,2,FALSE)+F89*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G89*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H89*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C89:H89)</f>
+        <v>16.593877551020409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B90" s="52">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>12</v>
+      </c>
+      <c r="H90">
+        <v>9</v>
+      </c>
+      <c r="I90">
+        <f>SUM(C90:H90)</f>
+        <v>50</v>
+      </c>
+      <c r="J90" s="11">
+        <f>(C90*VLOOKUP($C$1,OP!$A$18:$B$23,2,FALSE)+D90*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+E90*VLOOKUP($E$1,OP!$A$18:$B$23,2,FALSE)+F90*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G90*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H90*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C90:H90)</f>
+        <v>15.158200000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="52">
+        <v>2024</v>
+      </c>
+      <c r="B91" s="52">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>21</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>SUM(C91:H91)</f>
+        <v>29</v>
+      </c>
+      <c r="J91" s="11">
+        <f>(C91*VLOOKUP($C$1,OP!$A$18:$B$23,2,FALSE)+D91*VLOOKUP($D$1,OP!$A$18:$B$23,2,FALSE)+E91*VLOOKUP($E$1,OP!$A$18:$B$23,2,FALSE)+F91*VLOOKUP($F$1,OP!$A$18:$B$23,2,FALSE)+G91*VLOOKUP($G$1,OP!$A$18:$B$23,2,FALSE)+H91*VLOOKUP($H$1,OP!$A$18:$B$23,2,FALSE))/SUM(C91:H91)</f>
+        <v>17.372068965517244</v>
       </c>
     </row>
   </sheetData>
@@ -21608,10 +22467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6335AA81-92E1-4191-98F5-D9E75D89EE86}">
-  <dimension ref="A1:J357"/>
+  <dimension ref="A1:J382"/>
   <sheetViews>
-    <sheetView topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="J357" sqref="J357"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="H382" sqref="H382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33383,6 +34242,831 @@
         <v>8</v>
       </c>
     </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2024</v>
+      </c>
+      <c r="B358">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>57</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>5</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <f t="shared" ref="J358:J362" si="69">SUM(D358:I358)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2024</v>
+      </c>
+      <c r="B359">
+        <v>7</v>
+      </c>
+      <c r="C359" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>15</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <f t="shared" si="69"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2024</v>
+      </c>
+      <c r="B360">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s">
+        <v>60</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>5</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <f t="shared" si="69"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2024</v>
+      </c>
+      <c r="B361">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>69</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>8</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>9</v>
+      </c>
+      <c r="H361">
+        <v>3</v>
+      </c>
+      <c r="I361">
+        <v>6</v>
+      </c>
+      <c r="J361">
+        <f t="shared" si="69"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2024</v>
+      </c>
+      <c r="B362">
+        <v>7</v>
+      </c>
+      <c r="C362" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>4</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <f t="shared" si="69"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2024</v>
+      </c>
+      <c r="B363">
+        <v>8</v>
+      </c>
+      <c r="C363" t="s">
+        <v>57</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>3</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <f t="shared" ref="J363:J367" si="70">SUM(D363:I363)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2024</v>
+      </c>
+      <c r="B364">
+        <v>8</v>
+      </c>
+      <c r="C364" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>13</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>2</v>
+      </c>
+      <c r="J364">
+        <f t="shared" si="70"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2024</v>
+      </c>
+      <c r="B365">
+        <v>8</v>
+      </c>
+      <c r="C365" t="s">
+        <v>60</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>10</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>3</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>4</v>
+      </c>
+      <c r="J365">
+        <f t="shared" si="70"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2024</v>
+      </c>
+      <c r="B366">
+        <v>8</v>
+      </c>
+      <c r="C366" t="s">
+        <v>69</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>4</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <f t="shared" si="70"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2024</v>
+      </c>
+      <c r="B367">
+        <v>8</v>
+      </c>
+      <c r="C367" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>5</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <f t="shared" si="70"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2024</v>
+      </c>
+      <c r="B368">
+        <v>9</v>
+      </c>
+      <c r="C368" t="s">
+        <v>57</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>5</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <f t="shared" ref="J368:J372" si="71">SUM(D368:I368)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2024</v>
+      </c>
+      <c r="B369">
+        <v>9</v>
+      </c>
+      <c r="C369" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>7</v>
+      </c>
+      <c r="F369">
+        <v>2</v>
+      </c>
+      <c r="G369">
+        <v>3</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>2</v>
+      </c>
+      <c r="J369">
+        <f t="shared" si="71"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2024</v>
+      </c>
+      <c r="B370">
+        <v>9</v>
+      </c>
+      <c r="C370" t="s">
+        <v>60</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>10</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>2</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <f t="shared" si="71"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2024</v>
+      </c>
+      <c r="B371">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>69</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>10</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <f t="shared" si="71"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2024</v>
+      </c>
+      <c r="B372">
+        <v>9</v>
+      </c>
+      <c r="C372" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2024</v>
+      </c>
+      <c r="B373">
+        <v>10</v>
+      </c>
+      <c r="C373" t="s">
+        <v>57</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>3</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <f t="shared" ref="J373:J377" si="72">SUM(D373:I373)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2024</v>
+      </c>
+      <c r="B374">
+        <v>10</v>
+      </c>
+      <c r="C374" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>4</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>4</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2024</v>
+      </c>
+      <c r="B375">
+        <v>10</v>
+      </c>
+      <c r="C375" t="s">
+        <v>60</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>4</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>6</v>
+      </c>
+      <c r="H375">
+        <v>3</v>
+      </c>
+      <c r="I375">
+        <v>5</v>
+      </c>
+      <c r="J375">
+        <f t="shared" si="72"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2024</v>
+      </c>
+      <c r="B376">
+        <v>10</v>
+      </c>
+      <c r="C376" t="s">
+        <v>69</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>12</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376">
+        <v>2</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>3</v>
+      </c>
+      <c r="J376">
+        <f t="shared" si="72"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2024</v>
+      </c>
+      <c r="B377">
+        <v>10</v>
+      </c>
+      <c r="C377" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2024</v>
+      </c>
+      <c r="B378">
+        <v>11</v>
+      </c>
+      <c r="C378" t="s">
+        <v>57</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>2</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>4</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <f t="shared" ref="J378:J382" si="73">SUM(D378:I378)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2024</v>
+      </c>
+      <c r="B379">
+        <v>11</v>
+      </c>
+      <c r="C379" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>5</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2024</v>
+      </c>
+      <c r="B380">
+        <v>11</v>
+      </c>
+      <c r="C380" t="s">
+        <v>60</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>7</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <f t="shared" si="73"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2024</v>
+      </c>
+      <c r="B381">
+        <v>11</v>
+      </c>
+      <c r="C381" t="s">
+        <v>69</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>2</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2024</v>
+      </c>
+      <c r="B382">
+        <v>11</v>
+      </c>
+      <c r="C382" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>5</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -33393,19 +35077,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB2B5E-69B9-4E17-A8DC-DBA424D12F80}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G9"/>
+      <selection activeCell="B10" sqref="B10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -33578,26 +35261,141 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>29</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="13">
+        <v>12</v>
+      </c>
+      <c r="G13" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>21</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <v>248</v>
-      </c>
-      <c r="D10" s="13">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13">
-        <v>29</v>
-      </c>
-      <c r="F10" s="13">
-        <v>93</v>
-      </c>
-      <c r="G10" s="13">
-        <v>27</v>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>394</v>
+      </c>
+      <c r="D15" s="13">
+        <v>38</v>
+      </c>
+      <c r="E15" s="13">
+        <v>40</v>
+      </c>
+      <c r="F15" s="13">
+        <v>138</v>
+      </c>
+      <c r="G15" s="13">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -33607,10 +35405,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33737,7 +35535,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -33745,7 +35543,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>13.478947368421053</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -33753,7 +35551,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5">
-        <v>14.144736842105264</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -33761,7 +35559,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="5">
-        <v>19.183333333333334</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -33769,7 +35567,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="5">
-        <v>18.605555555555554</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -33777,7 +35575,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="5">
-        <v>19.700000000000003</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -33785,7 +35583,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="7">
-        <v>2.1031249999999995</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -33793,7 +35591,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -33801,7 +35599,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="5">
-        <v>12.39</v>
+        <v>13.478947368421053</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -33809,7 +35607,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="5">
-        <v>14.07</v>
+        <v>14.144736842105264</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -33817,7 +35615,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="5">
-        <v>20.02</v>
+        <v>19.183333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -33825,7 +35623,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="5">
-        <v>10.69</v>
+        <v>18.605555555555554</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -33833,7 +35631,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="5">
-        <v>17.88</v>
+        <v>19.700000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -33841,7 +35639,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="7">
-        <v>2.69</v>
+        <v>2.1031249999999995</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -33849,7 +35647,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -33857,7 +35655,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="5">
-        <v>10</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -33865,7 +35663,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="5">
-        <v>13.11</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -33873,7 +35671,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="5">
-        <v>18.84</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -33881,7 +35679,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="5">
-        <v>9.5299999999999994</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -33889,7 +35687,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="5">
-        <v>16.93</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -33897,15 +35695,15 @@
         <v>20</v>
       </c>
       <c r="B37" s="7">
-        <v>4.55</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>70</v>
+      <c r="B38" s="60" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -33921,7 +35719,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="5">
-        <v>12.48</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -33929,7 +35727,7 @@
         <v>22</v>
       </c>
       <c r="B41" s="5">
-        <v>17.7</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -33937,7 +35735,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="5">
-        <v>9.61</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -33945,7 +35743,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="5">
-        <v>18.64</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -33953,7 +35751,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="7">
-        <v>2.48</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -33961,7 +35759,7 @@
         <v>24</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -33969,7 +35767,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="5">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="C46" s="11"/>
     </row>
@@ -33978,7 +35776,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="5">
-        <v>13.02</v>
+        <v>12.48</v>
       </c>
       <c r="C47" s="11"/>
     </row>
@@ -33987,7 +35785,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="5">
-        <v>16.28</v>
+        <v>17.7</v>
       </c>
       <c r="C48" s="11"/>
     </row>
@@ -33996,7 +35794,7 @@
         <v>21</v>
       </c>
       <c r="B49" s="5">
-        <v>9.5299999999999994</v>
+        <v>9.61</v>
       </c>
       <c r="C49" s="11"/>
     </row>
@@ -34005,7 +35803,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="5">
-        <v>17.68</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -34013,15 +35811,15 @@
         <v>20</v>
       </c>
       <c r="B51" s="7">
-        <v>4.0199999999999996</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>27</v>
+      <c r="B52" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -34029,7 +35827,7 @@
         <v>18</v>
       </c>
       <c r="B53" s="5">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -34037,7 +35835,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="5">
-        <v>10.58</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -34045,7 +35843,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="5">
-        <v>15.6</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -34053,7 +35851,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="5">
-        <v>9.26</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -34061,7 +35859,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="5">
-        <v>9.92</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -34069,6 +35867,62 @@
         <v>20</v>
       </c>
       <c r="B58" s="7">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="5">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="5">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="5">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="5">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="7">
         <v>2.65</v>
       </c>
     </row>
